--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.502</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.326</v>
+        <v>18.714</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3633764496.568</v>
+        <v>-0.278</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1730264.486</v>
+        <v>32.448</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.882</v>
+        <v>14.879</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-641296.500142908</v>
+        <v>22.08343168463189</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-93290.44928093704</v>
+        <v>22.16981091749041</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34715.0965204514</v>
+        <v>22.18545237025937</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2015510.048796932</v>
+        <v>22.0978367570279</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>204531.449365467</v>
+        <v>22.15918396470331</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>325928.8590828523</v>
+        <v>22.18062939567645</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1919999.320603356</v>
+        <v>22.13684685922979</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1323074.53918335</v>
+        <v>22.18721102440007</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1295449.176499221</v>
+        <v>22.2015760656197</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1186310.559067185</v>
+        <v>22.21461259813309</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1554007.520964392</v>
+        <v>22.24133664958592</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1683323.464481113</v>
+        <v>22.25900988065768</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-261344.9602965848</v>
+        <v>22.13499857481352</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1160864.719007632</v>
+        <v>22.2182731709635</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1316211.476246361</v>
+        <v>22.24744463888103</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-259142.1958367719</v>
+        <v>22.09081135612527</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>919404.3838252635</v>
+        <v>22.22000464778635</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1320225.552481506</v>
+        <v>22.24591040032149</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-845841.5121610143</v>
+        <v>22.09229072537801</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>787873.6491696467</v>
+        <v>22.19082218927293</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1369988.473967157</v>
+        <v>22.22503095140116</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-478831.4807115052</v>
+        <v>22.15283943711283</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2105513.550518632</v>
+        <v>22.23327102861228</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2778867.49737014</v>
+        <v>22.25680488919795</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1520222.141155655</v>
+        <v>22.28255591802895</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1907115.921731287</v>
+        <v>22.33458162389342</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2083541.123083984</v>
+        <v>22.36420735445338</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>143841.0837981147</v>
+        <v>22.1613866577492</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1917297.064573725</v>
+        <v>22.3016668284117</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2215093.298917284</v>
+        <v>22.34471859782622</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>169719.1040971886</v>
+        <v>22.11993652309917</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1419073.495199942</v>
+        <v>22.26726064828588</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1677930.495543165</v>
+        <v>22.30079407409805</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-580600.4330719111</v>
+        <v>22.12331635197936</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1250708.089386832</v>
+        <v>22.23955526576535</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1562872.580090003</v>
+        <v>22.28336848059924</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-189961.8439100678</v>
+        <v>22.19998138287411</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2634040.589260017</v>
+        <v>22.29521512132167</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3034022.121923797</v>
+        <v>22.32610688685721</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2452407.776256165</v>
+        <v>22.38593781408423</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2563132.302195614</v>
+        <v>22.44483665613561</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2733628.160631198</v>
+        <v>22.4807642782036</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>587987.0025127057</v>
+        <v>22.23616069814619</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2404028.975751616</v>
+        <v>22.40214029593974</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2601126.611796115</v>
+        <v>22.45709820336043</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-692414.1004694874</v>
+        <v>22.09421729003404</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1410219.428088796</v>
+        <v>22.20381869036454</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1620273.966376657</v>
+        <v>22.21991022884038</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-1392640.932460984</v>
+        <v>22.11275272000116</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1762404.32858793</v>
+        <v>22.19571028526022</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1902302.969306663</v>
+        <v>22.21803097786105</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-1128674.188073056</v>
+        <v>22.16314461204628</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3409045.768585116</v>
+        <v>22.23136217893393</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3469929.363009999</v>
+        <v>22.24601581175561</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2269474.114581858</v>
+        <v>22.2645422322867</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2753830.876803212</v>
+        <v>22.30194772009726</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2727524.183327632</v>
+        <v>22.31795158242663</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-66148.03451581248</v>
+        <v>22.16194048798377</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2214682.29613848</v>
+        <v>22.27437053473122</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2368736.537826624</v>
+        <v>22.30451602781238</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-373650.4662053109</v>
+        <v>22.08840013853928</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>925062.0578242437</v>
+        <v>22.25008837909784</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1147205.238124758</v>
+        <v>22.27682076601224</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-884909.9103310429</v>
+        <v>22.08990177589707</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>803642.115330866</v>
+        <v>22.219012619456</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1166194.886450395</v>
+        <v>22.25465038754764</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-598644.7860321952</v>
+        <v>22.16891141590846</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1966836.375300486</v>
+        <v>22.27455501372733</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2385086.867801294</v>
+        <v>22.29864482002368</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1284180.154862662</v>
+        <v>22.33029592766266</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1594073.458165639</v>
+        <v>22.39813532959755</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1705693.507574722</v>
+        <v>22.42630855913355</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-22705.95088729655</v>
+        <v>22.17761367396066</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1617918.050147309</v>
+        <v>22.35983690720552</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1721335.753561161</v>
+        <v>22.40413163667253</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-269234.0965711933</v>
+        <v>22.12315862995001</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1091733.909700417</v>
+        <v>22.30673540034534</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1215366.994556104</v>
+        <v>22.34230399609592</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-707250.9294049196</v>
+        <v>22.12719055379296</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1119539.169836084</v>
+        <v>22.27784740400316</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1292037.855460789</v>
+        <v>22.32468042705534</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-549065.497639145</v>
+        <v>22.22502844557076</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>2178466.409316313</v>
+        <v>22.34870251944075</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2418805.752513373</v>
+        <v>22.38136103973956</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1796560.249111742</v>
+        <v>22.45164626882733</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1985559.500303421</v>
+        <v>22.5280004905833</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>2052966.410896883</v>
+        <v>22.56317568278897</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>186114.4284976835</v>
+        <v>22.26560409379067</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1900997.607730597</v>
+        <v>22.47900795038402</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1886271.094939088</v>
+        <v>22.53716354600463</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>128422.436998206</v>
+        <v>22.08690325310907</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1465005.25823533</v>
+        <v>22.1958263528444</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1527863.136449296</v>
+        <v>22.21108161647988</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-877919.8275846345</v>
+        <v>22.10469472269763</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1530371.529828098</v>
+        <v>22.18684258415907</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1546454.129500068</v>
+        <v>22.20819856445496</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-592048.2478916108</v>
+        <v>22.15524368566343</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3159421.192343082</v>
+        <v>22.22279170346203</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3080464.51806733</v>
+        <v>22.2366346326276</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>2255555.160093264</v>
+        <v>22.25601874629275</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2746002.910826042</v>
+        <v>22.29291927910316</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>2659425.713222917</v>
+        <v>22.30831225084072</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>472502.8479039857</v>
+        <v>22.15430769008035</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2261496.711637147</v>
+        <v>22.26566666430892</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2259918.628434983</v>
+        <v>22.29450029957943</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>170257.3254062099</v>
+        <v>22.08555511052464</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1232457.381643433</v>
+        <v>22.24646012813536</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1360351.474597798</v>
+        <v>22.27198453548615</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-532081.3867148672</v>
+        <v>22.08669160496001</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1001329.451235861</v>
+        <v>22.21485984641606</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1251538.37549635</v>
+        <v>22.24909914939715</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-199179.4002771057</v>
+        <v>22.16560515978366</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2173916.714332313</v>
+        <v>22.27046879313637</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2490426.741507811</v>
+        <v>22.29338792661459</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1406346.193391352</v>
+        <v>22.32744349291314</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1675356.117208964</v>
+        <v>22.39463007805658</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1740972.014506018</v>
+        <v>22.42185633769003</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>251178.8000381033</v>
+        <v>22.17585844404257</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1674170.779750646</v>
+        <v>22.35681533993354</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1704094.521139713</v>
+        <v>22.39921482657273</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>91186.24131395195</v>
+        <v>22.1211147754192</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1304469.697867384</v>
+        <v>22.30392322670718</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1326935.233735835</v>
+        <v>22.33824498602844</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-425069.1932333292</v>
+        <v>22.1247008035584</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1347428.879602144</v>
+        <v>22.2744202563736</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1380760.84595497</v>
+        <v>22.31981226463343</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>-272253.7084258361</v>
+        <v>22.22249037161319</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>2377191.268547718</v>
+        <v>22.3453926475069</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2483510.757860032</v>
+        <v>22.37684296655163</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1910390.061752046</v>
+        <v>22.44968931271811</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2056229.108601079</v>
+        <v>22.52537025667224</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2087083.859290362</v>
+        <v>22.55954926203661</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>459131.8037845935</v>
+        <v>22.26467146574967</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2005521.504345008</v>
+        <v>22.47680461120696</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1932666.027532091</v>
+        <v>22.53301844743394</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-324445.1048554864</v>
+        <v>22.07035892165869</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>105599.4789084368</v>
+        <v>22.15591856618468</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>236887.7597871819</v>
+        <v>22.17108660703926</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-1584166.26552572</v>
+        <v>22.08311297897558</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>261641.1867624596</v>
+        <v>22.14298209324887</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>458381.2543281854</v>
+        <v>22.16385303573902</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>-1507942.647221269</v>
+        <v>22.12176046076519</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1284449.763769153</v>
+        <v>22.17090896989133</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1305098.927891163</v>
+        <v>22.18477505117119</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1326567.662968742</v>
+        <v>22.19319643849688</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1596575.383755834</v>
+        <v>22.21954811781771</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1821381.802712049</v>
+        <v>22.23696290392139</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1071036.897608536</v>
+        <v>22.11513325524775</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>2107775.28203469</v>
+        <v>22.19666262358388</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2245317.169648856</v>
+        <v>22.22491278215836</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-93508.21213431495</v>
+        <v>22.07148941715582</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>927375.9091579836</v>
+        <v>22.19960893219598</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1315703.586382249</v>
+        <v>22.22489103244183</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-473014.0587570627</v>
+        <v>22.07071704924102</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>932451.534542002</v>
+        <v>22.16728398302914</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1524064.153585201</v>
+        <v>22.2007453176561</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-265567.0804962485</v>
+        <v>22.1308574885951</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1984817.90851834</v>
+        <v>22.20967055214984</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>2637635.348888057</v>
+        <v>22.23254768946633</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1301017.975164012</v>
+        <v>22.25228435208127</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1577643.368591703</v>
+        <v>22.30394296172325</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1906328.014472484</v>
+        <v>22.33337182904104</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>277428.1068631041</v>
+        <v>22.13321234053139</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1784797.814337844</v>
+        <v>22.271263526828</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2006853.100530884</v>
+        <v>22.31307229300761</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>404690.6817777162</v>
+        <v>22.10346084344921</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1454803.186920075</v>
+        <v>22.24987934178807</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1718294.677658916</v>
+        <v>22.28287947953265</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-237833.896708683</v>
+        <v>22.1047257229714</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1346256.725884804</v>
+        <v>22.21914636506548</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1675101.484408353</v>
+        <v>22.2623284049292</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>125944.1344833738</v>
+        <v>22.18103642605347</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2617477.572076898</v>
+        <v>22.27477372427316</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3014232.81072263</v>
+        <v>22.30509695738888</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2234677.511915118</v>
+        <v>22.35970065172138</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2305585.130919433</v>
+        <v>22.41830722274961</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2597903.629935801</v>
+        <v>22.45403752929295</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>779476.5964169335</v>
+        <v>22.21185977344575</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2312989.774347663</v>
+        <v>22.37583015670334</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2441924.442355618</v>
+        <v>22.42966543543265</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>746167.8161131134</v>
+        <v>22.09980283793167</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2327508.128778195</v>
+        <v>22.18877441854662</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>2176378.419446094</v>
+        <v>22.20407462199517</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-947970.677492067</v>
+        <v>22.11602039591881</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>2534977.914828563</v>
+        <v>22.18041703434928</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>2347576.924792179</v>
+        <v>22.20141600843255</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-295466.4420928951</v>
+        <v>22.15508153949306</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>4378472.14212027</v>
+        <v>22.20799802722524</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>3970955.904674928</v>
+        <v>22.22201785298616</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2345225.093707581</v>
+        <v>22.2378577551318</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>2801439.357641052</v>
+        <v>22.26651953105398</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2733629.812501912</v>
+        <v>22.28389924224617</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>283603.7470472262</v>
+        <v>22.15565358525912</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1943249.793464772</v>
+        <v>22.24289336070188</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1915914.93650348</v>
+        <v>22.27126924200384</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>528696.6533472076</v>
+        <v>22.11906755380769</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1899886.147501561</v>
+        <v>22.25156802048911</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1921445.654854025</v>
+        <v>22.27678285698766</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-414415.0176125388</v>
+        <v>22.12360371122637</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1615168.262142584</v>
+        <v>22.22598735913323</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1832980.779945743</v>
+        <v>22.25932009065094</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>173775.7278128616</v>
+        <v>22.18405263711303</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>3177330.454133662</v>
+        <v>22.26772142252472</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3425250.0355291</v>
+        <v>22.29056422925002</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>2107427.06609461</v>
+        <v>22.32288103946075</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>2424795.876998566</v>
+        <v>22.37738478712896</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>2563498.279148112</v>
+        <v>22.40656960581123</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>779203.6986598618</v>
+        <v>22.19883195856866</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>2523732.868527563</v>
+        <v>22.34416422004969</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>451557.6144755091</v>
+        <v>22.14378109649344</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1839022.646918625</v>
+        <v>22.29442763920856</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1915381.463309573</v>
+        <v>22.32729043298415</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>-507602.2434564491</v>
+        <v>22.14993590143141</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1617881.695577981</v>
+        <v>22.27004732691005</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1722429.998183005</v>
+        <v>22.3130076439346</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-35178.5916185998</v>
+        <v>22.22664164642222</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>3099414.375335596</v>
+        <v>22.32513067844493</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>3278276.90843335</v>
+        <v>22.35534825246193</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>2566530.52619289</v>
+        <v>22.42077797524475</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>2651181.64992813</v>
+        <v>22.48215841379004</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>2858623.681930901</v>
+        <v>22.51759304749416</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>747162.7724721932</v>
+        <v>22.26816521374596</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>2594540.961627654</v>
+        <v>22.43923815068643</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2609756.506106658</v>
+        <v>22.49274585544138</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>3900.7232142152</v>
+        <v>22.07566184348392</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>758767.203881497</v>
+        <v>22.2144129245712</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>886189.8711664549</v>
+        <v>22.23456521041527</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-564764.6755798305</v>
+        <v>22.09984960034311</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1095740.306235956</v>
+        <v>22.20492214085049</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1041981.938628768</v>
+        <v>22.23286228211053</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>-353688.4870683598</v>
+        <v>22.1627845057889</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>2049627.172352442</v>
+        <v>22.24925854207923</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1918043.404103199</v>
+        <v>22.2676036674259</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1071372.135419723</v>
+        <v>22.28673097267465</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1225199.275471413</v>
+        <v>22.33436716329509</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1113559.811103842</v>
+        <v>22.35532197061679</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>-175645.3373130339</v>
+        <v>22.15705249759341</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>385541.935475355</v>
+        <v>22.29860754828662</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>424923.8423514941</v>
+        <v>22.33626377571101</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>177357.2637622394</v>
+        <v>22.10835728360378</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>922240.0598669362</v>
+        <v>22.31366213460906</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>954193.9157775017</v>
+        <v>22.34682945471504</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-414657.3191577091</v>
+        <v>22.11492062970597</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>697154.0619429578</v>
+        <v>22.279140648253</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>781410.231349288</v>
+        <v>22.32333765506992</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-154826.1635704516</v>
+        <v>22.21240323516716</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>1475270.704946341</v>
+        <v>22.34686779610029</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1546736.536172932</v>
+        <v>22.37670122121663</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>886857.732065895</v>
+        <v>22.42294149828979</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1059014.018029763</v>
+        <v>22.50971526903454</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>1106802.779319012</v>
+        <v>22.54584603978875</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>205172.4954934711</v>
+        <v>22.23028351714106</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1114860.619270049</v>
+        <v>22.46107995179204</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>1093157.495305091</v>
+        <v>22.5157690885756</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>167419.1161523632</v>
+        <v>22.14909830216677</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>883046.0913439414</v>
+        <v>22.38183071573786</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>956952.7000079066</v>
+        <v>22.4259085046037</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-386715.8094782979</v>
+        <v>22.15811488058718</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>709560.9811670699</v>
+        <v>22.34930813625666</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>770523.5925713341</v>
+        <v>22.40732589182215</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>-242022.1695351671</v>
+        <v>22.27957887093526</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>1379541.988070808</v>
+        <v>22.43660877305063</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1439219.814669015</v>
+        <v>22.47700660492489</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>1074817.715558287</v>
+        <v>22.57142638003685</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1161611.784899059</v>
+        <v>22.66870094283136</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1193982.193366784</v>
+        <v>22.71336143279836</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>181888.2069790519</v>
+        <v>22.33667734118312</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1122026.80158255</v>
+        <v>22.60653121403236</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1085977.702182886</v>
+        <v>22.67822462876024</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>-523070.8310416322</v>
+        <v>22.02962776222719</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-586937.6072249516</v>
+        <v>22.15788838695816</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>-456232.2611261544</v>
+        <v>22.17824439477364</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-957221.5257932758</v>
+        <v>22.04912198428343</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-295173.4694653107</v>
+        <v>22.14192789081297</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>-239820.2025640022</v>
+        <v>22.17024117202092</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-1036542.024594485</v>
+        <v>22.1105983178978</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>124457.5214072323</v>
+        <v>22.18683346699856</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>139927.1145352329</v>
+        <v>22.20540980654769</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>314873.4641291457</v>
+        <v>22.21981701430805</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>560026.096215744</v>
+        <v>22.26017414934191</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>534077.7251625349</v>
+        <v>22.28128974398283</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-218835.6104471175</v>
+        <v>22.10119319264387</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>149383.6452119815</v>
+        <v>22.22666524843073</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>111623.668097479</v>
+        <v>22.26549851334921</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-207098.5172177562</v>
+        <v>22.03322808356671</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>240412.2227060672</v>
+        <v>22.22517456822814</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>483185.9424318626</v>
+        <v>22.25939137631631</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>-447212.6861619646</v>
+        <v>22.03228043034525</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>240918.6447031665</v>
+        <v>22.18100036063178</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>514597.9607003325</v>
+        <v>22.22662316542949</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-354107.335508768</v>
+        <v>22.12805694918532</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>760936.0820560076</v>
+        <v>22.24954016013773</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>1070489.503910787</v>
+        <v>22.28044748614737</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>503531.0935917514</v>
+        <v>22.31246132287354</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>679505.2618626128</v>
+        <v>22.38988766155361</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>761609.4356483973</v>
+        <v>22.42631023165193</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-70750.67287760465</v>
+        <v>22.13255571298313</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>647007.9552966408</v>
+        <v>22.34285634437897</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>737859.6740619205</v>
+        <v>22.40032780571098</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-27650.73371156272</v>
+        <v>22.08978375213156</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>509049.2532137025</v>
+        <v>22.30909963833625</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>668167.2916088561</v>
+        <v>22.35409865812827</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-257876.7427384452</v>
+        <v>22.09213234913932</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>592443.1267400414</v>
+        <v>22.26774231044593</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>739501.5756802672</v>
+        <v>22.32703957600703</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-167821.1627087472</v>
+        <v>22.21144588832152</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>1143220.352439839</v>
+        <v>22.35542327566333</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>1308910.925070552</v>
+        <v>22.39677948288683</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>980650.2852164893</v>
+        <v>22.48022447448382</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1074212.707503981</v>
+        <v>22.56813898340318</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1105132.504383955</v>
+        <v>22.61320214167135</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>282639.8796572059</v>
+        <v>22.25815832684647</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1048850.822874084</v>
+        <v>22.50733131040625</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>1091478.804857152</v>
+        <v>22.58182257539319</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-731539.7681006771</v>
+        <v>22.04531274148856</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>-520162.9219147</v>
+        <v>22.14640803032051</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>-509259.2347394926</v>
+        <v>22.16377752119632</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-1666053.094534299</v>
+        <v>22.05926645663356</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-286709.4009212203</v>
+        <v>22.13185850865669</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>-306014.2901098404</v>
+        <v>22.15574034483565</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-2112750.792821511</v>
+        <v>22.10589549188073</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>171913.2622393534</v>
+        <v>22.16553735917375</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>1738.73914827026</v>
+        <v>22.18143502594205</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>218380.8077332364</v>
+        <v>22.18841118279883</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>444461.9165793209</v>
+        <v>22.22112701098563</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>426796.6188173373</v>
+        <v>22.24072262787677</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-707130.7706458381</v>
+        <v>22.09505003245205</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>-18576.85720251462</v>
+        <v>22.1936685357032</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>-101988.3090873541</v>
+        <v>22.22587755727095</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-829238.4047921156</v>
+        <v>22.04281869896215</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-451093.3522958102</v>
+        <v>22.19348837192472</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-233464.0097474929</v>
+        <v>22.22221079151892</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-1021965.82783363</v>
+        <v>22.04100776928162</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-270419.0664245375</v>
+        <v>22.15670693456553</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>61524.8382448282</v>
+        <v>22.19472560915786</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-1117729.472336916</v>
+        <v>22.1132398029953</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>335697.0322706726</v>
+        <v>22.2077675135934</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>725346.2649161769</v>
+        <v>22.23376766512617</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>302956.7437767643</v>
+        <v>22.25408255672706</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>486159.3331902759</v>
+        <v>22.31639675291486</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>765563.8559970664</v>
+        <v>22.34949302426507</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-460372.2807560609</v>
+        <v>22.112993246337</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>418616.7356262286</v>
+        <v>22.27770022897614</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>479079.1619445789</v>
+        <v>22.32504629806181</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-571256.1023020609</v>
+        <v>22.07145535265102</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-53440.10374407583</v>
+        <v>22.24305037095022</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>385320.5547806781</v>
+        <v>22.28064988145135</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-851823.4843628774</v>
+        <v>22.07149404860341</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>134392.0360919412</v>
+        <v>22.20763470013917</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>558300.9261875448</v>
+        <v>22.25682940520297</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-879208.8326410583</v>
+        <v>22.16245089436417</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>845786.4591832159</v>
+        <v>22.27406965494072</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1363515.297862832</v>
+        <v>22.30863419350002</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>952703.7866133356</v>
+        <v>22.3668481598632</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1035395.064617927</v>
+        <v>22.43717693603554</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1421964.748185669</v>
+        <v>22.4774691408025</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-236388.614708747</v>
+        <v>22.19288757773922</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>802838.7883941564</v>
+        <v>22.38728455172982</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>969452.6228061321</v>
+        <v>22.44843154760865</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-247600.7090383848</v>
+        <v>22.11710523268079</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>751204.759088377</v>
+        <v>22.24775978837487</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1149526.088308313</v>
+        <v>22.26718437559464</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-845664.6969338797</v>
+        <v>22.14629464972777</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1468765.41953371</v>
+        <v>22.24631142400635</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1556024.30162295</v>
+        <v>22.2731183520135</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-461685.4801466094</v>
+        <v>22.20504917652576</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>2731383.927247044</v>
+        <v>22.28735900688841</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>2798159.032361324</v>
+        <v>22.3051020645056</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>1924026.479743144</v>
+        <v>22.33810624750596</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>2313283.722545363</v>
+        <v>22.38261690095579</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>2180538.30079744</v>
+        <v>22.40209390143373</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>573106.0972377448</v>
+        <v>22.21705125887847</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>1794600.207560949</v>
+        <v>22.35154797025833</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1988729.858650088</v>
+        <v>22.38818323530924</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>-74999.91592799452</v>
+        <v>22.11729949954098</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>591115.267235072</v>
+        <v>22.30997790793238</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>691949.424717071</v>
+        <v>22.34165067667715</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-596715.4263028974</v>
+        <v>22.12758327929439</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>520999.3993539796</v>
+        <v>22.28296347318937</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>622839.5296854766</v>
+        <v>22.32506650262955</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-411640.4907319488</v>
+        <v>22.22007206933481</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>1325071.44947107</v>
+        <v>22.34729641968583</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>1471135.988098421</v>
+        <v>22.37587847749642</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>851268.8651515911</v>
+        <v>22.42743034362004</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>984097.4853615572</v>
+        <v>22.50811706249001</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>1000040.983333929</v>
+        <v>22.54140293361579</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>140825.3383325693</v>
+        <v>22.24735243122731</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1103014.191324938</v>
+        <v>22.46511989995985</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1056988.449605</v>
+        <v>22.51797915563854</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-57849.22188373122</v>
+        <v>22.1551719100833</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>692089.0846445435</v>
+        <v>22.37327237771245</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>784345.9860205502</v>
+        <v>22.4151273365903</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>-467559.4758933608</v>
+        <v>22.16801358214571</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>761491.7685392267</v>
+        <v>22.34840464081854</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>820444.4126804838</v>
+        <v>22.40340284769208</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-359968.6878876538</v>
+        <v>22.28278962247675</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1493369.579003599</v>
+        <v>22.43094157892412</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1599724.923807641</v>
+        <v>22.46939004249257</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>1200680.454631236</v>
+        <v>22.56558538979856</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>1247835.682050731</v>
+        <v>22.65605062850847</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1261462.098394781</v>
+        <v>22.69726891572499</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>243090.8924912389</v>
+        <v>22.34623794302795</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1273181.58712362</v>
+        <v>22.60020453955022</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>1255458.082700309</v>
+        <v>22.6689949294789</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1000044.83359859</v>
+        <v>22.02981290058412</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>-672323.4356368838</v>
+        <v>22.13982002795154</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-529205.8922637482</v>
+        <v>22.15747884645846</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1223390.256002901</v>
+        <v>22.04045630688535</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-540203.5715430484</v>
+        <v>22.1203401493784</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-357955.2379276449</v>
+        <v>22.14491067328404</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-1387586.400579525</v>
+        <v>22.09407888486588</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27745.37588059161</v>
+        <v>22.15964605823834</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>170641.6364255277</v>
+        <v>22.17579651974147</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>200133.2539718176</v>
+        <v>22.17948136440254</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>392445.1941711802</v>
+        <v>22.21451275104184</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>471413.801989833</v>
+        <v>22.23270679147401</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-726307.5247625781</v>
+        <v>22.07469357164496</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>88288.48951496514</v>
+        <v>22.18363835452415</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>119249.5995096962</v>
+        <v>22.21682369352629</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-487915.8647256758</v>
+        <v>22.02044281567283</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>108915.0887527804</v>
+        <v>22.18439144127329</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>375297.1906639498</v>
+        <v>22.21430234998857</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>-622442.2365859724</v>
+        <v>22.01174968806654</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>82150.65596684667</v>
+        <v>22.13884177891327</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>425718.7651308179</v>
+        <v>22.17874079516254</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>-536566.2062157891</v>
+        <v>22.09518397338315</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>679701.0312952684</v>
+        <v>22.19894777640225</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>1071874.748708076</v>
+        <v>22.22604180080632</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>430368.2967228038</v>
+        <v>22.23981818229382</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>574058.490838032</v>
+        <v>22.30601315565843</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>714346.1930141124</v>
+        <v>22.33804456299384</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-301988.1701817726</v>
+        <v>22.08191540268898</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>561743.1684052524</v>
+        <v>22.26275422588281</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>753739.2064303607</v>
+        <v>22.31252752167265</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-92309.59229267082</v>
+        <v>22.061746964937</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>542469.1075880873</v>
+        <v>22.2490730629968</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>754058.8226270159</v>
+        <v>22.28842279002019</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-301525.8286237853</v>
+        <v>22.05569857427778</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>545359.0788551215</v>
+        <v>22.20576395905308</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>774955.0794208213</v>
+        <v>22.25762810951837</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-160243.0818550294</v>
+        <v>22.15918019850488</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>1227584.090605218</v>
+        <v>22.28216677829407</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>1509046.492052933</v>
+        <v>22.31841154380248</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1015904.541099689</v>
+        <v>22.37448239224531</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>1145493.092462948</v>
+        <v>22.44975505495571</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>1335772.948445584</v>
+        <v>22.48967569135624</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>164036.493272961</v>
+        <v>22.18097987376948</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>1082255.616870451</v>
+        <v>22.39506748651111</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>1207092.337787509</v>
+        <v>22.45978275990491</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-1157691.147304223</v>
+        <v>22.07253608623242</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-717863.085728288</v>
+        <v>22.18315909923087</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-811907.2511330605</v>
+        <v>22.1982431705516</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-1645842.215992072</v>
+        <v>22.08703403169469</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-593051.4948108364</v>
+        <v>22.16973369069093</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-623545.1153722992</v>
+        <v>22.19097065235592</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-2085584.380165772</v>
+        <v>22.138298153968</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>102175.3154312544</v>
+        <v>22.20629342605721</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-69266.12932352484</v>
+        <v>22.21993207660319</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>116474.5549779516</v>
+        <v>22.23241385343623</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>201849.091354544</v>
+        <v>22.2700910568748</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>144978.7377239181</v>
+        <v>22.28576243916464</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-1014384.067603171</v>
+        <v>22.12824356114911</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-363821.7027425671</v>
+        <v>22.24063534133272</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-412322.9817216371</v>
+        <v>22.26894154730318</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-103009.0477010092</v>
+        <v>22.09276604769774</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>758290.6203477748</v>
+        <v>22.25655232152485</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>801457.80993837</v>
+        <v>22.28209559196376</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>-657604.9583165714</v>
+        <v>22.09194555949632</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>575319.0275234489</v>
+        <v>22.22152868082066</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>768799.238561653</v>
+        <v>22.25589563905945</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>-465720.0971100518</v>
+        <v>22.17114675066826</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>1466942.597546119</v>
+        <v>22.27715821697883</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>1670242.266782872</v>
+        <v>22.30002649752884</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>933574.5700677026</v>
+        <v>22.33217256626752</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1135832.877519219</v>
+        <v>22.40099160353418</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1202376.00897266</v>
+        <v>22.4290355484632</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>20813.71625300856</v>
+        <v>22.17709212043192</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1158329.667510556</v>
+        <v>22.36059064611914</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>1173187.264335745</v>
+        <v>22.40260344259588</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>48649.55741259692</v>
+        <v>22.1298835100519</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1017379.66365855</v>
+        <v>22.31622486515788</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>1053090.588760897</v>
+        <v>22.35078906847298</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-422008.8143533768</v>
+        <v>22.13144843175868</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1008355.240275688</v>
+        <v>22.28321969733502</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>1049339.887500964</v>
+        <v>22.32902565781649</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-362943.8119117451</v>
+        <v>22.22999000205764</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>1807227.51858899</v>
+        <v>22.35457181128157</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>1875404.818376898</v>
+        <v>22.38618438453473</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1524042.15964505</v>
+        <v>22.45832507690468</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1654838.868397184</v>
+        <v>22.53587462628782</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1684926.039435075</v>
+        <v>22.57107812443639</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>270073.8052094054</v>
+        <v>22.2690275287695</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1560612.422630871</v>
+        <v>22.48463386293716</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>1472503.519680372</v>
+        <v>22.54078268403411</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-837557.4475208062</v>
+        <v>22.04510732901026</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-514210.0344059135</v>
+        <v>22.14432550676281</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-374488.2198807231</v>
+        <v>22.15876569687654</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1484566.69619012</v>
+        <v>22.05615296194708</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-527766.0927956409</v>
+        <v>22.12802086956659</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>-315454.9522972219</v>
+        <v>22.14830670776227</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-1585649.116344662</v>
+        <v>22.10410195151966</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>338664.7104063719</v>
+        <v>22.16313207127213</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>474454.96368352</v>
+        <v>22.17618884396962</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>387014.4073708293</v>
+        <v>22.18185306229777</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>684917.5165872248</v>
+        <v>22.2138722944266</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>791398.1256968071</v>
+        <v>22.22841117818549</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-354991.5145953179</v>
+        <v>22.0898191175192</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>323504.5083841737</v>
+        <v>22.18777416596195</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>425296.5272188376</v>
+        <v>22.21516089200712</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-727689.5765055239</v>
+        <v>22.02301128261369</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>-372296.27928085</v>
+        <v>22.17065381870337</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>32080.70066463538</v>
+        <v>22.19531785704233</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-991398.4291835167</v>
+        <v>22.01571025919979</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-411132.8663400498</v>
+        <v>22.12980342969367</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>133303.0444766117</v>
+        <v>22.16291673911101</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-1032008.849986578</v>
+        <v>22.09090090531557</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>167104.1236187902</v>
+        <v>22.18410828591621</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>782796.7099236422</v>
+        <v>22.20622878712361</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>133017.7245262894</v>
+        <v>22.21964951182186</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>302268.8834111457</v>
+        <v>22.2799824433471</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>497399.6031712624</v>
+        <v>22.30609369411296</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-455124.1732213063</v>
+        <v>22.08102153356243</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>242584.9041462458</v>
+        <v>22.2433665413796</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>476964.6016585246</v>
+        <v>22.28434119966718</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>-141259.7654754054</v>
+        <v>22.06988149993624</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>460375.2994618635</v>
+        <v>22.23883944731712</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>633765.4243680246</v>
+        <v>22.2719843318855</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>-591889.1845966501</v>
+        <v>22.0656272704704</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>364509.4539858662</v>
+        <v>22.20067514355012</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>589670.8410300054</v>
+        <v>22.24455626067765</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-444077.0164604615</v>
+        <v>22.15876052836827</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>1225114.442446696</v>
+        <v>22.26950372349382</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1500708.126403203</v>
+        <v>22.29985581693993</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1103956.993722698</v>
+        <v>22.35347224935915</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>1173470.629698845</v>
+        <v>22.42206002984438</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1253568.959340963</v>
+        <v>22.45484461534809</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>271819.884874586</v>
+        <v>22.18248089547314</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>1117065.352370953</v>
+        <v>22.37511745597772</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>1141521.013496315</v>
+        <v>22.42946350188459</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-1064872.600966911</v>
+        <v>22.00633053990878</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1285214.403531529</v>
+        <v>22.10539603037499</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1416247.468002035</v>
+        <v>22.1195266980827</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-1214236.265118344</v>
+        <v>22.01229354293088</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1218468.988291362</v>
+        <v>22.08265811156561</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1194497.383641609</v>
+        <v>22.10265409899723</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1774195.389843676</v>
+        <v>22.06113232098151</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1017595.36243435</v>
+        <v>22.1189055410637</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-1101490.369635885</v>
+        <v>22.13161871543007</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-603801.286613157</v>
+        <v>22.12593598820281</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-604312.8676223186</v>
+        <v>22.1577941511606</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-547775.3378145138</v>
+        <v>22.172513457561</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-743292.6727435698</v>
+        <v>22.03411048920551</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-676881.3104201732</v>
+        <v>22.13050247987563</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-742288.9019422841</v>
+        <v>22.15723196775944</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-865296.0255813125</v>
+        <v>21.98518513010631</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-766155.4335472712</v>
+        <v>22.13306142538872</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-612047.9518117935</v>
+        <v>22.1575343638474</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-877458.8379475086</v>
+        <v>21.97246623671862</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-662838.1770245603</v>
+        <v>22.08504104670992</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-373772.7104020148</v>
+        <v>22.11803181966341</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-1143100.701868921</v>
+        <v>22.04856397910995</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-464060.6694835992</v>
+        <v>22.14048679718194</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-155492.6702532869</v>
+        <v>22.16235065108777</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-354894.3818853734</v>
+        <v>22.16455268641943</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-297218.1538540982</v>
+        <v>22.22515761409263</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>-186199.2576194289</v>
+        <v>22.25194680894539</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-653820.5986039895</v>
+        <v>22.02585292708273</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-255064.7172491458</v>
+        <v>22.18697918122401</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-206694.473745857</v>
+        <v>22.22735616430225</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-116518.021394945</v>
+        <v>22.0342626312496</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>124926.8277485071</v>
+        <v>22.20398097295394</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>234747.500951235</v>
+        <v>22.23718883289103</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>-398553.8721389489</v>
+        <v>22.02459069642693</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>91609.68570243863</v>
+        <v>22.15861637758441</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>236356.8758419206</v>
+        <v>22.20269455776775</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-466666.9878639498</v>
+        <v>22.11900739947298</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>573872.4510949794</v>
+        <v>22.22888063182172</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>736739.1507885626</v>
+        <v>22.25922001983716</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>635725.4888942929</v>
+        <v>22.30281438925472</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>618922.9986755654</v>
+        <v>22.37191879970949</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>686872.2000836919</v>
+        <v>22.40559373869503</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>96577.95132991234</v>
+        <v>22.13110775954035</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>571355.7200573084</v>
+        <v>22.32325745337608</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>543545.8136915507</v>
+        <v>22.37738698051731</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>52377.72561844943</v>
+        <v>22.07348071800588</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>708250.9658758667</v>
+        <v>22.1728534798266</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>956907.2152004996</v>
+        <v>22.19032310432906</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-1244032.100931952</v>
+        <v>22.08851222166526</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>589295.2902902038</v>
+        <v>22.15901502718683</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>797876.0170177005</v>
+        <v>22.18307445329714</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-859527.6355893719</v>
+        <v>22.13404879382601</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>1833095.673612504</v>
+        <v>22.19192400455719</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>1941214.588302205</v>
+        <v>22.20793885366897</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>1553237.714303161</v>
+        <v>22.22184372149092</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1871936.995346274</v>
+        <v>22.25241758569907</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>2021488.540281164</v>
+        <v>22.27206620706622</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>628075.7913657739</v>
+        <v>22.13057335672214</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>1910825.015233631</v>
+        <v>22.22633599998749</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2030957.942370452</v>
+        <v>22.259055890538</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-412119.7049828274</v>
+        <v>22.06771872286413</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>265615.8491838576</v>
+        <v>22.2161895089168</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>499939.3017075731</v>
+        <v>22.2451367157017</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-934270.0225521507</v>
+        <v>22.06588732451101</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>51151.93608805622</v>
+        <v>22.1789637092445</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>376914.0226339865</v>
+        <v>22.21732611486951</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-792711.0120608453</v>
+        <v>22.13702658396685</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>910927.7494010942</v>
+        <v>22.22932028379598</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>1309907.101831638</v>
+        <v>22.25556618328411</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>691672.1375785117</v>
+        <v>22.28076116308609</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>868554.869290119</v>
+        <v>22.3402460385048</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>930729.9871501675</v>
+        <v>22.3733142808616</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-50869.98856365683</v>
+        <v>22.14197420784416</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>1070629.762564972</v>
+        <v>22.30302280562222</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>1171154.079600088</v>
+        <v>22.35121604196509</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>108726.2063916518</v>
+        <v>22.10434806319606</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>885977.1539705066</v>
+        <v>22.27380400667694</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>1078235.395214746</v>
+        <v>22.3115226894454</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-491848.5281827095</v>
+        <v>22.10484768226152</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>720802.5547971341</v>
+        <v>22.23842747009193</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>910693.5755861886</v>
+        <v>22.28784910341157</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-206695.4525737437</v>
+        <v>22.19452811232096</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>1760401.314795482</v>
+        <v>22.30396379853732</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>2017151.182642068</v>
+        <v>22.33867771345034</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>1681918.082734563</v>
+        <v>22.40366113934264</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>1675575.26670379</v>
+        <v>22.47109926406713</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>1744808.248769895</v>
+        <v>22.51137083646727</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>414515.5536923453</v>
+        <v>22.23187825176911</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>1600877.490029241</v>
+        <v>22.42266605027709</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>1706013.528718696</v>
+        <v>22.48457294199551</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-339094.5118383102</v>
+        <v>22.09607288378351</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1404069.101701969</v>
+        <v>22.19681784956936</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1628610.821984479</v>
+        <v>22.21220884830313</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-933896.4237238993</v>
+        <v>22.11112880324129</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>1625063.067723427</v>
+        <v>22.18603516647338</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>1861240.319521484</v>
+        <v>22.20740787718799</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-539402.6507226983</v>
+        <v>22.15768866710394</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>3245435.325244173</v>
+        <v>22.21923329479208</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>3412083.12400126</v>
+        <v>22.23326916920249</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>2521423.352543161</v>
+        <v>22.24940871364882</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>2982015.991727608</v>
+        <v>22.28296047212363</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>3015316.94495832</v>
+        <v>22.29829367134115</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>192150.8084444031</v>
+        <v>22.15433969874471</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>2427080.202550667</v>
+        <v>22.25635383068249</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>2591572.281492542</v>
+        <v>22.28511276918183</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-265974.9306638514</v>
+        <v>22.08759110896311</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>798501.2602480231</v>
+        <v>22.23660400481882</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>1013950.621326127</v>
+        <v>22.26241707308903</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-799762.9182228018</v>
+        <v>22.08590228500495</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>606341.7667294986</v>
+        <v>22.20324617367962</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>937427.5795936983</v>
+        <v>22.23766597171501</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-595179.9587357261</v>
+        <v>22.15905653113248</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>1565177.015495035</v>
+        <v>22.25498193325592</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>1958991.214583792</v>
+        <v>22.27829249067423</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>1070460.293402235</v>
+        <v>22.30464845489005</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>1297542.074317126</v>
+        <v>22.36621440028103</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>1325517.588763947</v>
+        <v>22.39344658935721</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>-108465.1150239374</v>
+        <v>22.16256682788815</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>1322186.164248195</v>
+        <v>22.32906205800335</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>1479788.982999692</v>
+        <v>22.37180780037991</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>-165629.963428367</v>
+        <v>22.11939774980375</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>942188.4265388895</v>
+        <v>22.28908441061655</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>1131412.514379451</v>
+        <v>22.3233234165333</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>-605258.6035645674</v>
+        <v>22.12012504246796</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>943859.6274228345</v>
+        <v>22.257802248584</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>1162239.742991047</v>
+        <v>22.30289642657259</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>-486639.8290351414</v>
+        <v>22.21099717465855</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>1846299.288731645</v>
+        <v>22.3239384269084</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>2155171.667705325</v>
+        <v>22.35541995747775</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1655131.241796595</v>
+        <v>22.41811000934604</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1816683.492465852</v>
+        <v>22.48773592903246</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1953940.853056521</v>
+        <v>22.52182393267454</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>188152.5705436641</v>
+        <v>22.2446270561811</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1700372.668261235</v>
+        <v>22.44055166932718</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1805254.226554205</v>
+        <v>22.49656889000422</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>79603.66089262294</v>
+        <v>22.11300781329819</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1826304.465914097</v>
+        <v>22.20239147542141</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>2238947.852176208</v>
+        <v>22.2178180061791</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>-1371843.502848788</v>
+        <v>22.13126307835401</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>2673445.27513165</v>
+        <v>22.1969800732069</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>2848351.229727712</v>
+        <v>22.21807655510613</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-833392.7925604952</v>
+        <v>22.17049704274888</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>4623229.433345566</v>
+        <v>22.22450874129168</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>4664005.032222301</v>
+        <v>22.23867420512236</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>3064267.806773569</v>
+        <v>22.25871790789961</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>3536736.304083261</v>
+        <v>22.2877068387712</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>3525324.672482035</v>
+        <v>22.30477353920523</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>631679.8602894186</v>
+        <v>22.17630278841634</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>3003456.555714805</v>
+        <v>22.26517549775999</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>3387917.856974731</v>
+        <v>22.2938578015889</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>-251106.3021412273</v>
+        <v>22.11884326303295</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1148420.344408934</v>
+        <v>22.25147797644457</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1332839.513087074</v>
+        <v>22.27670111991381</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-1084432.941738705</v>
+        <v>22.12435115861319</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1005302.394707683</v>
+        <v>22.22802902897281</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>1338947.996765456</v>
+        <v>22.26130832181888</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>-687238.1871885745</v>
+        <v>22.18561692630963</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>2544133.534830916</v>
+        <v>22.27036866313262</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>2976314.128036256</v>
+        <v>22.29326163835766</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>1729137.596372308</v>
+        <v>22.32658949971521</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>2019850.217566858</v>
+        <v>22.38112500070164</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>2090210.400825712</v>
+        <v>22.4096762521954</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>204195.7637660799</v>
+        <v>22.20250505358569</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>2207925.815277231</v>
+        <v>22.3492215834119</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>2326365.461306439</v>
+        <v>22.39106167582811</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-102227.855264482</v>
+        <v>22.14298422580255</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>1377001.982673303</v>
+        <v>22.29348851340881</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1549425.039410353</v>
+        <v>22.32625227183347</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-923972.095823559</v>
+        <v>22.15021017445181</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>1324716.180524087</v>
+        <v>22.27136267669371</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1525660.983700843</v>
+        <v>22.31413572857648</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>-591935.7568372776</v>
+        <v>22.22746713977196</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>2818772.958840476</v>
+        <v>22.32682918833303</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>3136460.335371729</v>
+        <v>22.35699887894045</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>2535311.836387493</v>
+        <v>22.42278146168984</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>2572683.825632103</v>
+        <v>22.48410572420481</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2715685.667848567</v>
+        <v>22.51878481684308</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>356785.0510814556</v>
+        <v>22.27051718151326</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>2447585.851030924</v>
+        <v>22.44260226108006</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>2575502.268154617</v>
+        <v>22.49617156660025</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>892704.5680014768</v>
+        <v>22.11083672266468</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>3068556.051260239</v>
+        <v>22.17390828802183</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>3271642.895054306</v>
+        <v>22.18527700381567</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-170491.3521260668</v>
+        <v>22.12339720171683</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>5723033.203995462</v>
+        <v>22.16833200599101</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>5809797.954741759</v>
+        <v>22.1838858719168</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-83507.95369149437</v>
+        <v>22.15056361997062</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>7615590.143842028</v>
+        <v>22.18746916006517</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>7419127.771497815</v>
+        <v>22.19789608278969</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>5121628.065777528</v>
+        <v>22.20988778472154</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>5810863.699921634</v>
+        <v>22.22947269794481</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>6067123.191203414</v>
+        <v>22.24241694233707</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>2126491.388569467</v>
+        <v>22.1518781150953</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>4914752.738946709</v>
+        <v>22.21283206328846</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>5612534.700591644</v>
+        <v>22.2339731935826</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-13688.8326058952</v>
+        <v>22.11851484254072</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>2136025.692883382</v>
+        <v>22.21262478880801</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>2559624.04439446</v>
+        <v>22.23133424451306</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>138693.9390060962</v>
+        <v>22.12234024878959</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>3339119.015170065</v>
+        <v>22.19420016099745</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>4049353.706564787</v>
+        <v>22.21887719246982</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-446715.5495310821</v>
+        <v>22.164687098215</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>4459783.870467412</v>
+        <v>22.22337048801132</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>5304458.733924152</v>
+        <v>22.24033983016506</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>2937844.657106355</v>
+        <v>22.26230189322327</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>3451658.819092935</v>
+        <v>22.30023044784102</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>3786338.625536581</v>
+        <v>22.32189076704176</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>639553.5483804641</v>
+        <v>22.17428423996698</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>3562564.519265764</v>
+        <v>22.2765636842521</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>3961549.459490291</v>
+        <v>22.30757283505993</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>326834.8688245826</v>
+        <v>22.13726653051725</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>2516324.013860872</v>
+        <v>22.24443648649475</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>2696399.961875166</v>
+        <v>22.26870257401832</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>359532.1415007313</v>
+        <v>22.14235824669267</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>3759699.203599865</v>
+        <v>22.22695895427928</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>4003743.118138595</v>
+        <v>22.2586251539542</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>-76730.10120773218</v>
+        <v>22.19643831905994</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>5104967.837067162</v>
+        <v>22.2657702876838</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>5516747.242475463</v>
+        <v>22.28809620557618</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>4536233.499685925</v>
+        <v>22.33429482853515</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>4584109.444820647</v>
+        <v>22.37716555941179</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>4963032.246374546</v>
+        <v>22.40339796279954</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>1280215.991921719</v>
+        <v>22.22558990778905</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>4343349.340692799</v>
+        <v>22.346368078171</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>4581695.928339531</v>
+        <v>22.38603105543478</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-268159.2403765193</v>
+        <v>22.08771748483282</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1817638.712296481</v>
+        <v>22.1829773036042</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>2231059.44735305</v>
+        <v>22.19750828361726</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-1406046.809205975</v>
+        <v>22.10153386695802</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>1822346.993987847</v>
+        <v>22.17276502218985</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>2118288.239583641</v>
+        <v>22.19297433411292</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-999998.2629292023</v>
+        <v>22.14585627944761</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3911823.34540193</v>
+        <v>22.2043876657266</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>4133689.597631737</v>
+        <v>22.21767006956156</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>3152321.970173273</v>
+        <v>22.23221895141363</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>3685411.776498525</v>
+        <v>22.26366679233023</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>3773839.022808344</v>
+        <v>22.27904800849145</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>104165.8227023093</v>
+        <v>22.14172720206772</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3086329.140475118</v>
+        <v>22.23848592313405</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>3223206.904315611</v>
+        <v>22.26567726430048</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-359038.0220495159</v>
+        <v>22.08222647999342</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>1003698.348978285</v>
+        <v>22.22297580082798</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>1144493.307787602</v>
+        <v>22.24707962122143</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1074864.89033157</v>
+        <v>22.08053909387846</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>749051.0968429425</v>
+        <v>22.19187102791678</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>998569.7490643851</v>
+        <v>22.22407129743679</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-864942.2672806547</v>
+        <v>22.14961887103078</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1996228.597838616</v>
+        <v>22.24063965248277</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>2352108.210355826</v>
+        <v>22.26241949861443</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>1347033.473034621</v>
+        <v>22.28768738930643</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>1581354.739992815</v>
+        <v>22.34544294156225</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>1624113.935376573</v>
+        <v>22.37207951322429</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-306654.8654030952</v>
+        <v>22.15274897445859</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1570516.956135684</v>
+        <v>22.31038000658834</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>1740327.297251066</v>
+        <v>22.35034941891627</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-300391.8887975438</v>
+        <v>22.10673277184546</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>1138585.60026278</v>
+        <v>22.26653977352149</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>1338239.277167141</v>
+        <v>22.29851045141818</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>-784652.8771948868</v>
+        <v>22.10670517206361</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1239887.135107402</v>
+        <v>22.23673827870922</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>1413951.383692203</v>
+        <v>22.27888747408234</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>-702168.3719530941</v>
+        <v>22.19255812304015</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2372771.810917384</v>
+        <v>22.29922967542589</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>2679876.160181435</v>
+        <v>22.32862468320531</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2060143.168166142</v>
+        <v>22.38695109225692</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>2275798.719294025</v>
+        <v>22.45205527296268</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>2452917.516852805</v>
+        <v>22.48517408721289</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>45537.65702175935</v>
+        <v>22.2226468016446</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>2059491.977116489</v>
+        <v>22.4073855221398</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2252270.973937573</v>
+        <v>22.45970943637413</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-694557.7101456651</v>
+        <v>22.07008111962977</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-286890.9003439586</v>
+        <v>22.15584129653989</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-169756.2483033985</v>
+        <v>22.17076877385078</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-1815158.166535064</v>
+        <v>22.08241864021409</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-135898.4164195552</v>
+        <v>22.14354477509707</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-30109.90710860778</v>
+        <v>22.16411479448833</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-1780004.034845062</v>
+        <v>22.1223344402658</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>895394.8048892802</v>
+        <v>22.17251838131488</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>895810.6440338087</v>
+        <v>22.18618416624579</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>964431.6213256903</v>
+        <v>22.1944968848574</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>1177121.422023432</v>
+        <v>22.22136948974655</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>1288283.401865687</v>
+        <v>22.23773603516827</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-261758.7482199075</v>
+        <v>22.11438324548809</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>521666.9793646342</v>
+        <v>22.19737193425023</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>665422.2356052167</v>
+        <v>22.2253888914308</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-481554.2621254895</v>
+        <v>22.07291283079389</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>646338.7172463982</v>
+        <v>22.20137307249883</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>1024682.194968212</v>
+        <v>22.22643653252664</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>-917749.4073482848</v>
+        <v>22.07179097741197</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>601794.4111662417</v>
+        <v>22.17013877475573</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>1115644.144254712</v>
+        <v>22.20332887398046</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-682756.223776361</v>
+        <v>22.13367024114118</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>1680896.754699111</v>
+        <v>22.21395334372341</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>2278326.16418643</v>
+        <v>22.23667946569703</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1194825.357905332</v>
+        <v>22.25563793103413</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1328788.92763303</v>
+        <v>22.3076342922506</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1654263.571946687</v>
+        <v>22.3354714594905</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-229293.0761950081</v>
+        <v>22.13394856672181</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1324789.886532232</v>
+        <v>22.27381627771613</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>1624905.254887378</v>
+        <v>22.31559547975384</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>38303.70709705089</v>
+        <v>22.10271206353524</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>1166364.911157015</v>
+        <v>22.24932586864391</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>1502037.458930778</v>
+        <v>22.2819584879419</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-488723.4879896612</v>
+        <v>22.10328986190243</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>1137372.763842257</v>
+        <v>22.21940895930052</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1511177.7665053</v>
+        <v>22.26214127407364</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-132349.0459278971</v>
+        <v>22.18108036733444</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>2361201.444527056</v>
+        <v>22.2762253532195</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>2810632.295697542</v>
+        <v>22.3062568184818</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1926745.44556967</v>
+        <v>22.35829714373184</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1890387.171046159</v>
+        <v>22.4173043015533</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>2287190.521918304</v>
+        <v>22.45131100406878</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>391977.5050780418</v>
+        <v>22.20828357824804</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1903791.933378622</v>
+        <v>22.37388161210543</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>2222249.618594036</v>
+        <v>22.42755060624546</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>-1490314.647981768</v>
+        <v>22.09801266426123</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-457002.105850376</v>
+        <v>22.16001108402826</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-69861.13076690405</v>
+        <v>22.1714822182908</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-3500394.099575921</v>
+        <v>22.10916086319188</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>837134.2037471631</v>
+        <v>22.15299918697211</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1239653.09915668</v>
+        <v>22.16866851635598</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-3231917.076279036</v>
+        <v>22.13653109433171</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>2815081.370911719</v>
+        <v>22.17252316939889</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>2943543.918394391</v>
+        <v>22.1830550491435</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2857371.415517569</v>
+        <v>22.19233919291347</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>3537287.901209838</v>
+        <v>22.21138126990433</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>3952356.190679242</v>
+        <v>22.22441770393576</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>47192.54158663521</v>
+        <v>22.13529602094943</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>2463250.014727826</v>
+        <v>22.19483588677519</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>3099708.618683269</v>
+        <v>22.21613734806775</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-1565797.523964431</v>
+        <v>22.10046013667854</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>268508.2282706365</v>
+        <v>22.19313370601142</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1309791.420443299</v>
+        <v>22.21206624900992</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-1740853.842615764</v>
+        <v>22.10241641561125</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>916008.12151977</v>
+        <v>22.17281391631271</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>2327261.319189097</v>
+        <v>22.19774802196505</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-1953284.63811469</v>
+        <v>22.14502384555684</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>2368001.718860518</v>
+        <v>22.20248933409499</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>3935191.383670448</v>
+        <v>22.21968467553663</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1840883.478547457</v>
+        <v>22.23747890073667</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>2454745.685632849</v>
+        <v>22.27466610453868</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>3033885.462058546</v>
+        <v>22.29646799728638</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-545198.5511744035</v>
+        <v>22.15068528530688</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>2327354.890165335</v>
+        <v>22.25104361701685</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>3063970.671628175</v>
+        <v>22.28241367669055</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-756666.6780174881</v>
+        <v>22.11926835031964</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>1055021.607266475</v>
+        <v>22.22491419445298</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>1755462.264830073</v>
+        <v>22.24938087359658</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-1356509.013831895</v>
+        <v>22.12243896060371</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1472125.561333714</v>
+        <v>22.20548847050204</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>2333977.299684387</v>
+        <v>22.23738254034705</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-1431914.510666842</v>
+        <v>22.17672388554437</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>3134229.175131666</v>
+        <v>22.24476368126545</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>4174128.215298265</v>
+        <v>22.2672941162587</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3509840.569717289</v>
+        <v>22.30921909543225</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>3538070.309295782</v>
+        <v>22.35130659905704</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>4111131.287555996</v>
+        <v>22.37768296593048</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>250564.0195930819</v>
+        <v>22.20185484111181</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>3075459.76706528</v>
+        <v>22.32058462556659</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>3705528.283629157</v>
+        <v>22.36058135264259</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>81192.6577244636</v>
+        <v>22.11041441894777</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>1196856.134241971</v>
+        <v>22.20777509489727</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1537089.075689395</v>
+        <v>22.22329235188474</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-982498.9321642674</v>
+        <v>22.1303018412493</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>2139832.169919103</v>
+        <v>22.20164439964336</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>2247509.896304031</v>
+        <v>22.22308894665428</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>-527587.7950907808</v>
+        <v>22.17406809408605</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>3617989.194803017</v>
+        <v>22.23272010637969</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>3668783.204452538</v>
+        <v>22.24686818684971</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>2398920.226675193</v>
+        <v>22.2688939648355</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>2901076.978571191</v>
+        <v>22.29960370842291</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>2961310.526819113</v>
+        <v>22.31615295492645</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>1217603.321348079</v>
+        <v>22.1792688107448</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>2409122.162568871</v>
+        <v>22.27547102179655</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>3021917.111441326</v>
+        <v>22.30504819396326</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>166870.1718300634</v>
+        <v>22.11138259406563</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>1051272.280034028</v>
+        <v>22.25603321434593</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>1138284.812418068</v>
+        <v>22.28156890122475</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-647872.5882892708</v>
+        <v>22.11612274736621</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>909113.6881948042</v>
+        <v>22.22896244664339</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>1030803.447715557</v>
+        <v>22.26291431837097</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-549546.0798139046</v>
+        <v>22.18498866015074</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>1870482.711720543</v>
+        <v>22.27723811020085</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>2037786.621338756</v>
+        <v>22.30025954398281</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>1292613.986331264</v>
+        <v>22.33556957727441</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>1437632.211722455</v>
+        <v>22.39362760545127</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1470898.197374568</v>
+        <v>22.42173733222942</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>311083.4610375729</v>
+        <v>22.20039085327495</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>1567860.703800426</v>
+        <v>22.35961021173942</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1614991.628239737</v>
+        <v>22.40258814215657</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>116947.5100893318</v>
+        <v>22.14056489035268</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>1088062.917895214</v>
+        <v>22.30508690023653</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>1145082.371764558</v>
+        <v>22.33870659812528</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-476491.1491290733</v>
+        <v>22.1468910533936</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1219029.291997225</v>
+        <v>22.27920023777848</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>1247974.670329813</v>
+        <v>22.32336740843789</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-395580.0450677022</v>
+        <v>22.23358717882488</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>2196876.106461762</v>
+        <v>22.34211692642217</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>2273763.020642011</v>
+        <v>22.37295372252441</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>1915134.711838981</v>
+        <v>22.44381500528537</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>1907530.020053213</v>
+        <v>22.50949350792498</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1975959.685073812</v>
+        <v>22.54406672781455</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>515830.1473537087</v>
+        <v>22.27757749410997</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>1835261.459669832</v>
+        <v>22.46496042844587</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1876015.111487911</v>
+        <v>22.52065529860987</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-307511.5496255516</v>
+        <v>22.08751254851915</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>1626862.168757356</v>
+        <v>22.18486939834985</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1937341.297985463</v>
+        <v>22.19978207107019</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-1214140.228626849</v>
+        <v>22.10229327185321</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>1998577.481127425</v>
+        <v>22.17521751387323</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>2177511.693940991</v>
+        <v>22.19592964622825</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>-1024383.466329853</v>
+        <v>22.14707005116293</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>3741616.039171278</v>
+        <v>22.20700356663975</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>3878756.429834697</v>
+        <v>22.22063647682218</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>2808812.874235645</v>
+        <v>22.23568309585212</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>3601917.761441047</v>
+        <v>22.2678186030773</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>3324846.915351807</v>
+        <v>22.28382127744489</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-26698.90216420471</v>
+        <v>22.14315433623736</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>2893979.339746777</v>
+        <v>22.24213680700366</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>2869709.538625763</v>
+        <v>22.27003534426996</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>-453140.1422559812</v>
+        <v>22.08274595956714</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>942803.3428199086</v>
+        <v>22.22656902430001</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>1050572.7113671</v>
+        <v>22.25132802601036</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-1010379.305520193</v>
+        <v>22.08198536464462</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>875445.7789628336</v>
+        <v>22.19590943569673</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>1091299.175649241</v>
+        <v>22.22894400361008</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>-742941.3926634034</v>
+        <v>22.15176414489368</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>2133813.552027549</v>
+        <v>22.24491841411579</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>2472172.852256946</v>
+        <v>22.26729870195142</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1424966.746744713</v>
+        <v>22.29340512429772</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>1652836.037880482</v>
+        <v>22.35243644066215</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1612642.687534831</v>
+        <v>22.38001436872554</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>-297510.2523385555</v>
+        <v>22.1554932766254</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>1693684.937509687</v>
+        <v>22.3167330668388</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>1755875.991175003</v>
+        <v>22.35775515741017</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-284428.5643149358</v>
+        <v>22.10442472853159</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>1076487.151755037</v>
+        <v>22.26750367090764</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>1223638.911971523</v>
+        <v>22.30031938853745</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>-743610.4143520764</v>
+        <v>22.10501615642032</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1189950.280592891</v>
+        <v>22.23781294877691</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>1319697.915356116</v>
+        <v>22.28102398036793</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-682656.6336387987</v>
+        <v>22.192008625284</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>2242865.393076458</v>
+        <v>22.30095757124858</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>2518450.118944994</v>
+        <v>22.33112947388029</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>1899452.016395801</v>
+        <v>22.39009459884493</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>2053080.510088327</v>
+        <v>22.45655838065628</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>2233353.792097516</v>
+        <v>22.49076696859318</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>-68564.11346852612</v>
+        <v>22.22228872366492</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>1800514.947035059</v>
+        <v>22.41088972912763</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1975670.197469959</v>
+        <v>22.46455064687244</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.431</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.714</v>
+        <v>17.326</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.278</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.448</v>
+        <v>11.707</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.879</v>
+        <v>6.882</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22.08343168463189</v>
+        <v>14.34817024501674</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.16981091749041</v>
+        <v>19.975037345871</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.18545237025937</v>
+        <v>21.28938450182671</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22.0978367570279</v>
+        <v>-2.502370034635547</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.15918396470331</v>
+        <v>23.31108770831567</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.18062939567645</v>
+        <v>24.72263200081475</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.13684685922979</v>
+        <v>1.035192206509791</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.18721102440007</v>
+        <v>34.6444950343187</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.2015760656197</v>
+        <v>34.35820208499904</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.21461259813309</v>
+        <v>39.48282577219457</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22.24133664958592</v>
+        <v>45.23239974013369</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22.25900988065768</v>
+        <v>47.25447677511131</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.13499857481352</v>
+        <v>16.75641079183365</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.2182731709635</v>
+        <v>39.48392438192688</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>22.24744463888103</v>
+        <v>41.96643141847677</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22.09081135612527</v>
+        <v>16.32904991409819</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.22000464778635</v>
+        <v>37.26622853187229</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22.24591040032149</v>
+        <v>44.38691815650314</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22.09229072537801</v>
+        <v>3.916464497170203</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.19082218927293</v>
+        <v>36.78281873554268</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.22503095140116</v>
+        <v>48.49354560645011</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.15283943711283</v>
+        <v>12.34707812337081</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.23327102861228</v>
+        <v>58.68571577642984</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>22.25680488919795</v>
+        <v>70.7592989003335</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.28255591802895</v>
+        <v>62.06107363495265</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22.33458162389342</v>
+        <v>72.52820017847148</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>22.36420735445338</v>
+        <v>77.30125418124756</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.1613866577492</v>
+        <v>24.90962248257847</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.3016668284117</v>
+        <v>73.94379058600929</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>22.34471859782622</v>
+        <v>82.17753913892305</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22.11993652309917</v>
+        <v>24.36268521205223</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>22.26726064828588</v>
+        <v>49.61167074862217</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>22.30079407409805</v>
+        <v>54.84307402718927</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>22.12331635197936</v>
+        <v>7.645287294059251</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22.23955526576535</v>
+        <v>49.55585933742248</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22.28336848059924</v>
+        <v>56.69992720831874</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>22.19998138287411</v>
+        <v>17.05795074387525</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>22.29521512132167</v>
+        <v>74.66089906325246</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>22.32610688685721</v>
+        <v>82.81957317915155</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>22.38593781408423</v>
+        <v>96.40961914078018</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>22.44483665613561</v>
+        <v>99.8173590114577</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22.4807642782036</v>
+        <v>105.0646656009198</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.23616069814619</v>
+        <v>39.42658174696884</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>22.40214029593974</v>
+        <v>96.5469712210645</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22.45709820336043</v>
+        <v>102.7463288907602</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>22.09421729003404</v>
+        <v>11.60083528978639</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22.20381869036454</v>
+        <v>39.93913974895494</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.21991022884038</v>
+        <v>42.77015589046731</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>22.11275272000116</v>
+        <v>-0.3217847281488382</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.19571028526022</v>
+        <v>47.83080581125936</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.21803097786105</v>
+        <v>49.96595171446195</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.16314461204628</v>
+        <v>5.579617064520736</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.23136217893393</v>
+        <v>67.30578651917011</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>22.24601581175561</v>
+        <v>68.13398021608728</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>22.2645422322867</v>
+        <v>67.51275602769985</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>22.30194772009726</v>
+        <v>77.45398241588489</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>22.31795158242663</v>
+        <v>76.91404818606901</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>22.16194048798377</v>
+        <v>19.54520557975017</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>22.27437053473122</v>
+        <v>67.38730709503625</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>22.30451602781238</v>
+        <v>70.6187086467643</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>22.08840013853928</v>
+        <v>12.21969668780822</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>22.25008837909784</v>
+        <v>42.50370853833653</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>22.27682076601224</v>
+        <v>47.68375152726647</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>22.08990177589707</v>
+        <v>-2.434418466398611</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.219012619456</v>
+        <v>42.15364504605429</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>22.25465038754764</v>
+        <v>51.72724759996964</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>22.16891141590846</v>
+        <v>6.843306369847056</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>22.27455501372733</v>
+        <v>67.22295325982267</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>22.29864482002368</v>
+        <v>77.06664941685901</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>22.33029592766266</v>
+        <v>66.53511532727572</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.39813532959755</v>
+        <v>77.53978194239278</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>22.42630855913355</v>
+        <v>81.5035379132936</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22.17761367396066</v>
+        <v>20.10835120059196</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>22.35983690720552</v>
+        <v>79.64939330859882</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22.40413163667253</v>
+        <v>83.40259808299757</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22.12315862995001</v>
+        <v>13.79063484981942</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>22.30673540034534</v>
+        <v>49.89296009481012</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>22.34230399609592</v>
+        <v>53.17256830009734</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>22.12719055379296</v>
+        <v>-0.3128635810721505</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>22.27784740400316</v>
+        <v>54.56278848407572</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>22.32468042705534</v>
+        <v>59.74454300418806</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>22.22502844557076</v>
+        <v>6.232065551623641</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>22.34870251944075</v>
+        <v>79.25822454892423</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>22.38136103973956</v>
+        <v>85.69300136853182</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>22.45164626882733</v>
+        <v>93.50835911287277</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>22.5280004905833</v>
+        <v>101.1434051850077</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>22.56317568278897</v>
+        <v>103.8664576030277</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.26560409379067</v>
+        <v>28.61605322828856</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>22.47900795038402</v>
+        <v>99.41532508006303</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>22.53716354600463</v>
+        <v>98.80733825321597</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.08690325310907</v>
+        <v>22.66368356745014</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22.1958263528444</v>
+        <v>40.67751736619284</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.21108161647988</v>
+        <v>41.52468624574054</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>22.10469472269763</v>
+        <v>7.533936047427172</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.18684258415907</v>
+        <v>44.28949992625887</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>22.20819856445496</v>
+        <v>44.53495403950833</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>22.15524368566343</v>
+        <v>12.87928827247963</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.22279170346203</v>
+        <v>63.91016734471036</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.2366346326276</v>
+        <v>62.83612727558508</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.25601874629275</v>
+        <v>67.22707512376502</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.29291927910316</v>
+        <v>77.29331658439901</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>22.30831225084072</v>
+        <v>75.5163546659148</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.15430769008035</v>
+        <v>30.84380585337731</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22.26566666430892</v>
+        <v>68.36927405178996</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>22.29450029957943</v>
+        <v>68.33617259056294</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.08555511052464</v>
+        <v>24.90280376654112</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.24646012813536</v>
+        <v>49.67170257635166</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22.27198453548615</v>
+        <v>52.65399939337544</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>22.08669160496001</v>
+        <v>6.882404693868146</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22.21485984641606</v>
+        <v>47.37379542044597</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>22.24909914939715</v>
+        <v>53.98083579395031</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>22.16560515978366</v>
+        <v>16.24488736767039</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.27046879313637</v>
+        <v>72.09667361179626</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>22.29338792661459</v>
+        <v>79.54586636598141</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>22.32744349291314</v>
+        <v>70.8733714669481</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>22.39463007805658</v>
+        <v>80.42622238763019</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>22.42185633769003</v>
+        <v>82.75631815513802</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>22.17585844404257</v>
+        <v>30.04809575955681</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>22.35681533993354</v>
+        <v>81.69090077154803</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>22.39921482657273</v>
+        <v>82.77688436373592</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>22.1211147754192</v>
+        <v>23.35148580537275</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.30392322670718</v>
+        <v>55.53619092776259</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>22.33824498602844</v>
+        <v>56.13213299178439</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22.1247008035584</v>
+        <v>8.163702380022233</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>22.2744202563736</v>
+        <v>61.40845533301925</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>22.31981226463343</v>
+        <v>62.40972712061303</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>22.22249037161319</v>
+        <v>13.64334520700274</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>22.3453926475069</v>
+        <v>84.57882707971058</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>22.37684296655163</v>
+        <v>87.42539467117872</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>22.44968931271811</v>
+        <v>98.10676814577413</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>22.52537025667224</v>
+        <v>103.9982615500491</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>22.55954926203661</v>
+        <v>105.2447079860622</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>22.26467146574967</v>
+        <v>39.8876264802002</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>22.47680461120696</v>
+        <v>103.7306136437547</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>22.53301844743394</v>
+        <v>100.7227616972007</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>22.07035892165869</v>
+        <v>17.50427332421896</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.15591856618468</v>
+        <v>22.04887600957506</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>22.17108660703926</v>
+        <v>23.43629744531361</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>22.08311297897558</v>
+        <v>1.975139610459099</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.14298209324887</v>
+        <v>24.06396487452042</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.16385303573902</v>
+        <v>26.41835832412528</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>22.12176046076519</v>
+        <v>4.849126831340779</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>22.17090896989133</v>
+        <v>34.63293648324846</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.18477505117119</v>
+        <v>34.85318159323285</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.19319643849688</v>
+        <v>42.28174422995118</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>22.21954811781771</v>
+        <v>46.62707600509005</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.23696290392139</v>
+        <v>50.24496690353376</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>22.11513325524775</v>
+        <v>38.54825919655337</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>22.19666262358388</v>
+        <v>55.59960291039037</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.22491278215836</v>
+        <v>57.86176859846719</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>22.07148941715582</v>
+        <v>19.22305644737995</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>22.19960893219598</v>
+        <v>37.88895880438689</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>22.22489103244183</v>
+        <v>44.98916376831537</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>22.07071704924102</v>
+        <v>11.13893443448534</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22.16728398302914</v>
+        <v>40.2391727163551</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>22.2007453176561</v>
+        <v>52.48854279471169</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>22.1308574885951</v>
+        <v>16.0319491689977</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>22.20967055214984</v>
+        <v>57.56087740492924</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>22.23254768946633</v>
+        <v>69.60806433722031</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.25228435208127</v>
+        <v>57.15854692313501</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>22.30394296172325</v>
+        <v>64.86099723473565</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>22.33337182904104</v>
+        <v>74.01300284677055</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>22.13321234053139</v>
+        <v>28.82715035926655</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>22.271263526828</v>
+        <v>71.72142381788868</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>22.31307229300761</v>
+        <v>78.04031169367975</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.10346084344921</v>
+        <v>29.35020347413486</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>22.24987934178807</v>
+        <v>51.19234670773852</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>22.28287947953265</v>
+        <v>56.67292031615632</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.1047257229714</v>
+        <v>15.33073479426267</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>22.21914636506548</v>
+        <v>52.6422795314972</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22.2623284049292</v>
+        <v>60.38786286129903</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.18103642605347</v>
+        <v>23.57669252964983</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>22.27477372427316</v>
+        <v>75.88220970779864</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>22.30509695738888</v>
+        <v>84.21141277502358</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>22.35970065172138</v>
+        <v>91.7170556521197</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>22.41830722274961</v>
+        <v>93.9630912903224</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>22.45403752929295</v>
+        <v>103.2224314813494</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.21185977344575</v>
+        <v>46.16550607832851</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>22.37583015670334</v>
+        <v>95.8080381344234</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>22.42966543543265</v>
+        <v>99.98188123003011</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.09980283793167</v>
+        <v>28.59450439127526</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.18877441854662</v>
+        <v>44.8315363849812</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.20407462199517</v>
+        <v>43.27975280875027</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>22.11602039591881</v>
+        <v>9.910408047633124</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.18041703434928</v>
+        <v>50.40827548982048</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.20141600843255</v>
+        <v>48.22927679033836</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>22.15508153949306</v>
+        <v>17.87089186312608</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22.20799802722524</v>
+        <v>66.3088319369698</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>22.22201785298616</v>
+        <v>62.08557424266382</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.2378577551318</v>
+        <v>57.60444637263051</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.26651953105398</v>
+        <v>64.73814049449814</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>22.28389924224617</v>
+        <v>63.67782171052488</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.15565358525912</v>
+        <v>25.46492215432149</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.24289336070188</v>
+        <v>51.98676954686219</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>22.27126924200384</v>
+        <v>51.54994694460324</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.11906755380769</v>
+        <v>30.32520669910791</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>22.25156802048911</v>
+        <v>54.68473550632562</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>22.27678285698766</v>
+        <v>55.06774561737234</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>22.12360371122637</v>
+        <v>12.59571063093427</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>22.22598735913323</v>
+        <v>53.4259634238245</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>22.25932009065094</v>
+        <v>57.80781868055149</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.18405263711303</v>
+        <v>24.04866154204907</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.26772142252472</v>
+        <v>77.90394497061875</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>22.29056422925002</v>
+        <v>82.34927077291904</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>22.32288103946075</v>
+        <v>77.94747079328307</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>22.37738478712896</v>
+        <v>86.5336504412375</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>22.40656960581123</v>
+        <v>90.28614186932134</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>22.19883195856866</v>
+        <v>42.4767217517351</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.34416422004969</v>
+        <v>90.71109435748799</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>22.14378109649344</v>
+        <v>30.05853622347644</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.29442763920856</v>
+        <v>58.09868622905913</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>22.32729043298415</v>
+        <v>59.6418693837951</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>22.14993590143141</v>
+        <v>9.315893774286963</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>22.27004732691005</v>
+        <v>57.95884315253204</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>22.3130076439346</v>
+        <v>60.35149251477993</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.22664164642222</v>
+        <v>20.21516179218265</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22.32513067844493</v>
+        <v>84.15341997386847</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>22.35534825246193</v>
+        <v>87.80179121083725</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>22.42077797524475</v>
+        <v>99.92194526556112</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>22.48215841379004</v>
+        <v>102.5272308335333</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>22.51759304749416</v>
+        <v>108.9116201755788</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>22.26816521374596</v>
+        <v>44.43317416548273</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.43923815068643</v>
+        <v>102.5391889082548</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>22.49274585544138</v>
+        <v>103.0177669584922</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>22.07566184348392</v>
+        <v>21.02012406705558</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>22.2144129245712</v>
+        <v>37.94240250490256</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>22.23456521041527</v>
+        <v>40.79891012620008</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.09984960034311</v>
+        <v>6.595560340239459</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>22.20492214085049</v>
+        <v>48.74896565708995</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>22.23286228211053</v>
+        <v>47.38426137511796</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.1627845057889</v>
+        <v>12.93007734679847</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.24925854207923</v>
+        <v>67.30778202058823</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>22.2676036674259</v>
+        <v>64.33055210005345</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>22.28673097267465</v>
+        <v>57.50819420592939</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>22.33436716329509</v>
+        <v>62.7597257817466</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>22.35532197061679</v>
+        <v>58.94844662751937</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>22.15705249759341</v>
+        <v>14.80422693492409</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>22.29860754828662</v>
+        <v>34.38381274945628</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>22.33626377571101</v>
+        <v>35.75783076912801</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.10835728360378</v>
+        <v>27.81137574335617</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.31366213460906</v>
+        <v>56.70265296670563</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>22.34682945471504</v>
+        <v>57.94202607921945</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>22.11492062970597</v>
+        <v>2.719630402635058</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>22.279140648253</v>
+        <v>51.55266342315785</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>22.32333765506992</v>
+        <v>55.2533669532204</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.21240323516716</v>
+        <v>14.87132593770554</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.34686779610029</v>
+        <v>78.68497371609719</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>22.37670122121663</v>
+        <v>81.48265738150619</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>22.42294149828979</v>
+        <v>73.31572114009538</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>22.50971526903454</v>
+        <v>83.4844344298447</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.54584603978875</v>
+        <v>86.30716151937423</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.23028351714106</v>
+        <v>33.3171393050344</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>22.46107995179204</v>
+        <v>88.23053683581644</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22.5157690885756</v>
+        <v>86.92042599365287</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.14909830216677</v>
+        <v>28.31926955341636</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.38183071573786</v>
+        <v>59.89492541357654</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>22.4259085046037</v>
+        <v>63.15591154442983</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>22.15811488058718</v>
+        <v>1.609688304217826</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>22.34930813625666</v>
+        <v>56.38560863663578</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>22.40732589182215</v>
+        <v>59.43163056652692</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>22.27957887093526</v>
+        <v>10.1541168755491</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>22.43660877305063</v>
+        <v>82.36807899531676</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>22.47700660492489</v>
+        <v>85.02574276343684</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>22.57142638003685</v>
+        <v>93.15296081023199</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>22.66870094283136</v>
+        <v>98.98499482260523</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.71336143279836</v>
+        <v>101.1600895567505</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>22.33667734118312</v>
+        <v>33.42213593566485</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>22.60653121403236</v>
+        <v>97.98228897025665</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.67822462876024</v>
+        <v>95.50676526836823</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>22.02962776222719</v>
+        <v>9.206697986646969</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>22.15788838695816</v>
+        <v>7.774959530667275</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>22.17824439477364</v>
+        <v>10.70505686131564</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.04912198428343</v>
+        <v>-3.367308098933123</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.14192789081297</v>
+        <v>13.43937442429898</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22.17024117202092</v>
+        <v>14.84456665248042</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.1105983178978</v>
+        <v>-2.520247646297804</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>22.18683346699856</v>
+        <v>23.74866554927581</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.20540980654769</v>
+        <v>24.09868239506067</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.21981701430805</v>
+        <v>31.68195406383345</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.26017414934191</v>
+        <v>40.05126254779061</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>22.28128974398283</v>
+        <v>39.16540658062522</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.10119319264387</v>
+        <v>13.29733663254706</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.22666524843073</v>
+        <v>26.14435021309028</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.26549851334921</v>
+        <v>24.82692063455661</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.03322808356671</v>
+        <v>12.89974319324553</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>22.22517456822814</v>
+        <v>30.25704680554137</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22.25939137631631</v>
+        <v>39.67335078761842</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>22.03228043034525</v>
+        <v>1.289732005353908</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>22.18100036063178</v>
+        <v>31.51386945691252</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.22662316542949</v>
+        <v>43.53442555330319</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.12805694918532</v>
+        <v>7.070035866823879</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.24954016013773</v>
+        <v>50.72080857877599</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.28044748614737</v>
+        <v>62.83894303590777</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>22.31246132287354</v>
+        <v>50.67386022200666</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>22.38988766155361</v>
+        <v>61.0680834333771</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>22.42631023165193</v>
+        <v>65.91771061047979</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>22.13255571298313</v>
+        <v>16.66101481941223</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>22.34285634437897</v>
+        <v>59.98857274822527</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.40032780571098</v>
+        <v>65.47284413587326</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.08978375213156</v>
+        <v>19.71218980163908</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>22.30909963833625</v>
+        <v>43.39303844875686</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.35409865812827</v>
+        <v>50.41381407024972</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>22.09213234913932</v>
+        <v>8.047185217101081</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>22.26774231044593</v>
+        <v>50.53376691350455</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>22.32703957600703</v>
+        <v>57.88160274483353</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>22.21144588832152</v>
+        <v>13.45854900120808</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>22.35542327566333</v>
+        <v>71.84384437685351</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.39677948288683</v>
+        <v>79.22262903944959</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>22.48022447448382</v>
+        <v>86.82548174648376</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>22.56813898340318</v>
+        <v>93.11230794561332</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>22.61320214167135</v>
+        <v>95.18993039642432</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>22.25815832684647</v>
+        <v>40.3408428624207</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>22.50733131040625</v>
+        <v>92.95722946201765</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>22.58182257539319</v>
+        <v>95.88453087925519</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>22.04531274148856</v>
+        <v>11.07351796775004</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>22.14640803032051</v>
+        <v>13.92235555236989</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>22.16377752119632</v>
+        <v>14.06931031300708</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.05926645663356</v>
+        <v>-4.494626256398099</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.13185850865669</v>
+        <v>16.55704387703945</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>22.15574034483565</v>
+        <v>16.26241088524478</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.10589549188073</v>
+        <v>-7.806682628110103</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>22.16553735917375</v>
+        <v>23.27138343956529</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>22.18143502594205</v>
+        <v>20.95651571976062</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.18841118279883</v>
+        <v>25.41489656320774</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>22.22112701098563</v>
+        <v>30.05511976319632</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>22.24072262787677</v>
+        <v>29.69254668078214</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.09505003245205</v>
+        <v>6.100119060454743</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>22.1936685357032</v>
+        <v>20.54304617474603</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>22.22587755727095</v>
+        <v>18.79342933785102</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>22.04281869896215</v>
+        <v>1.59607500414705</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>22.19348837192472</v>
+        <v>10.41384571100583</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>22.22221079151892</v>
+        <v>15.48863283041135</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.04100776928162</v>
+        <v>-6.05352990714232</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>22.15670693456553</v>
+        <v>13.79188451954865</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.19472560915786</v>
+        <v>22.55722646876375</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.1132398029953</v>
+        <v>-5.373563719657131</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>22.2077675135934</v>
+        <v>28.83342265445012</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>22.23376766512617</v>
+        <v>38.00397647986315</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.25408255672706</v>
+        <v>31.6907466401924</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>22.31639675291486</v>
+        <v>38.19648070425133</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.34949302426507</v>
+        <v>48.11845575654152</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.112993246337</v>
+        <v>4.224693909498566</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>22.27770022897614</v>
+        <v>36.12470390806746</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.32504629806181</v>
+        <v>38.31898844194182</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.07145535265102</v>
+        <v>5.778913316473867</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.24305037095022</v>
+        <v>19.5149905136258</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.28064988145135</v>
+        <v>31.15397094944185</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.07149404860341</v>
+        <v>-4.655734295851786</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.20763470013917</v>
+        <v>24.96957393425803</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>22.25682940520297</v>
+        <v>37.70353651149941</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.16245089436417</v>
+        <v>-2.607097653862603</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>22.27406965494072</v>
+        <v>43.57743281088653</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>22.30863419350002</v>
+        <v>57.43895662825856</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>22.3668481598632</v>
+        <v>59.41889617150684</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>22.43717693603554</v>
+        <v>62.7593946832604</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>22.4774691408025</v>
+        <v>78.37573879849415</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>22.19288757773922</v>
+        <v>11.17293629973229</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.38728455172982</v>
+        <v>54.07763343543178</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>22.44843154760865</v>
+        <v>60.95631665983732</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>22.11710523268079</v>
+        <v>16.29650518660133</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.24775978837487</v>
+        <v>34.99884769453686</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.26718437559464</v>
+        <v>42.45729897960975</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.14629464972777</v>
+        <v>3.001185649060147</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.24631142400635</v>
+        <v>52.07648450014696</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.2731183520135</v>
+        <v>53.92672646056236</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.20504917652576</v>
+        <v>12.20740668123292</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>22.28735900688841</v>
+        <v>72.55289610443252</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>22.3051020645056</v>
+        <v>73.81487192934779</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.33810624750596</v>
+        <v>75.79692962622835</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>22.38261690095579</v>
+        <v>86.89675425077908</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22.40209390143373</v>
+        <v>83.11146591418525</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.21705125887847</v>
+        <v>37.63410152599832</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>22.35154797025833</v>
+        <v>73.23110691282243</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>22.38818323530924</v>
+        <v>78.88846880852086</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.11729949954098</v>
+        <v>18.50269587598346</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>22.30997790793238</v>
+        <v>40.0828494068486</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.34165067667715</v>
+        <v>43.3495766255351</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>22.12758327929439</v>
+        <v>-0.9591561147214023</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>22.28296347318937</v>
+        <v>40.04614400777396</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.32506650262955</v>
+        <v>43.78232519898682</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>22.22007206933481</v>
+        <v>7.472476959403521</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>22.34729641968583</v>
+        <v>64.26018586828904</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.37587847749642</v>
+        <v>69.03626318397315</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.42743034362004</v>
+        <v>62.93085631803972</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>22.50811706249001</v>
+        <v>69.4841733511815</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.54140293361579</v>
+        <v>70.27077187690041</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.24735243122731</v>
+        <v>28.03265949044699</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.46511989995985</v>
+        <v>76.54726569853744</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>22.51797915563854</v>
+        <v>74.226597850399</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>22.1551719100833</v>
+        <v>18.80036531232612</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.37327237771245</v>
+        <v>46.43906548786715</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>22.4151273365903</v>
+        <v>49.83915962102244</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>22.16801358214571</v>
+        <v>1.41888486040628</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>22.34840464081854</v>
+        <v>52.71280058486359</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>22.40340284769208</v>
+        <v>55.17316338423004</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>22.28278962247675</v>
+        <v>7.542444365024055</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>22.43094157892412</v>
+        <v>76.48194448526634</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>22.46939004249257</v>
+        <v>80.43809455073647</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>22.56558538979856</v>
+        <v>88.32017087416082</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>22.65605062850847</v>
+        <v>90.96675827470638</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>22.69726891572499</v>
+        <v>91.73154096761725</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>22.34623794302795</v>
+        <v>34.87531803934225</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.60020453955022</v>
+        <v>93.95994977559947</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>22.6689949294789</v>
+        <v>92.94335314252193</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.02981290058412</v>
+        <v>4.066066847069607</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>22.13982002795154</v>
+        <v>9.593406933488708</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.15747884645846</v>
+        <v>12.00722348460917</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.04045630688535</v>
+        <v>-2.433026281093298</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.1203401493784</v>
+        <v>10.61529276831229</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>22.14491067328404</v>
+        <v>14.09609012184518</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.09407888486588</v>
+        <v>-2.687908807939117</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.15964605823834</v>
+        <v>21.40509811643767</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.17579651974147</v>
+        <v>23.83760239002045</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.17948136440254</v>
+        <v>26.07298782166043</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.21451275104184</v>
+        <v>31.01247607923617</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>22.23270679147401</v>
+        <v>33.04076673364307</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>22.07469357164496</v>
+        <v>1.867506285464138</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>22.18363835452415</v>
+        <v>23.25011362382116</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.21682369352629</v>
+        <v>24.06282231152999</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>22.02044281567283</v>
+        <v>6.694621606695559</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.18439144127329</v>
+        <v>24.1107985794922</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.21430234998857</v>
+        <v>31.88411831472394</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.01174968806654</v>
+        <v>0.3638758541601277</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.13884177891327</v>
+        <v>23.64712226111588</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.17874079516254</v>
+        <v>35.00031788341987</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>22.09518397338315</v>
+        <v>5.12929089587621</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>22.19894777640225</v>
+        <v>40.95145826545388</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>22.22604180080632</v>
+        <v>52.50197291374921</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>22.23981818229382</v>
+        <v>40.05742255008786</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.30601315565843</v>
+        <v>46.44289362109558</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.33804456299384</v>
+        <v>52.67716081921397</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.08191540268898</v>
+        <v>7.217115731651305</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.26275422588281</v>
+        <v>46.4443021722864</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.31252752167265</v>
+        <v>55.16398622565625</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>22.061746964937</v>
+        <v>17.86812599862822</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>22.2490730629968</v>
+        <v>38.94036655312367</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>22.28842279002019</v>
+        <v>45.96434101067169</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>22.05569857427778</v>
+        <v>9.597488208433077</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.20576395905308</v>
+        <v>41.43334550512579</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.25762810951837</v>
+        <v>50.06425325345415</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>22.15918019850488</v>
+        <v>15.56350141409683</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>22.28216677829407</v>
+        <v>62.06266236782557</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.31841154380248</v>
+        <v>71.49306246882581</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.37448239224531</v>
+        <v>72.28979333520375</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.44975505495571</v>
+        <v>78.84097020820508</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.48967569135624</v>
+        <v>88.46031527223701</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>22.18097987376948</v>
+        <v>29.40699157228468</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.39506748651111</v>
+        <v>76.84666552548212</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>22.45978275990491</v>
+        <v>83.29633879572523</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>22.07253608623242</v>
+        <v>3.694808998269881</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>22.18315909923087</v>
+        <v>10.24385137797916</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.1982431705516</v>
+        <v>8.843533211391147</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>22.08703403169469</v>
+        <v>-6.818729197222844</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.16973369069093</v>
+        <v>10.93300151221121</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.19097065235592</v>
+        <v>10.41883043369215</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>22.138298153968</v>
+        <v>-10.41041352367179</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.20629342605721</v>
+        <v>22.46837779223508</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.21993207660319</v>
+        <v>19.89186653446964</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.23241385343623</v>
+        <v>23.57380674264754</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.2700910568748</v>
+        <v>25.50972735827998</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>22.28576243916464</v>
+        <v>24.22015678273706</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.12824356114911</v>
+        <v>-2.574719243164772</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>22.24063534133272</v>
+        <v>12.50144270958729</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>22.26894154730318</v>
+        <v>11.37747185560141</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>22.09276604769774</v>
+        <v>18.2788572439158</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.25655232152485</v>
+        <v>40.4679348187055</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>22.28209559196376</v>
+        <v>41.58002176595865</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>22.09194555949632</v>
+        <v>1.74788993308875</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.22152868082066</v>
+        <v>37.71661600412583</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>22.25589563905945</v>
+        <v>43.36111379225088</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>22.17114675066826</v>
+        <v>8.822962156457972</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.27715821697883</v>
+        <v>59.07600834556791</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>22.30002649752884</v>
+        <v>64.36220116992041</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>22.33217256626752</v>
+        <v>57.55907037383456</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>22.40099160353418</v>
+        <v>65.4942298119682</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.4290355484632</v>
+        <v>68.10490308541186</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>22.17709212043192</v>
+        <v>21.76683855382529</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>22.36059064611914</v>
+        <v>67.37572365830466</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>22.40260344259588</v>
+        <v>67.97144139376158</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22.1298835100519</v>
+        <v>22.35830924922022</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>22.31622486515788</v>
+        <v>50.74891411646207</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22.35078906847298</v>
+        <v>51.79549536492955</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>22.13144843175868</v>
+        <v>6.92700097581233</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>22.28321969733502</v>
+        <v>54.39732784346405</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>22.32902565781649</v>
+        <v>55.75750925605065</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>22.22999000205764</v>
+        <v>10.1967740580769</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>22.35457181128157</v>
+        <v>74.38970870317834</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>22.38618438453473</v>
+        <v>76.40637019347389</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>22.45832507690468</v>
+        <v>88.95166955260507</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>22.53587462628782</v>
+        <v>94.78925142096107</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>22.57107812443639</v>
+        <v>96.132070562179</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>22.2690275287695</v>
+        <v>33.25079236482561</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>22.48463386293716</v>
+        <v>92.11480248346015</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.54078268403411</v>
+        <v>88.09598174860871</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>22.04510732901026</v>
+        <v>9.644661613726957</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>22.14432550676281</v>
+        <v>14.00258576669008</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>22.15876569687654</v>
+        <v>15.88569058064147</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>22.05615296194708</v>
+        <v>-1.724764176817008</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>22.12802086956659</v>
+        <v>12.87801450655305</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>22.14830670776227</v>
+        <v>16.11832663189299</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.10410195151966</v>
+        <v>-0.6365690660556389</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>22.16313207127213</v>
+        <v>25.53968739941252</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.17618884396962</v>
+        <v>27.38682919399859</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.18185306229777</v>
+        <v>28.87603290197592</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.2138722944266</v>
+        <v>34.99037357285056</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>22.22841117818549</v>
+        <v>37.17584495195502</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>22.0898191175192</v>
+        <v>13.48650015555967</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>22.18777416596195</v>
+        <v>27.71845558548885</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>22.21516089200712</v>
+        <v>29.85361839575259</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>22.02301128261369</v>
+        <v>3.964040094448556</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>22.17065381870337</v>
+        <v>12.25127427877516</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.19531785704233</v>
+        <v>21.68073385983232</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>22.01571025919979</v>
+        <v>-5.246364305071324</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>22.12980342969367</v>
+        <v>10.07618269197153</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>22.16291673911101</v>
+        <v>24.45260852962851</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.09090090531557</v>
+        <v>-3.356093863820952</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.18410828591621</v>
+        <v>24.865519694966</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>22.20622878712361</v>
+        <v>39.35609616622434</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>22.21964951182186</v>
+        <v>25.65601716453535</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>22.2799824433471</v>
+        <v>31.6663199297044</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>22.30609369411296</v>
+        <v>38.59563558267408</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>22.08102153356243</v>
+        <v>4.415156679468726</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>22.2433665413796</v>
+        <v>29.73620862585433</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.28434119966718</v>
+        <v>38.24224744403443</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>22.06988149993624</v>
+        <v>17.18540306107787</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.23883944731712</v>
+        <v>33.14494413262767</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.2719843318855</v>
+        <v>37.74445466835337</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>22.0656272704704</v>
+        <v>3.152532346110604</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>22.20067514355012</v>
+        <v>31.88215976649268</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>22.24455626067765</v>
+        <v>38.64586947735314</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>22.15876052836827</v>
+        <v>9.042997112089548</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>22.26950372349382</v>
+        <v>53.73345171841229</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>22.29985581693993</v>
+        <v>61.11211817211779</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>22.35347224935915</v>
+        <v>65.52910664883001</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>22.42206002984438</v>
+        <v>68.33726493503167</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>22.45484461534809</v>
+        <v>71.57301551744291</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>22.18248089547314</v>
+        <v>32.15441897744888</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.37511745597772</v>
+        <v>67.05053572723492</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>22.42946350188459</v>
+        <v>68.06019225736783</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>22.00633053990878</v>
+        <v>5.076877689856424</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.10539603037499</v>
+        <v>1.795986975776202</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>22.1195266980827</v>
+        <v>-0.1550961117502432</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.01229354293088</v>
+        <v>0.458835525139861</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>22.08265811156561</v>
+        <v>0.3874650614545736</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>22.10265409899723</v>
+        <v>0.7916645493999255</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>22.06113232098151</v>
+        <v>-5.730697716000869</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.1189055410637</v>
+        <v>5.639881265258072</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.13161871543007</v>
+        <v>4.379063434224001</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.12593598820281</v>
+        <v>7.241104863864937</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.1577941511606</v>
+        <v>7.229504446876851</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.172513457561</v>
+        <v>8.51152803560881</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>22.03411048920551</v>
+        <v>3.707565121342732</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.13050247987563</v>
+        <v>5.246585064657786</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.15723196775944</v>
+        <v>3.730826551732164</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.98518513010631</v>
+        <v>-1.359423732967763</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.13306142538872</v>
+        <v>1.194667913715243</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.1575343638474</v>
+        <v>5.164834156588029</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.97246623671862</v>
+        <v>-4.666020464404639</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>22.08504104670992</v>
+        <v>1.595218549987301</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>22.11803181966341</v>
+        <v>10.02827420058341</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.04856397910995</v>
+        <v>-8.790271085262805</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>22.14048679718194</v>
+        <v>8.866110551359117</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.16235065108777</v>
+        <v>16.88948781252296</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.16455268641943</v>
+        <v>7.008827500452524</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.22515761409263</v>
+        <v>9.271627337874786</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.25194680894539</v>
+        <v>13.62720933283847</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>22.02585292708273</v>
+        <v>-5.282732856437516</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.18697918122401</v>
+        <v>10.70544837068364</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.22735616430225</v>
+        <v>12.64486106725288</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.0342626312496</v>
+        <v>17.51773762192197</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.20398097295394</v>
+        <v>24.5937697025455</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.23718883289103</v>
+        <v>27.81228775938187</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.02459069642693</v>
+        <v>7.705413835096552</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>22.15861637758441</v>
+        <v>23.97275796615161</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>22.20269455776775</v>
+        <v>28.77656746266166</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.11900739947298</v>
+        <v>7.128677561959066</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.22888063182172</v>
+        <v>37.90748256319058</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>22.25922001983716</v>
+        <v>42.72502450670217</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.30281438925472</v>
+        <v>49.30524924123261</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.37191879970949</v>
+        <v>48.55533807618994</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.40559373869503</v>
+        <v>51.58797574646109</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>22.13110775954035</v>
+        <v>25.33730449205779</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>22.32325745337608</v>
+        <v>46.99285435720835</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.37738698051731</v>
+        <v>45.72438971181653</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.07348071800588</v>
+        <v>21.63878876085571</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.1728534798266</v>
+        <v>30.4783394084576</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.19032310432906</v>
+        <v>33.82961123178384</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.08851222166526</v>
+        <v>1.94629690716193</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.15901502718683</v>
+        <v>29.92670792822337</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.18307445329714</v>
+        <v>33.11008613598329</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>22.13404879382601</v>
+        <v>9.240791809861031</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>22.19192400455719</v>
+        <v>45.86828849296167</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>22.20793885366897</v>
+        <v>47.33901972211014</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>22.22184372149092</v>
+        <v>52.81229397577485</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>22.25241758569907</v>
+        <v>59.35346765129311</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>22.27206620706622</v>
+        <v>62.42295254519965</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.13057335672214</v>
+        <v>34.10706329699066</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.22633599998749</v>
+        <v>61.01367610467727</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.259055890538</v>
+        <v>63.53355301887078</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.06771872286413</v>
+        <v>11.32265222148904</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>22.2161895089168</v>
+        <v>27.1264203180872</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.2451367157017</v>
+        <v>32.59048883347308</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.06588732451101</v>
+        <v>-3.737826229529674</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.1789637092445</v>
+        <v>22.28331863936778</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.21732611486951</v>
+        <v>30.88542291812978</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.13702658396685</v>
+        <v>2.275878482444547</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.22932028379598</v>
+        <v>42.37171250981496</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.25556618328411</v>
+        <v>51.76185451484783</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.28076116308609</v>
+        <v>45.49447608951829</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>22.3402460385048</v>
+        <v>51.77578475837103</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.3733142808616</v>
+        <v>53.98369450186526</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.14197420784416</v>
+        <v>19.08623025626443</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>22.30302280562222</v>
+        <v>59.78736827689319</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.35121604196509</v>
+        <v>63.43556712665838</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.10434806319606</v>
+        <v>23.81676751743601</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.27380400667694</v>
+        <v>44.43486168067764</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.3115226894454</v>
+        <v>49.53488572565348</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.10484768226152</v>
+        <v>6.157692192346587</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>22.23842747009193</v>
+        <v>42.58498558181306</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>22.28784910341157</v>
+        <v>48.28919516311488</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.19452811232096</v>
+        <v>15.39858319458942</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.30396379853732</v>
+        <v>68.06506930632304</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>22.33867771345034</v>
+        <v>74.93921681825051</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.40366113934264</v>
+        <v>88.87713323985956</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>22.47109926406713</v>
+        <v>88.6209010467842</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.51137083646727</v>
+        <v>91.4177216926479</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.23187825176911</v>
+        <v>38.04563627495589</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.42266605027709</v>
+        <v>87.02481005335969</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.48457294199551</v>
+        <v>91.36537101677474</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>22.09607288378351</v>
+        <v>16.59201669296441</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.19681784956936</v>
+        <v>38.90684558254073</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.21220884830313</v>
+        <v>41.78128033310216</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>22.11112880324129</v>
+        <v>7.394739199259842</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.18603516647338</v>
+        <v>44.49035681686306</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.20740787718799</v>
+        <v>47.91406909209115</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>22.15768866710394</v>
+        <v>13.96356709611693</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>22.21923329479208</v>
+        <v>62.86527889672271</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>22.23326916920249</v>
+        <v>65.01843913205249</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>22.24940871364882</v>
+        <v>70.0874914126004</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>22.28296047212363</v>
+        <v>79.06667233324758</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.29829367134115</v>
+        <v>79.71586916891039</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.15433969874471</v>
+        <v>24.76101964411761</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.25635383068249</v>
+        <v>69.28830395333674</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>22.28511276918183</v>
+        <v>72.5655374914399</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>22.08759110896311</v>
+        <v>15.0417230065764</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.23660400481882</v>
+        <v>38.61833864390589</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.26241707308903</v>
+        <v>43.39023191762437</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>22.08590228500495</v>
+        <v>0.8735642874531067</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.20324617367962</v>
+        <v>36.14043719163682</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.23766597171501</v>
+        <v>44.44448553712387</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>22.15905653113248</v>
+        <v>7.627671686045348</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.25498193325592</v>
+        <v>55.92158416584873</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>22.27829249067423</v>
+        <v>64.72514241615585</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>22.30464845489005</v>
+        <v>57.03852698570672</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>22.36621440028103</v>
+        <v>64.69788064533199</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>22.39344658935721</v>
+        <v>65.64148060343948</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>22.16256682788815</v>
+        <v>17.19353787725653</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>22.32906205800335</v>
+        <v>66.50936153303263</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>22.37180780037991</v>
+        <v>71.94207104779095</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>22.11939774980375</v>
+        <v>16.75940097383487</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.28908441061655</v>
+        <v>44.67204399036696</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>22.3233234165333</v>
+        <v>49.43974279538257</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>22.12012504246796</v>
+        <v>3.66315528433066</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>22.257802248584</v>
+        <v>47.86299985913639</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>22.30289642657259</v>
+        <v>54.09387815703859</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>22.21099717465855</v>
+        <v>8.557154768956117</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>22.3239384269084</v>
+        <v>67.88480618858623</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>22.35541995747775</v>
+        <v>75.73956446039361</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>22.41811000934604</v>
+        <v>84.44044937452352</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>22.48773592903246</v>
+        <v>90.63927934094613</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>22.52182393267454</v>
+        <v>95.90590383189222</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>22.2446270561811</v>
+        <v>28.3105126779527</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.44055166932718</v>
+        <v>87.61047108743327</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>22.49656889000422</v>
+        <v>91.72327983404368</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>22.11300781329819</v>
+        <v>21.69618666206911</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>22.20239147542141</v>
+        <v>38.44352981546993</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>22.2178180061791</v>
+        <v>42.3999488941384</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>22.13126307835401</v>
+        <v>6.038084264736234</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>22.1969800732069</v>
+        <v>49.9599433771572</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>22.21807655510613</v>
+        <v>51.85899066829479</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>22.17049704274888</v>
+        <v>12.86805505234875</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>22.22450874129168</v>
+        <v>65.67276318463155</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>22.23867420512236</v>
+        <v>66.06735593972169</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>22.25871790789961</v>
+        <v>65.67515649253042</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>22.2877068387712</v>
+        <v>72.57381385332566</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>22.30477353920523</v>
+        <v>72.40718912216934</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>22.17630278841634</v>
+        <v>30.35892271220811</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>22.26517549775999</v>
+        <v>65.75117395339301</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>22.2938578015889</v>
+        <v>71.48820265130833</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>22.11884326303295</v>
+        <v>16.76722482190123</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>22.25147797644457</v>
+        <v>39.98382769448271</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>22.27670111991381</v>
+        <v>43.04313822054236</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>22.12435115861319</v>
+        <v>0.5612093401970277</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>22.22802902897281</v>
+        <v>39.81779946835118</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>22.26130832181888</v>
+        <v>46.08547768559144</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>22.18561692630963</v>
+        <v>9.426221170020499</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>22.27036866313262</v>
+        <v>63.52977353561807</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.29326163835766</v>
+        <v>70.76586624403305</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>22.32658949971521</v>
+        <v>64.6155109167704</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>22.38112500070164</v>
+        <v>71.95973142429794</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>22.4096762521954</v>
+        <v>73.73722804167792</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>22.20250505358569</v>
+        <v>26.20455736699089</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>22.3492215834119</v>
+        <v>77.93708575678504</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>22.39106167582811</v>
+        <v>80.99497389199558</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>22.14298422580255</v>
+        <v>19.00356962582002</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>22.29348851340881</v>
+        <v>46.91872434203859</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>22.32625227183347</v>
+        <v>50.17259076767011</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>22.15021017445181</v>
+        <v>1.18725183089348</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>22.27136267669371</v>
+        <v>49.24212357748183</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>22.31413572857648</v>
+        <v>53.53635005892408</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>22.22746713977196</v>
+        <v>9.658171327979012</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>22.32682918833303</v>
+        <v>74.62181444099583</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>22.35699887894045</v>
+        <v>80.6727941847726</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>22.42278146168984</v>
+        <v>93.79437863584245</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>22.48410572420481</v>
+        <v>94.86840493511592</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>22.51878481684308</v>
+        <v>98.97810694695939</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>22.27051718151326</v>
+        <v>31.41148988717681</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>22.44260226108006</v>
+        <v>92.81935942336801</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>22.49617156660025</v>
+        <v>96.57632883645338</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>22.11083672266468</v>
+        <v>25.86469835024552</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.17390828802183</v>
+        <v>37.88499253548066</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.18527700381567</v>
+        <v>39.00692738551055</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>22.12339720171683</v>
+        <v>19.86644116576325</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>22.16833200599101</v>
+        <v>56.73572755054706</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.1838858719168</v>
+        <v>57.27851895031234</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.15056361997062</v>
+        <v>20.4674081798476</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>22.18746916006517</v>
+        <v>63.39604141443481</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.19789608278969</v>
+        <v>62.30060646609112</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>22.20988778472154</v>
+        <v>64.02115787847333</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>22.22947269794481</v>
+        <v>69.81968764677586</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.24241694233707</v>
+        <v>71.97559516953861</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.1518781150953</v>
+        <v>39.21634787245852</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>22.21283206328846</v>
+        <v>63.18956501630387</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.2339731935826</v>
+        <v>69.18903077058526</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>22.11851484254072</v>
+        <v>20.80210793564338</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.21262478880801</v>
+        <v>41.34950159643616</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.23133424451306</v>
+        <v>45.39833783927674</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>22.12234024878959</v>
+        <v>22.43411737354789</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>22.19420016099745</v>
+        <v>57.07487654236865</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.21887719246982</v>
+        <v>64.76231440216485</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.164687098215</v>
+        <v>16.62343178485387</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.22337048801132</v>
+        <v>63.95698013804501</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.24033983016506</v>
+        <v>72.10565296355993</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.26230189322327</v>
+        <v>63.69593578533024</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>22.30023044784102</v>
+        <v>71.17498413610561</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>22.32189076704176</v>
+        <v>76.04656347276799</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.17428423996698</v>
+        <v>30.44676506175421</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.2765636842521</v>
+        <v>73.92915316431538</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>22.30757283505993</v>
+        <v>79.86440903256469</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.13726653051725</v>
+        <v>24.4867064797155</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>22.24443648649475</v>
+        <v>48.29375881565674</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>22.26870257401832</v>
+        <v>50.25178520210321</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>22.14235824669267</v>
+        <v>25.35983797467323</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>22.22695895427928</v>
+        <v>67.22635885096099</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>22.2586251539542</v>
+        <v>70.23129050760116</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>22.19643831905994</v>
+        <v>20.09084541436933</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>22.2657702876838</v>
+        <v>76.95731710129247</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>22.28809620557618</v>
+        <v>81.47638443749393</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>22.33429482853515</v>
+        <v>96.04708938736208</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>22.37716555941179</v>
+        <v>96.83985446543035</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>22.40339796279954</v>
+        <v>103.1143366403708</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>22.22558990778905</v>
+        <v>42.59751381452551</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.346368078171</v>
+        <v>94.43402045258155</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>22.38603105543478</v>
+        <v>98.46748980110534</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>22.08771748483282</v>
+        <v>18.10952670604715</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.1829773036042</v>
+        <v>40.07052637438488</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>22.19750828361726</v>
+        <v>44.42336055653929</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.10153386695802</v>
+        <v>4.168675807369674</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.17276502218985</v>
+        <v>42.66064767234402</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.19297433411292</v>
+        <v>46.18913979368631</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.14585627944761</v>
+        <v>10.30617585871747</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>22.2043876657266</v>
+        <v>62.50296807682494</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.21767006956156</v>
+        <v>64.86068942570482</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>22.23221895141363</v>
+        <v>71.47741215703114</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>22.26366679233023</v>
+        <v>80.02501956199356</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>22.27904800849145</v>
+        <v>81.44286956848504</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>22.14172720206772</v>
+        <v>22.63972138898376</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>22.23848592313405</v>
+        <v>71.50701466939796</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>22.26567726430048</v>
+        <v>73.7499655464654</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>22.08222647999342</v>
+        <v>14.392275315572</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>22.22297580082798</v>
+        <v>39.21685008894003</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.24707962122143</v>
+        <v>41.78167117758609</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>22.08053909387846</v>
+        <v>-1.240445466597244</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>22.19187102791678</v>
+        <v>36.38473459629645</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>22.22407129743679</v>
+        <v>41.53200249947702</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>22.14961887103078</v>
+        <v>5.029785939036195</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>22.24063965248277</v>
+        <v>57.63576708717295</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>22.26241949861443</v>
+        <v>64.17903104086406</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>22.28768738930643</v>
+        <v>58.30167131114049</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.34544294156225</v>
+        <v>64.8021598618418</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>22.37207951322429</v>
+        <v>65.98837596436911</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>22.15274897445859</v>
+        <v>12.23841121324855</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>22.31038000658834</v>
+        <v>65.45916106651637</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>22.35034941891627</v>
+        <v>70.27354917063431</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>22.10673277184546</v>
+        <v>14.70763311693304</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>22.26653977352149</v>
+        <v>44.52785362536009</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>22.29851045141818</v>
+        <v>48.66531700881804</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>22.10670517206361</v>
+        <v>2.51907837775811</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>22.23673827870922</v>
+        <v>50.02929396165283</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>22.27888747408234</v>
+        <v>54.11408849545285</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.19255812304015</v>
+        <v>6.246171351553137</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>22.29922967542589</v>
+        <v>70.56155765001205</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>22.32862468320531</v>
+        <v>76.98494597050188</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>22.38695109225692</v>
+        <v>85.9482373683291</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>22.45205527296268</v>
+        <v>92.75407857921434</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>22.48517408721289</v>
+        <v>98.34374416094491</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>22.2226468016446</v>
+        <v>22.40117825678713</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>22.4073855221398</v>
+        <v>87.3563085743306</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.45970943637413</v>
+        <v>93.57391973663793</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>22.07008111962977</v>
+        <v>13.59301666993555</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.15584129653989</v>
+        <v>17.90113668470118</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.17076877385078</v>
+        <v>19.13898614103569</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>22.08241864021409</v>
+        <v>-0.7891464110785407</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.14354477509707</v>
+        <v>19.30659821672184</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>22.16411479448833</v>
+        <v>20.57257202900521</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.1223344402658</v>
+        <v>1.947305242537755</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.17251838131488</v>
+        <v>30.48325508682183</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.18618416624579</v>
+        <v>30.48769044980254</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.1944968848574</v>
+        <v>36.45375811130479</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>22.22136948974655</v>
+        <v>39.87665189569569</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.23773603516827</v>
+        <v>41.66562178806633</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>22.11438324548809</v>
+        <v>16.62763100460315</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.19737193425023</v>
+        <v>29.51271518396617</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.2253888914308</v>
+        <v>31.8770727901389</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.07291283079389</v>
+        <v>12.12800077152976</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>22.20137307249883</v>
+        <v>32.75045907312621</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.22643653252664</v>
+        <v>39.66811237507773</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>22.07179097741197</v>
+        <v>1.930665887693205</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>22.17013877475573</v>
+        <v>33.39289976189393</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.20332887398046</v>
+        <v>44.03218523799563</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>22.13367024114118</v>
+        <v>8.333080719080469</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>22.21395334372341</v>
+        <v>51.95227272264033</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.23667946569703</v>
+        <v>62.97732096716089</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>22.25563793103413</v>
+        <v>54.20168404168331</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>22.3076342922506</v>
+        <v>57.93181064577756</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>22.3354714594905</v>
+        <v>66.99443589665002</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.13394856672181</v>
+        <v>14.40770376590902</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>22.27381627771613</v>
+        <v>58.63126700328471</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>22.31559547975384</v>
+        <v>67.17146163206384</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.10271206353524</v>
+        <v>21.72942309040204</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.24932586864391</v>
+        <v>45.19288464779635</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>22.2819584879419</v>
+        <v>52.17481071015705</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>22.10328986190243</v>
+        <v>9.421301283533419</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>22.21940895930052</v>
+        <v>47.72224327632206</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>22.26214127407364</v>
+        <v>56.52681662644415</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>22.18108036733444</v>
+        <v>18.15426544873798</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>22.2762253532195</v>
+        <v>70.50212722941131</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>22.3062568184818</v>
+        <v>79.93716540774447</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>22.35829714373184</v>
+        <v>81.9631476113618</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>22.4173043015533</v>
+        <v>80.81148039322511</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>22.45131100406878</v>
+        <v>93.38043250206503</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>22.20828357824804</v>
+        <v>33.6214755865578</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.37388161210543</v>
+        <v>82.56158076455691</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>22.42755060624546</v>
+        <v>92.87061890933946</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>22.09801266426123</v>
+        <v>12.73305663372734</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>22.16001108402826</v>
+        <v>18.41852637028281</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>22.1714822182908</v>
+        <v>20.54864500126039</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>22.10916086319188</v>
+        <v>-0.8769675461582942</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>22.15299918697211</v>
+        <v>26.14896939728036</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>22.16866851635598</v>
+        <v>28.65695309794017</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.13653109433171</v>
+        <v>2.985025714226339</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>22.17252316939889</v>
+        <v>36.56619921415969</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>22.1830550491435</v>
+        <v>37.2795982885827</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>22.19233919291347</v>
+        <v>44.87526208274922</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>22.21138126990433</v>
+        <v>50.57237126849449</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>22.22441770393576</v>
+        <v>54.05028276852239</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>22.13529602094943</v>
+        <v>21.33709365456174</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>22.19483588677519</v>
+        <v>42.02654169125398</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>22.21613734806775</v>
+        <v>47.47673373363241</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>22.10046013667854</v>
+        <v>6.026975420961383</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>22.19313370601142</v>
+        <v>23.48907584895436</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>22.21206624900992</v>
+        <v>33.40181349018156</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.10241641561125</v>
+        <v>2.166095918845212</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>22.17281391631271</v>
+        <v>30.80771280048855</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>22.19774802196505</v>
+        <v>46.02136482918524</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.14502384555684</v>
+        <v>2.165221699419725</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.20248933409499</v>
+        <v>43.6853952582244</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>22.21968467553663</v>
+        <v>58.74340843003318</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>22.23747890073667</v>
+        <v>47.62080482696392</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>22.27466610453868</v>
+        <v>56.52018931013038</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>22.29646799728638</v>
+        <v>64.91619004191904</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>22.15068528530688</v>
+        <v>12.85516224900664</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.25104361701685</v>
+        <v>55.41499011858448</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>22.28241367669055</v>
+        <v>66.32870904680361</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>22.11926835031964</v>
+        <v>12.73853918144589</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>22.22491419445298</v>
+        <v>32.3583632827998</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>22.24938087359658</v>
+        <v>39.94384175968132</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>22.12243896060371</v>
+        <v>4.297305870305816</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>22.20548847050204</v>
+        <v>38.98634458309087</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>22.23738254034705</v>
+        <v>49.55568732492519</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>22.17672388554437</v>
+        <v>5.281631740581863</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>22.24476368126545</v>
+        <v>55.19105681280662</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>22.2672941162587</v>
+        <v>66.55748914591432</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>22.30921909543225</v>
+        <v>78.81744418031926</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>22.35130659905704</v>
+        <v>79.28301186184683</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>22.37768296593048</v>
+        <v>88.73399068795119</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>22.20185484111181</v>
+        <v>25.15595377877527</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>22.32058462556659</v>
+        <v>72.76846086274739</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>22.36058135264259</v>
+        <v>83.38801796857233</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>22.11041441894777</v>
+        <v>21.91520282853385</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>22.20777509489727</v>
+        <v>35.4130319620974</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>22.22329235188474</v>
+        <v>39.52933244690187</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>22.1303018412493</v>
+        <v>7.472194681944384</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>22.20164439964336</v>
+        <v>50.24950277569138</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>22.22308894665428</v>
+        <v>51.72473494223841</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>22.17406809408605</v>
+        <v>14.49050593867344</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.23272010637969</v>
+        <v>65.11224438762284</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>22.24686818684971</v>
+        <v>65.73249123806619</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>22.2688939648355</v>
+        <v>65.13159934582131</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>22.29960370842291</v>
+        <v>74.3835719236551</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>22.31615295492645</v>
+        <v>75.49334319438077</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>22.1792688107448</v>
+        <v>43.8595588487411</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>22.27547102179655</v>
+        <v>66.29520679673087</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>22.30504819396326</v>
+        <v>77.83380044844435</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>22.11138259406563</v>
+        <v>24.42571794832289</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>22.25603321434593</v>
+        <v>42.93845283474377</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>22.28156890122475</v>
+        <v>44.75984146428205</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.11612274736621</v>
+        <v>5.57537585392077</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>22.22896244664339</v>
+        <v>42.48243012172381</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>22.26291431837097</v>
+        <v>45.36698384342313</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>22.18498866015074</v>
+        <v>9.322330245146354</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>22.27723811020085</v>
+        <v>60.45078951467372</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>22.30025954398281</v>
+        <v>63.98545453951617</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>22.33556957727441</v>
+        <v>62.13786694729447</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>22.39362760545127</v>
+        <v>66.76069477557652</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>22.42173733222942</v>
+        <v>67.82113337764017</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.20039085327495</v>
+        <v>31.06702260672949</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>22.35961021173942</v>
+        <v>72.01063081788831</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>22.40258814215657</v>
+        <v>73.54607404458817</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>22.14056489035268</v>
+        <v>23.71747998883146</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>22.30508690023653</v>
+        <v>46.8423093691835</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>22.33870659812528</v>
+        <v>48.20009355373229</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>22.1468910533936</v>
+        <v>8.083673224135818</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>22.27920023777848</v>
+        <v>53.80454561339121</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>22.32336740843789</v>
+        <v>54.58507760634186</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>22.23358717882488</v>
+        <v>11.42520907553378</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>22.34211692642217</v>
+        <v>73.73273000369478</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>22.37295372252441</v>
+        <v>75.58064284556158</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>22.44381500528537</v>
+        <v>90.3822439735122</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>22.50949350792498</v>
+        <v>90.10646977606073</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>22.54406672781455</v>
+        <v>92.58798204304125</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>22.27757749410997</v>
+        <v>40.04944605723985</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>22.46496042844587</v>
+        <v>88.9486141726983</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>22.52065529860987</v>
+        <v>90.45897674555091</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>22.08751254851915</v>
+        <v>17.56915587035346</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>22.18486939834985</v>
+        <v>38.72860871024628</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>22.19978207107019</v>
+        <v>42.12483376760592</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>22.10229327185321</v>
+        <v>5.893275431967389</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>22.17521751387323</v>
+        <v>45.68936536012961</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>22.19592964622825</v>
+        <v>47.90583212368338</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>22.14707005116293</v>
+        <v>9.623298563239292</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>22.20700356663975</v>
+        <v>62.2419124274596</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>22.22063647682218</v>
+        <v>63.75599929490053</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>22.23568309585212</v>
+        <v>67.72259861094498</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>22.2678186030773</v>
+        <v>80.93430751494796</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>22.28382127744489</v>
+        <v>76.31880277733998</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>22.14315433623736</v>
+        <v>20.47826021432628</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>22.24213680700366</v>
+        <v>70.20096642864127</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>22.27003534426996</v>
+        <v>69.78778836140108</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>22.08274595956714</v>
+        <v>12.35671454262644</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>22.22656902430001</v>
+        <v>38.77605604114268</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>22.25132802601036</v>
+        <v>40.81567711546766</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>22.08198536464462</v>
+        <v>-0.7215119011180562</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>22.19590943569673</v>
+        <v>39.69504813967457</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>22.22894400361008</v>
+        <v>44.32116741180079</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>22.15176414489368</v>
+        <v>6.741190980188636</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>22.24491841411579</v>
+        <v>61.6925428205095</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>22.26729870195142</v>
+        <v>68.15583264283637</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>22.29340512429772</v>
+        <v>62.00240332489633</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>22.35243644066215</v>
+        <v>68.5699667222576</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>22.38001436872554</v>
+        <v>67.41152902654133</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>22.1554932766254</v>
+        <v>12.16932477186026</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>22.3167330668388</v>
+        <v>70.82026504858376</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>22.35775515741017</v>
+        <v>72.65211146568534</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>22.10442472853159</v>
+        <v>14.8089931602747</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>22.26750367090764</v>
+        <v>44.1093062855973</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>22.30031938853745</v>
+        <v>47.27746181527178</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>22.10501615642032</v>
+        <v>2.802952229396642</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>22.23781294877691</v>
+        <v>49.94436867534755</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>22.28102398036793</v>
+        <v>53.10769698422379</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>22.192008625284</v>
+        <v>6.098473978679827</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>22.30095757124858</v>
+        <v>69.67045786373549</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>22.33112947388029</v>
+        <v>75.6589507179655</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>22.39009459884493</v>
+        <v>83.21032198021166</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>22.45655838065628</v>
+        <v>88.2473819856567</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>22.49076696859318</v>
+        <v>94.15805205104131</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>22.22228872366492</v>
+        <v>18.63500338074013</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>22.41088972912763</v>
+        <v>81.26403495705935</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>22.46455064687244</v>
+        <v>87.13313056786448</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.34817024501674</v>
+        <v>14.34817024501663</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.975037345871</v>
+        <v>19.97503734587122</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.28938450182671</v>
+        <v>21.28938450182689</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.502370034635547</v>
+        <v>-2.502370034635206</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.31108770831567</v>
+        <v>23.31108770831615</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.72263200081475</v>
+        <v>24.72263200081584</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.035192206509791</v>
+        <v>1.035192206509542</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.6444950343187</v>
+        <v>34.64449503431868</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.35820208499904</v>
+        <v>34.35820208499972</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.48282577219457</v>
+        <v>39.48282577219464</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>45.23239974013369</v>
+        <v>45.23239974013356</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>47.25447677511131</v>
+        <v>47.25447677511118</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.75641079183365</v>
+        <v>16.75641079183364</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>39.48392438192688</v>
+        <v>39.48392438192739</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41.96643141847677</v>
+        <v>41.96643141847672</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.32904991409819</v>
+        <v>16.32904991409875</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37.26622853187229</v>
+        <v>37.26622853187266</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>44.38691815650314</v>
+        <v>44.38691815650169</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.916464497170203</v>
+        <v>3.916464497170423</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36.78281873554268</v>
+        <v>36.78281873554209</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>48.49354560645011</v>
+        <v>48.49354560645014</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.34707812337081</v>
+        <v>12.34707812337076</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>58.68571577642984</v>
+        <v>58.68571577643063</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>70.7592989003335</v>
+        <v>70.75929890033382</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62.06107363495265</v>
+        <v>62.06107363495235</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>72.52820017847148</v>
+        <v>72.52820017847118</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>77.30125418124756</v>
+        <v>77.30125418124719</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.90962248257847</v>
+        <v>24.90962248257808</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>73.94379058600929</v>
+        <v>73.94379058600902</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>82.17753913892305</v>
+        <v>82.17753913892311</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.36268521205223</v>
+        <v>24.36268521205228</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.61167074862217</v>
+        <v>49.61167074862227</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>54.84307402718927</v>
+        <v>54.84307402718873</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.645287294059251</v>
+        <v>7.645287294058901</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>49.55585933742248</v>
+        <v>49.55585933742245</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>56.69992720831874</v>
+        <v>56.69992720831935</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>17.05795074387525</v>
+        <v>17.05795074387507</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>74.66089906325246</v>
+        <v>74.66089906325264</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>82.81957317915155</v>
+        <v>82.81957317915122</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>96.40961914078018</v>
+        <v>96.4096191407799</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>99.8173590114577</v>
+        <v>99.81735901145743</v>
       </c>
     </row>
     <row r="43">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>39.42658174696884</v>
+        <v>39.42658174696932</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>96.5469712210645</v>
+        <v>96.54697122106556</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>102.7463288907602</v>
+        <v>102.7463288907605</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.60083528978639</v>
+        <v>11.60083528978623</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>39.93913974895494</v>
+        <v>39.93913974895515</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.77015589046731</v>
+        <v>42.77015589046702</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.3217847281488382</v>
+        <v>-0.3217847281488204</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>47.83080581125936</v>
+        <v>47.83080581125928</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>49.96595171446195</v>
+        <v>49.96595171446168</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.579617064520736</v>
+        <v>5.579617064520175</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>67.30578651917011</v>
+        <v>67.30578651917025</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>68.13398021608728</v>
+        <v>68.13398021608813</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>67.51275602769985</v>
+        <v>67.51275602770019</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>77.45398241588489</v>
+        <v>77.45398241588477</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>76.91404818606901</v>
+        <v>76.91404818606949</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.54520557975017</v>
+        <v>19.54520557974951</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>67.38730709503625</v>
+        <v>67.38730709503646</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>70.6187086467643</v>
+        <v>70.61870864676408</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.21969668780822</v>
+        <v>12.21969668780792</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42.50370853833653</v>
+        <v>42.50370853833634</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>47.68375152726647</v>
+        <v>47.68375152726611</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-2.434418466398611</v>
+        <v>-2.434418466399201</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.15364504605429</v>
+        <v>42.15364504605461</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>51.72724759996964</v>
+        <v>51.72724759996915</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6.843306369847056</v>
+        <v>6.843306369847426</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>67.22295325982267</v>
+        <v>67.2229532598223</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>77.06664941685901</v>
+        <v>77.06664941685924</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>66.53511532727572</v>
+        <v>66.53511532727588</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>77.53978194239278</v>
+        <v>77.53978194239357</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>81.5035379132936</v>
+        <v>81.50353791329334</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20.10835120059196</v>
+        <v>20.10835120059097</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>79.64939330859882</v>
+        <v>79.64939330859957</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>83.40259808299757</v>
+        <v>83.40259808299756</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>13.79063484981942</v>
+        <v>13.79063484981971</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>49.89296009481012</v>
+        <v>49.89296009480989</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53.17256830009734</v>
+        <v>53.17256830009723</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.3128635810721505</v>
+        <v>-0.3128635810722749</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>54.56278848407572</v>
+        <v>54.56278848407583</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>59.74454300418806</v>
+        <v>59.74454300418827</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.232065551623641</v>
+        <v>6.232065551623474</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>79.25822454892423</v>
+        <v>79.25822454892406</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>85.69300136853182</v>
+        <v>85.69300136853171</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>93.50835911287277</v>
+        <v>93.50835911287304</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>101.1434051850077</v>
+        <v>101.1434051850074</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>103.8664576030277</v>
+        <v>103.8664576030272</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.61605322828856</v>
+        <v>28.61605322828872</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>99.41532508006303</v>
+        <v>99.41532508006274</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>98.80733825321597</v>
+        <v>98.80733825321583</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.66368356745014</v>
+        <v>22.66368356744991</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>40.67751736619284</v>
+        <v>40.67751736619213</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>41.52468624574054</v>
+        <v>41.52468624573982</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.533936047427172</v>
+        <v>7.533936047426941</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.28949992625887</v>
+        <v>44.28949992625878</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>44.53495403950833</v>
+        <v>44.53495403950863</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.87928827247963</v>
+        <v>12.87928827247935</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>63.91016734471036</v>
+        <v>63.91016734471077</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>62.83612727558508</v>
+        <v>62.83612727558537</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>67.22707512376502</v>
+        <v>67.22707512376526</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>77.29331658439901</v>
+        <v>77.29331658439935</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>75.5163546659148</v>
+        <v>75.51635466591443</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30.84380585337731</v>
+        <v>30.84380585337684</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>68.36927405178996</v>
+        <v>68.36927405179036</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>68.33617259056294</v>
+        <v>68.336172590563</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.90280376654112</v>
+        <v>24.90280376654098</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>49.67170257635166</v>
+        <v>49.67170257635097</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>52.65399939337544</v>
+        <v>52.65399939337439</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6.882404693868146</v>
+        <v>6.882404693868025</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.37379542044597</v>
+        <v>47.37379542044657</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>53.98083579395031</v>
+        <v>53.98083579394961</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.24488736767039</v>
+        <v>16.24488736767029</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>72.09667361179626</v>
+        <v>72.09667361179675</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>79.54586636598141</v>
+        <v>79.54586636598169</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>70.8733714669481</v>
+        <v>70.87337146694779</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>80.42622238763019</v>
+        <v>80.42622238763042</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>82.75631815513802</v>
+        <v>82.75631815513711</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.04809575955681</v>
+        <v>30.04809575955606</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>81.69090077154803</v>
+        <v>81.69090077154857</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>82.77688436373592</v>
+        <v>82.77688436373643</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.35148580537275</v>
+        <v>23.35148580537298</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>55.53619092776259</v>
+        <v>55.53619092776266</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>56.13213299178439</v>
+        <v>56.13213299178412</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.163702380022233</v>
+        <v>8.163702380022027</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>61.40845533301925</v>
+        <v>61.4084553330193</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>62.40972712061303</v>
+        <v>62.4097271206135</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>13.64334520700274</v>
+        <v>13.64334520700267</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>84.57882707971058</v>
+        <v>84.57882707971055</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>87.42539467117872</v>
+        <v>87.42539467117844</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>98.10676814577413</v>
+        <v>98.10676814577373</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>103.9982615500491</v>
+        <v>103.9982615500487</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>105.2447079860622</v>
+        <v>105.2447079860615</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.8876264802002</v>
+        <v>39.88762648020038</v>
       </c>
     </row>
     <row r="135">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>100.7227616972007</v>
+        <v>100.7227616972001</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>17.50427332421896</v>
+        <v>17.50427332421889</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.04887600957506</v>
+        <v>22.04887600957477</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.43629744531361</v>
+        <v>23.43629744531338</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.975139610459099</v>
+        <v>1.975139610458974</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.06396487452042</v>
+        <v>24.06396487452016</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.41835832412528</v>
+        <v>26.41835832412531</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.849126831340779</v>
+        <v>4.84912683134133</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>34.63293648324846</v>
+        <v>34.63293648324879</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.85318159323285</v>
+        <v>34.85318159323339</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>42.28174422995118</v>
+        <v>42.28174422995133</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>46.62707600509005</v>
+        <v>46.62707600509016</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>50.24496690353376</v>
+        <v>50.24496690353378</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.54825919655337</v>
+        <v>38.54825919655345</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>55.59960291039037</v>
+        <v>55.59960291039065</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>57.86176859846719</v>
+        <v>57.86176859846717</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>19.22305644737995</v>
+        <v>19.22305644737955</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>37.88895880438689</v>
+        <v>37.88895880438746</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>44.98916376831537</v>
+        <v>44.98916376831439</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>11.13893443448534</v>
+        <v>11.13893443448468</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>40.2391727163551</v>
+        <v>40.23917271635406</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>52.48854279471169</v>
+        <v>52.48854279471121</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.0319491689977</v>
+        <v>16.03194916899766</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>57.56087740492924</v>
+        <v>57.56087740492977</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>69.60806433722031</v>
+        <v>69.60806433722043</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>57.15854692313501</v>
+        <v>57.15854692313437</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>64.86099723473565</v>
+        <v>64.86099723473531</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>74.01300284677055</v>
+        <v>74.01300284677082</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.82715035926655</v>
+        <v>28.82715035926643</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>71.72142381788868</v>
+        <v>71.72142381788848</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>78.04031169367975</v>
+        <v>78.04031169367912</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.35020347413486</v>
+        <v>29.35020347413457</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>51.19234670773852</v>
+        <v>51.19234670773822</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>56.67292031615632</v>
+        <v>56.67292031615641</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.33073479426267</v>
+        <v>15.33073479426222</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>52.6422795314972</v>
+        <v>52.64227953149699</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>60.38786286129903</v>
+        <v>60.38786286129879</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.57669252964983</v>
+        <v>23.57669252964936</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>75.88220970779864</v>
+        <v>75.88220970779814</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>84.21141277502358</v>
+        <v>84.21141277502419</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>91.7170556521197</v>
+        <v>91.71705565211981</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>93.9630912903224</v>
+        <v>93.96309129032207</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>103.2224314813494</v>
+        <v>103.2224314813491</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>46.16550607832851</v>
+        <v>46.16550607832798</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>95.8080381344234</v>
+        <v>95.80803813442395</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>99.98188123003011</v>
+        <v>99.98188123002988</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.59450439127526</v>
+        <v>28.59450439127501</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>44.8315363849812</v>
+        <v>44.83153638498067</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.27975280875027</v>
+        <v>43.27975280875054</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.910408047633124</v>
+        <v>9.91040804763319</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>50.40827548982048</v>
+        <v>50.40827548982089</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>48.22927679033836</v>
+        <v>48.2292767903387</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.87089186312608</v>
+        <v>17.87089186312637</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>66.3088319369698</v>
+        <v>66.30883193697007</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>62.08557424266382</v>
+        <v>62.08557424266385</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>57.60444637263051</v>
+        <v>57.60444637263076</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>64.73814049449814</v>
+        <v>64.73814049449817</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>63.67782171052488</v>
+        <v>63.67782171052514</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.46492215432149</v>
+        <v>25.46492215432161</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>51.98676954686219</v>
+        <v>51.98676954686179</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>51.54994694460324</v>
+        <v>51.54994694460321</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.32520669910791</v>
+        <v>30.32520669910811</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>54.68473550632562</v>
+        <v>54.68473550632554</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>55.06774561737234</v>
+        <v>55.06774561737258</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.59571063093427</v>
+        <v>12.59571063093454</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>53.4259634238245</v>
+        <v>53.42596342382467</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>57.80781868055149</v>
+        <v>57.80781868055186</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>24.04866154204907</v>
+        <v>24.04866154204887</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>77.90394497061875</v>
+        <v>77.9039449706179</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>82.34927077291904</v>
+        <v>82.34927077291933</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>77.94747079328307</v>
+        <v>77.94747079328394</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>86.5336504412375</v>
+        <v>86.53365044123754</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>90.28614186932134</v>
+        <v>90.28614186932194</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>42.4767217517351</v>
+        <v>42.4767217517352</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>90.71109435748799</v>
+        <v>90.71109435748879</v>
       </c>
     </row>
     <row r="211">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>58.09868622905913</v>
+        <v>58.09868622905896</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>59.6418693837951</v>
+        <v>59.64186938379471</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>9.315893774286963</v>
+        <v>9.315893774286662</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>57.95884315253204</v>
+        <v>57.95884315253246</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>60.35149251477993</v>
+        <v>60.3514925147806</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20.21516179218265</v>
+        <v>20.21516179218253</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>84.15341997386847</v>
+        <v>84.15341997386825</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>87.80179121083725</v>
+        <v>87.80179121083778</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>99.92194526556112</v>
+        <v>99.92194526556146</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>102.5272308335333</v>
+        <v>102.5272308335331</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>108.9116201755788</v>
+        <v>108.9116201755784</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>44.43317416548273</v>
+        <v>44.43317416548307</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>102.5391889082548</v>
+        <v>102.5391889082551</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>103.0177669584922</v>
+        <v>103.0177669584924</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>21.02012406705558</v>
+        <v>21.02012406705471</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>37.94240250490256</v>
+        <v>37.94240250490214</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>40.79891012620008</v>
+        <v>40.79891012619974</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>6.595560340239459</v>
+        <v>6.595560340239224</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>48.74896565708995</v>
+        <v>48.74896565708985</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.38426137511796</v>
+        <v>47.38426137511764</v>
       </c>
     </row>
     <row r="232">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>67.30778202058823</v>
+        <v>67.30778202058843</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>64.33055210005345</v>
+        <v>64.33055210005298</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>57.50819420592939</v>
+        <v>57.50819420592905</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>62.7597257817466</v>
+        <v>62.75972578174739</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>58.94844662751937</v>
+        <v>58.94844662751901</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>14.80422693492409</v>
+        <v>14.80422693492361</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>34.38381274945628</v>
+        <v>34.38381274945596</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.75783076912801</v>
+        <v>35.75783076912775</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>27.81137574335617</v>
+        <v>27.81137574335607</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>56.70265296670563</v>
+        <v>56.70265296670475</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>57.94202607921945</v>
+        <v>57.94202607921969</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2.719630402635058</v>
+        <v>2.719630402634497</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>51.55266342315785</v>
+        <v>51.55266342315791</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>55.2533669532204</v>
+        <v>55.25336695322004</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>14.87132593770554</v>
+        <v>14.87132593770539</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>78.68497371609719</v>
+        <v>78.68497371609679</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>81.48265738150619</v>
+        <v>81.48265738150621</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>73.31572114009538</v>
+        <v>73.31572114009518</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>83.4844344298447</v>
+        <v>83.48443442984487</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>86.30716151937423</v>
+        <v>86.3071615193744</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>33.3171393050344</v>
+        <v>33.31713930503484</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>88.23053683581644</v>
+        <v>88.23053683581595</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>86.92042599365287</v>
+        <v>86.92042599365239</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.31926955341636</v>
+        <v>28.31926955341606</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>59.89492541357654</v>
+        <v>59.89492541357584</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>63.15591154442983</v>
+        <v>63.15591154442993</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1.609688304217826</v>
+        <v>1.609688304217734</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>56.38560863663578</v>
+        <v>56.38560863663558</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>59.43163056652692</v>
+        <v>59.43163056652722</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.1541168755491</v>
+        <v>10.15411687554883</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>82.36807899531676</v>
+        <v>82.36807899531669</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>85.02574276343684</v>
+        <v>85.02574276343708</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>93.15296081023199</v>
+        <v>93.15296081023224</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>98.98499482260523</v>
+        <v>98.98499482260475</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>101.1600895567505</v>
+        <v>101.16008955675</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.42213593566485</v>
+        <v>33.42213593566458</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>97.98228897025665</v>
+        <v>97.98228897025642</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>95.50676526836823</v>
+        <v>95.50676526836794</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>9.206697986646969</v>
+        <v>9.206697986646827</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>7.774959530667275</v>
+        <v>7.774959530667335</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>10.70505686131564</v>
+        <v>10.7050568613157</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-3.367308098933123</v>
+        <v>-3.367308098933101</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>13.43937442429898</v>
+        <v>13.43937442429915</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>14.84456665248042</v>
+        <v>14.84456665248048</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-2.520247646297804</v>
+        <v>-2.520247646297562</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.74866554927581</v>
+        <v>23.74866554927585</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.09868239506067</v>
+        <v>24.09868239506086</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.68195406383345</v>
+        <v>31.68195406383364</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>40.05126254779061</v>
+        <v>40.05126254779076</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.16540658062522</v>
+        <v>39.16540658062551</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.29733663254706</v>
+        <v>13.29733663254694</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.14435021309028</v>
+        <v>26.14435021309014</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.82692063455661</v>
+        <v>24.82692063455606</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12.89974319324553</v>
+        <v>12.89974319324562</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.25704680554137</v>
+        <v>30.25704680554145</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>39.67335078761842</v>
+        <v>39.67335078761833</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>1.289732005353908</v>
+        <v>1.289732005353478</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>31.51386945691252</v>
+        <v>31.51386945691226</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>43.53442555330319</v>
+        <v>43.53442555330322</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>7.070035866823879</v>
+        <v>7.070035866824306</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.72080857877599</v>
+        <v>50.72080857877506</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>62.83894303590777</v>
+        <v>62.83894303590707</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.67386022200666</v>
+        <v>50.67386022200644</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>61.0680834333771</v>
+        <v>61.06808343337647</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>65.91771061047979</v>
+        <v>65.91771061048</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.66101481941223</v>
+        <v>16.6610148194123</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>59.98857274822527</v>
+        <v>59.98857274822464</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>65.47284413587326</v>
+        <v>65.47284413587312</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19.71218980163908</v>
+        <v>19.71218980163916</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>43.39303844875686</v>
+        <v>43.39303844875642</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>50.41381407024972</v>
+        <v>50.41381407024992</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>8.047185217101081</v>
+        <v>8.047185217100925</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>50.53376691350455</v>
+        <v>50.53376691350438</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>57.88160274483353</v>
+        <v>57.8816027448334</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>13.45854900120808</v>
+        <v>13.45854900120802</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>71.84384437685351</v>
+        <v>71.84384437685316</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>79.22262903944959</v>
+        <v>79.22262903944963</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>86.82548174648376</v>
+        <v>86.82548174648421</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>93.11230794561332</v>
+        <v>93.1123079456127</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>95.18993039642432</v>
+        <v>95.18993039642417</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>40.3408428624207</v>
+        <v>40.34084286242031</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>92.95722946201765</v>
+        <v>92.95722946201748</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>95.88453087925519</v>
+        <v>95.88453087925454</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>11.07351796775004</v>
+        <v>11.07351796775024</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>13.92235555236989</v>
+        <v>13.92235555236941</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.06931031300708</v>
+        <v>14.06931031300673</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-4.494626256398099</v>
+        <v>-4.494626256398028</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.55704387703945</v>
+        <v>16.55704387703951</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.26241088524478</v>
+        <v>16.26241088524458</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-7.806682628110103</v>
+        <v>-7.806682628109861</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>23.27138343956529</v>
+        <v>23.27138343956551</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>20.95651571976062</v>
+        <v>20.95651571975982</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.41489656320774</v>
+        <v>25.4148965632078</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.05511976319632</v>
+        <v>30.05511976319651</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.69254668078214</v>
+        <v>29.69254668078175</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.100119060454743</v>
+        <v>6.100119060454372</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>20.54304617474603</v>
+        <v>20.54304617474552</v>
       </c>
     </row>
     <row r="330">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>1.59607500414705</v>
+        <v>1.596075004147117</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>10.41384571100583</v>
+        <v>10.41384571100515</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>15.48863283041135</v>
+        <v>15.48863283041082</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-6.05352990714232</v>
+        <v>-6.053529907142259</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>13.79188451954865</v>
+        <v>13.79188451954817</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.55722646876375</v>
+        <v>22.55722646876366</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-5.373563719657131</v>
+        <v>-5.373563719657152</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.83342265445012</v>
+        <v>28.83342265444973</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>38.00397647986315</v>
+        <v>38.00397647986367</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.6907466401924</v>
+        <v>31.69074664019292</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>38.19648070425133</v>
+        <v>38.19648070425161</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>48.11845575654152</v>
+        <v>48.11845575654127</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>4.224693909498566</v>
+        <v>4.224693909498004</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>36.12470390806746</v>
+        <v>36.12470390806735</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.31898844194182</v>
+        <v>38.31898844194103</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>5.778913316473867</v>
+        <v>5.778913316473815</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.5149905136258</v>
+        <v>19.51499051362537</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.15397094944185</v>
+        <v>31.15397094944127</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-4.655734295851786</v>
+        <v>-4.655734295851907</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>24.96957393425803</v>
+        <v>24.96957393425826</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.70353651149941</v>
+        <v>37.70353651149939</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-2.607097653862603</v>
+        <v>-2.607097653862969</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>43.57743281088653</v>
+        <v>43.5774328108859</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>57.43895662825856</v>
+        <v>57.43895662825788</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.41889617150684</v>
+        <v>59.4188961715062</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>62.7593946832604</v>
+        <v>62.75939468326045</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>78.37573879849415</v>
+        <v>78.37573879849398</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>11.17293629973229</v>
+        <v>11.17293629973189</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>54.07763343543178</v>
+        <v>54.07763343543203</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>60.95631665983732</v>
+        <v>60.95631665983696</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.29650518660133</v>
+        <v>16.29650518660152</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>34.99884769453686</v>
+        <v>34.99884769453711</v>
       </c>
     </row>
     <row r="363">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>3.001185649060147</v>
+        <v>3.001185649059728</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>52.07648450014696</v>
+        <v>52.07648450014635</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>53.92672646056236</v>
+        <v>53.92672646056256</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>12.20740668123292</v>
+        <v>12.2074066812335</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>72.55289610443252</v>
+        <v>72.55289610443248</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>73.81487192934779</v>
+        <v>73.81487192934799</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>75.79692962622835</v>
+        <v>75.79692962622812</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>86.89675425077908</v>
+        <v>86.89675425077898</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>83.11146591418525</v>
+        <v>83.11146591418499</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>37.63410152599832</v>
+        <v>37.63410152599816</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>73.23110691282243</v>
+        <v>73.23110691282268</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>78.88846880852086</v>
+        <v>78.88846880852105</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>18.50269587598346</v>
+        <v>18.50269587598361</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>40.0828494068486</v>
+        <v>40.08284940684847</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>43.3495766255351</v>
+        <v>43.34957662553479</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-0.9591561147214023</v>
+        <v>-0.9591561147212957</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>40.04614400777396</v>
+        <v>40.04614400777369</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>43.78232519898682</v>
+        <v>43.78232519898605</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>7.472476959403521</v>
+        <v>7.47247695940421</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>64.26018586828904</v>
+        <v>64.26018586828921</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>69.03626318397315</v>
+        <v>69.03626318397258</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>62.93085631803972</v>
+        <v>62.93085631803906</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>69.4841733511815</v>
+        <v>69.48417335118241</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>70.27077187690041</v>
+        <v>70.27077187689889</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.03265949044699</v>
+        <v>28.03265949044717</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>76.54726569853744</v>
+        <v>76.5472656985368</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>74.226597850399</v>
+        <v>74.22659785039914</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>18.80036531232612</v>
+        <v>18.80036531232637</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>46.43906548786715</v>
+        <v>46.43906548786691</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>49.83915962102244</v>
+        <v>49.83915962102296</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1.41888486040628</v>
+        <v>1.41888486040601</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>52.71280058486359</v>
+        <v>52.7128005848637</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>55.17316338423004</v>
+        <v>55.17316338423049</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>7.542444365024055</v>
+        <v>7.542444365023963</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>76.48194448526634</v>
+        <v>76.48194448526567</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>80.43809455073647</v>
+        <v>80.43809455073698</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>88.32017087416082</v>
+        <v>88.32017087416043</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>90.96675827470638</v>
+        <v>90.96675827470689</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>91.73154096761725</v>
+        <v>91.73154096761773</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.87531803934225</v>
+        <v>34.8753180393422</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>93.95994977559947</v>
+        <v>93.95994977559901</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>92.94335314252193</v>
+        <v>92.94335314252145</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>4.066066847069607</v>
+        <v>4.066066847069692</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.593406933488708</v>
+        <v>9.593406933488717</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.00722348460917</v>
+        <v>12.00722348460908</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-2.433026281093298</v>
+        <v>-2.433026281093319</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>10.61529276831229</v>
+        <v>10.61529276831236</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.09609012184518</v>
+        <v>14.09609012184517</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-2.687908807939117</v>
+        <v>-2.68790880793933</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.40509811643767</v>
+        <v>21.40509811643717</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.83760239002045</v>
+        <v>23.83760239002052</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.07298782166043</v>
+        <v>26.07298782166032</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.01247607923617</v>
+        <v>31.01247607923612</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>33.04076673364307</v>
+        <v>33.04076673364334</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1.867506285464138</v>
+        <v>1.867506285464213</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>23.25011362382116</v>
+        <v>23.25011362382066</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.06282231152999</v>
+        <v>24.06282231152927</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>6.694621606695559</v>
+        <v>6.694621606695222</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.1107985794922</v>
+        <v>24.11079857949221</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.88411831472394</v>
+        <v>31.88411831472386</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.3638758541601277</v>
+        <v>0.363875854160213</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>23.64712226111588</v>
+        <v>23.64712226111606</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.00031788341987</v>
+        <v>35.00031788342</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>5.12929089587621</v>
+        <v>5.129290895876451</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.95145826545388</v>
+        <v>40.95145826545419</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>52.50197291374921</v>
+        <v>52.5019729137492</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>40.05742255008786</v>
+        <v>40.05742255008834</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>46.44289362109558</v>
+        <v>46.44289362109538</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>52.67716081921397</v>
+        <v>52.67716081921454</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>7.217115731651305</v>
+        <v>7.217115731651393</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>46.4443021722864</v>
+        <v>46.44430217228695</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>55.16398622565625</v>
+        <v>55.16398622565688</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>17.86812599862822</v>
+        <v>17.86812599862858</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>38.94036655312367</v>
+        <v>38.94036655312374</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>45.96434101067169</v>
+        <v>45.96434101067143</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>9.597488208433077</v>
+        <v>9.597488208432914</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>41.43334550512579</v>
+        <v>41.43334550512587</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>50.06425325345415</v>
+        <v>50.06425325345427</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.56350141409683</v>
+        <v>15.56350141409662</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>62.06266236782557</v>
+        <v>62.06266236782501</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>71.49306246882581</v>
+        <v>71.49306246882519</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>72.28979333520375</v>
+        <v>72.2897933352038</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>78.84097020820508</v>
+        <v>78.84097020820496</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>88.46031527223701</v>
+        <v>88.46031527223697</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.40699157228468</v>
+        <v>29.4069915722846</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>76.84666552548212</v>
+        <v>76.84666552548239</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>83.29633879572523</v>
+        <v>83.29633879572528</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>3.694808998269881</v>
+        <v>3.694808998269707</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.24385137797916</v>
+        <v>10.24385137797919</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>8.843533211391147</v>
+        <v>8.843533211390927</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-6.818729197222844</v>
+        <v>-6.818729197222275</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>10.93300151221121</v>
+        <v>10.93300151221108</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>10.41883043369215</v>
+        <v>10.4188304336924</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-10.41041352367179</v>
+        <v>-10.41041352367214</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.46837779223508</v>
+        <v>22.46837779223451</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.89186653446964</v>
+        <v>19.89186653446967</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.57380674264754</v>
+        <v>23.57380674264805</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.50972735827998</v>
+        <v>25.50972735828057</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.22015678273706</v>
+        <v>24.22015678273695</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-2.574719243164772</v>
+        <v>-2.574719243164193</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>12.50144270958729</v>
+        <v>12.50144270958745</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>11.37747185560141</v>
+        <v>11.37747185560157</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.2788572439158</v>
+        <v>18.27885724391621</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>40.4679348187055</v>
+        <v>40.46793481870611</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>41.58002176595865</v>
+        <v>41.58002176595862</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>1.74788993308875</v>
+        <v>1.74788993308896</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.71661600412583</v>
+        <v>37.71661600412669</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>43.36111379225088</v>
+        <v>43.36111379225174</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>8.822962156457972</v>
+        <v>8.822962156458367</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>59.07600834556791</v>
+        <v>59.07600834556837</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>64.36220116992041</v>
+        <v>64.36220116992044</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>57.55907037383456</v>
+        <v>57.55907037383422</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>65.4942298119682</v>
+        <v>65.49422981196794</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>68.10490308541186</v>
+        <v>68.10490308541111</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>21.76683855382529</v>
+        <v>21.76683855382553</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>67.37572365830466</v>
+        <v>67.37572365830468</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>67.97144139376158</v>
+        <v>67.97144139376053</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22.35830924922022</v>
+        <v>22.35830924922073</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>50.74891411646207</v>
+        <v>50.74891411646124</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>51.79549536492955</v>
+        <v>51.79549536493002</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>6.92700097581233</v>
+        <v>6.927000975812366</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>54.39732784346405</v>
+        <v>54.39732784346406</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>55.75750925605065</v>
+        <v>55.75750925605055</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.1967740580769</v>
+        <v>10.19677405807682</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>74.38970870317834</v>
+        <v>74.38970870317853</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>76.40637019347389</v>
+        <v>76.4063701934745</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>88.95166955260507</v>
+        <v>88.95166955260504</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>94.78925142096107</v>
+        <v>94.78925142096072</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>96.132070562179</v>
+        <v>96.13207056217915</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>33.25079236482561</v>
+        <v>33.25079236482567</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>92.11480248346015</v>
+        <v>92.11480248345977</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>88.09598174860871</v>
+        <v>88.09598174860858</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>9.644661613726957</v>
+        <v>9.644661613727092</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.00258576669008</v>
+        <v>14.00258576668995</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.88569058064147</v>
+        <v>15.88569058064145</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1.724764176817008</v>
+        <v>-1.724764176816976</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>12.87801450655305</v>
+        <v>12.87801450655265</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.11832663189299</v>
+        <v>16.1183266318931</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-0.6365690660556389</v>
+        <v>-0.6365690660558201</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.53968739941252</v>
+        <v>25.53968739941281</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.38682919399859</v>
+        <v>27.38682919399842</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.87603290197592</v>
+        <v>28.87603290197584</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.99037357285056</v>
+        <v>34.99037357285095</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.17584495195502</v>
+        <v>37.17584495195522</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.48650015555967</v>
+        <v>13.48650015555948</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>27.71845558548885</v>
+        <v>27.71845558548805</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.85361839575259</v>
+        <v>29.85361839575246</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>3.964040094448556</v>
+        <v>3.96404009444867</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>12.25127427877516</v>
+        <v>12.25127427877538</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>21.68073385983232</v>
+        <v>21.6807338598322</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-5.246364305071324</v>
+        <v>-5.246364305071296</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.07618269197153</v>
+        <v>10.07618269197152</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.45260852962851</v>
+        <v>24.45260852962853</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-3.356093863820952</v>
+        <v>-3.356093863820583</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>24.865519694966</v>
+        <v>24.86551969496593</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>39.35609616622434</v>
+        <v>39.356096166224</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.65601716453535</v>
+        <v>25.65601716453554</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.6663199297044</v>
+        <v>31.66631992970444</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.59563558267408</v>
+        <v>38.59563558267391</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>4.415156679468726</v>
+        <v>4.415156679468648</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.73620862585433</v>
+        <v>29.73620862585447</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.24224744403443</v>
+        <v>38.24224744403489</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>17.18540306107787</v>
+        <v>17.18540306107796</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>33.14494413262767</v>
+        <v>33.14494413262755</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.74445466835337</v>
+        <v>37.74445466835321</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3.152532346110604</v>
+        <v>3.152532346110647</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>31.88215976649268</v>
+        <v>31.88215976649222</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.64586947735314</v>
+        <v>38.64586947735327</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.042997112089548</v>
+        <v>9.042997112089648</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>53.73345171841229</v>
+        <v>53.73345171841187</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>61.11211817211779</v>
+        <v>61.11211817211682</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>65.52910664883001</v>
+        <v>65.52910664882941</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>68.33726493503167</v>
+        <v>68.33726493503124</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>71.57301551744291</v>
+        <v>71.57301551744251</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>32.15441897744888</v>
+        <v>32.15441897744875</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>67.05053572723492</v>
+        <v>67.0505357272344</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>68.06019225736783</v>
+        <v>68.06019225736799</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.076877689856424</v>
+        <v>5.076877689856763</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.795986975776202</v>
+        <v>1.795986975775964</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.1550961117502432</v>
+        <v>-0.1550961117502716</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>0.458835525139861</v>
+        <v>0.458835525139687</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.3874650614545736</v>
+        <v>0.3874650614546198</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0.7916645493999255</v>
+        <v>0.7916645493998971</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-5.730697716000869</v>
+        <v>-5.730697716000805</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.639881265258072</v>
+        <v>5.639881265258188</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>4.379063434224001</v>
+        <v>4.379063434223227</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.241104863864937</v>
+        <v>7.24110486386498</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.229504446876851</v>
+        <v>7.229504446876795</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>8.51152803560881</v>
+        <v>8.511528035608698</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.707565121342732</v>
+        <v>3.707565121342629</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.246585064657786</v>
+        <v>5.246585064657706</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>3.730826551732164</v>
+        <v>3.730826551732179</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1.359423732967763</v>
+        <v>-1.359423732967802</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.194667913715243</v>
+        <v>1.194667913715005</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>5.164834156588029</v>
+        <v>5.16483415658789</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-4.666020464404639</v>
+        <v>-4.666020464404589</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>1.595218549987301</v>
+        <v>1.595218549987251</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.02827420058341</v>
+        <v>10.0282742005833</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-8.790271085262805</v>
+        <v>-8.790271085263008</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.866110551359117</v>
+        <v>8.866110551358464</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.88948781252296</v>
+        <v>16.8894878125226</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>7.008827500452524</v>
+        <v>7.008827500452313</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>9.271627337874786</v>
+        <v>9.271627337874609</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>13.62720933283847</v>
+        <v>13.62720933283795</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-5.282732856437516</v>
+        <v>-5.28273285643715</v>
       </c>
     </row>
     <row r="569">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>12.64486106725288</v>
+        <v>12.64486106725352</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.51773762192197</v>
+        <v>17.51773762192282</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.5937697025455</v>
+        <v>24.59376970254591</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.81228775938187</v>
+        <v>27.81228775938183</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.705413835096552</v>
+        <v>7.70541383509655</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.97275796615161</v>
+        <v>23.97275796615184</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.77656746266166</v>
+        <v>28.77656746266167</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>7.128677561959066</v>
+        <v>7.128677561959208</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>37.90748256319058</v>
+        <v>37.90748256319024</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.72502450670217</v>
+        <v>42.72502450670197</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>49.30524924123261</v>
+        <v>49.3052492412327</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>48.55533807618994</v>
+        <v>48.5553380761903</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>51.58797574646109</v>
+        <v>51.58797574646063</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.33730449205779</v>
+        <v>25.33730449205805</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>46.99285435720835</v>
+        <v>46.9928543572085</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>45.72438971181653</v>
+        <v>45.72438971181662</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.63878876085571</v>
+        <v>21.63878876085591</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.4783394084576</v>
+        <v>30.47833940845788</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>33.82961123178384</v>
+        <v>33.82961123178343</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>1.94629690716193</v>
+        <v>1.946296907161937</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.92670792822337</v>
+        <v>29.92670792822386</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>33.11008613598329</v>
+        <v>33.11008613598347</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.240791809861031</v>
+        <v>9.240791809860823</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>45.86828849296167</v>
+        <v>45.8682884929615</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>47.33901972211014</v>
+        <v>47.33901972210994</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>52.81229397577485</v>
+        <v>52.81229397577421</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>59.35346765129311</v>
+        <v>59.35346765129341</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>62.42295254519965</v>
+        <v>62.42295254519904</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>34.10706329699066</v>
+        <v>34.1070632969914</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>61.01367610467727</v>
+        <v>61.01367610467703</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>63.53355301887078</v>
+        <v>63.53355301887097</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>11.32265222148904</v>
+        <v>11.32265222148856</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.1264203180872</v>
+        <v>27.12642031808724</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>32.59048883347308</v>
+        <v>32.59048883347313</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-3.737826229529674</v>
+        <v>-3.737826229529919</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.28331863936778</v>
+        <v>22.28331863936732</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>30.88542291812978</v>
+        <v>30.88542291812975</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>2.275878482444547</v>
+        <v>2.275878482444874</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>42.37171250981496</v>
+        <v>42.37171250981471</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>51.76185451484783</v>
+        <v>51.76185451484747</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>45.49447608951829</v>
+        <v>45.49447608951778</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>51.77578475837103</v>
+        <v>51.77578475837081</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>53.98369450186526</v>
+        <v>53.98369450186534</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.08623025626443</v>
+        <v>19.08623025626371</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>59.78736827689319</v>
+        <v>59.78736827689314</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>63.43556712665838</v>
+        <v>63.43556712665763</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.81676751743601</v>
+        <v>23.81676751743582</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>44.43486168067764</v>
+        <v>44.43486168067776</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>49.53488572565348</v>
+        <v>49.53488572565365</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>6.157692192346587</v>
+        <v>6.157692192346195</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>42.58498558181306</v>
+        <v>42.58498558181294</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>48.28919516311488</v>
+        <v>48.2891951631151</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>15.39858319458942</v>
+        <v>15.39858319458925</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>68.06506930632304</v>
+        <v>68.06506930632193</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>74.93921681825051</v>
+        <v>74.93921681825032</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>88.87713323985956</v>
+        <v>88.8771332398599</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>88.6209010467842</v>
+        <v>88.62090104678411</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>91.4177216926479</v>
+        <v>91.41772169264883</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>38.04563627495589</v>
+        <v>38.04563627495598</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>87.02481005335969</v>
+        <v>87.02481005335974</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>91.36537101677474</v>
+        <v>91.36537101677412</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>16.59201669296441</v>
+        <v>16.59201669296437</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.90684558254073</v>
+        <v>38.90684558254111</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>41.78128033310216</v>
+        <v>41.78128033310205</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>7.394739199259842</v>
+        <v>7.39473919926006</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>44.49035681686306</v>
+        <v>44.49035681686251</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>47.91406909209115</v>
+        <v>47.91406909209107</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>13.96356709611693</v>
+        <v>13.96356709611712</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>62.86527889672271</v>
+        <v>62.86527889672261</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>65.01843913205249</v>
+        <v>65.01843913205238</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>70.0874914126004</v>
+        <v>70.08749141260037</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>79.06667233324758</v>
+        <v>79.06667233324751</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>79.71586916891039</v>
+        <v>79.71586916891027</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.76101964411761</v>
+        <v>24.7610196441176</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>69.28830395333674</v>
+        <v>69.28830395333702</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>72.5655374914399</v>
+        <v>72.56553749144007</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>15.0417230065764</v>
+        <v>15.04172300657648</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>38.61833864390589</v>
+        <v>38.618338643906</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>43.39023191762437</v>
+        <v>43.39023191762463</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>0.8735642874531067</v>
+        <v>0.8735642874526732</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.14043719163682</v>
+        <v>36.14043719163722</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.44448553712387</v>
+        <v>44.44448553712388</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>7.627671686045348</v>
+        <v>7.627671686045746</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>55.92158416584873</v>
+        <v>55.92158416584901</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>64.72514241615585</v>
+        <v>64.72514241615549</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>57.03852698570672</v>
+        <v>57.0385269857063</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>64.69788064533199</v>
+        <v>64.69788064533208</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>65.64148060343948</v>
+        <v>65.64148060343889</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.19353787725653</v>
+        <v>17.193537877257</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>66.50936153303263</v>
+        <v>66.50936153303277</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>71.94207104779095</v>
+        <v>71.94207104779115</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>16.75940097383487</v>
+        <v>16.7594009738348</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>44.67204399036696</v>
+        <v>44.67204399036653</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>49.43974279538257</v>
+        <v>49.43974279538222</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>3.66315528433066</v>
+        <v>3.663155284330536</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.86299985913639</v>
+        <v>47.86299985913653</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>54.09387815703859</v>
+        <v>54.09387815703863</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>8.557154768956117</v>
+        <v>8.55715476895633</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>67.88480618858623</v>
+        <v>67.8848061885864</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>75.73956446039361</v>
+        <v>75.73956446039413</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>84.44044937452352</v>
+        <v>84.44044937452372</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>90.63927934094613</v>
+        <v>90.63927934094671</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>95.90590383189222</v>
+        <v>95.90590383189176</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.3105126779527</v>
+        <v>28.3105126779526</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>87.61047108743327</v>
+        <v>87.61047108743337</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>91.72327983404368</v>
+        <v>91.72327983404399</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>21.69618666206911</v>
+        <v>21.69618666206859</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.44352981546993</v>
+        <v>38.44352981546983</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.3999488941384</v>
+        <v>42.39994889413802</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>6.038084264736234</v>
+        <v>6.038084264735783</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.9599433771572</v>
+        <v>49.95994337715756</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>51.85899066829479</v>
+        <v>51.85899066829467</v>
       </c>
     </row>
     <row r="682">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>65.67276318463155</v>
+        <v>65.67276318463064</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>66.06735593972169</v>
+        <v>66.06735593972139</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>65.67515649253042</v>
+        <v>65.6751564925306</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>72.57381385332566</v>
+        <v>72.57381385332562</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>72.40718912216934</v>
+        <v>72.40718912216876</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.35892271220811</v>
+        <v>30.35892271220798</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>65.75117395339301</v>
+        <v>65.75117395339333</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>71.48820265130833</v>
+        <v>71.48820265130794</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>16.76722482190123</v>
+        <v>16.76722482190068</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.98382769448271</v>
+        <v>39.98382769448174</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>43.04313822054236</v>
+        <v>43.04313822054122</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>0.5612093401970277</v>
+        <v>0.5612093401968536</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>39.81779946835118</v>
+        <v>39.81779946835021</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>46.08547768559144</v>
+        <v>46.08547768559059</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>9.426221170020499</v>
+        <v>9.426221170022227</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>63.52977353561807</v>
+        <v>63.52977353561832</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>70.76586624403305</v>
+        <v>70.76586624403302</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>64.6155109167704</v>
+        <v>64.61551091677123</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>71.95973142429794</v>
+        <v>71.95973142429789</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>73.73722804167792</v>
+        <v>73.73722804167781</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.20455736699089</v>
+        <v>26.20455736699063</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>77.93708575678504</v>
+        <v>77.93708575678606</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>80.99497389199558</v>
+        <v>80.99497389199621</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>19.00356962582002</v>
+        <v>19.00356962582029</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>46.91872434203859</v>
+        <v>46.91872434203822</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>50.17259076767011</v>
+        <v>50.17259076767022</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1.18725183089348</v>
+        <v>1.187251830893324</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>49.24212357748183</v>
+        <v>49.24212357748185</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>53.53635005892408</v>
+        <v>53.53635005892392</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>9.658171327979012</v>
+        <v>9.658171327979225</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>74.62181444099583</v>
+        <v>74.62181444099591</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>80.6727941847726</v>
+        <v>80.67279418477278</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>93.79437863584245</v>
+        <v>93.7943786358437</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>94.86840493511592</v>
+        <v>94.86840493511558</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>98.97810694695939</v>
+        <v>98.9781069469593</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>31.41148988717681</v>
+        <v>31.4114898871771</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>92.81935942336801</v>
+        <v>92.81935942336784</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>96.57632883645338</v>
+        <v>96.5763288364551</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.86469835024552</v>
+        <v>25.86469835024609</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>37.88499253548066</v>
+        <v>37.88499253548088</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>39.00692738551055</v>
+        <v>39.00692738551068</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>19.86644116576325</v>
+        <v>19.86644116576315</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>56.73572755054706</v>
+        <v>56.73572755054654</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>57.27851895031234</v>
+        <v>57.27851895031164</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>20.4674081798476</v>
+        <v>20.46740817984729</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>63.39604141443481</v>
+        <v>63.39604141443478</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>62.30060646609112</v>
+        <v>62.30060646609146</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>64.02115787847333</v>
+        <v>64.02115787847301</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>69.81968764677586</v>
+        <v>69.81968764677623</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>71.97559516953861</v>
+        <v>71.97559516953876</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>39.21634787245852</v>
+        <v>39.21634787245844</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>63.18956501630387</v>
+        <v>63.18956501630421</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>69.18903077058526</v>
+        <v>69.18903077058609</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>20.80210793564338</v>
+        <v>20.80210793564352</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>41.34950159643616</v>
+        <v>41.3495015964358</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>45.39833783927674</v>
+        <v>45.39833783927663</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>22.43411737354789</v>
+        <v>22.43411737354814</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>57.07487654236865</v>
+        <v>57.07487654236864</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>64.76231440216485</v>
+        <v>64.76231440216537</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>16.62343178485387</v>
+        <v>16.62343178485355</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>63.95698013804501</v>
+        <v>63.95698013804545</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>72.10565296355993</v>
+        <v>72.10565296356165</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>63.69593578533024</v>
+        <v>63.69593578533102</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>71.17498413610561</v>
+        <v>71.17498413610593</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>76.04656347276799</v>
+        <v>76.04656347276783</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.44676506175421</v>
+        <v>30.4467650617536</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>73.92915316431538</v>
+        <v>73.92915316431507</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>79.86440903256469</v>
+        <v>79.86440903256488</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>24.4867064797155</v>
+        <v>24.48670647971528</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>48.29375881565674</v>
+        <v>48.29375881565635</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>50.25178520210321</v>
+        <v>50.25178520210273</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.35983797467323</v>
+        <v>25.35983797467343</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>67.22635885096099</v>
+        <v>67.22635885096102</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>70.23129050760116</v>
+        <v>70.23129050760208</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.09084541436933</v>
+        <v>20.09084541436937</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>76.95731710129247</v>
+        <v>76.95731710129262</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>81.47638443749393</v>
+        <v>81.4763844374948</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>96.04708938736208</v>
+        <v>96.04708938736171</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>96.83985446543035</v>
+        <v>96.83985446543032</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>103.1143366403708</v>
+        <v>103.1143366403703</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>42.59751381452551</v>
+        <v>42.59751381452586</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>94.43402045258155</v>
+        <v>94.43402045258178</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>98.46748980110534</v>
+        <v>98.46748980110455</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>18.10952670604715</v>
+        <v>18.10952670604697</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>40.07052637438488</v>
+        <v>40.07052637438544</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>44.42336055653929</v>
+        <v>44.42336055653958</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>4.168675807369674</v>
+        <v>4.168675807369347</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>42.66064767234402</v>
+        <v>42.66064767234436</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>46.18913979368631</v>
+        <v>46.18913979368611</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>10.30617585871747</v>
+        <v>10.30617585871727</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.50296807682494</v>
+        <v>62.50296807682437</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>64.86068942570482</v>
+        <v>64.86068942570444</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>71.47741215703114</v>
+        <v>71.47741215703121</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>80.02501956199356</v>
+        <v>80.02501956199345</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>81.44286956848504</v>
+        <v>81.44286956848498</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>22.63972138898376</v>
+        <v>22.63972138898367</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>71.50701466939796</v>
+        <v>71.50701466939785</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>73.7499655464654</v>
+        <v>73.74996554646521</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.392275315572</v>
+        <v>14.39227531557232</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>39.21685008894003</v>
+        <v>39.21685008894055</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>41.78167117758609</v>
+        <v>41.78167117758619</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1.240445466597244</v>
+        <v>-1.240445466597386</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.38473459629645</v>
+        <v>36.38473459629666</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>41.53200249947702</v>
+        <v>41.53200249947683</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>5.029785939036195</v>
+        <v>5.02978593903638</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>57.63576708717295</v>
+        <v>57.63576708717335</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>64.17903104086406</v>
+        <v>64.17903104086312</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>58.30167131114049</v>
+        <v>58.30167131113942</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>64.8021598618418</v>
+        <v>64.80215986184213</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>65.98837596436911</v>
+        <v>65.98837596436924</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>12.23841121324855</v>
+        <v>12.23841121324833</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>65.45916106651637</v>
+        <v>65.45916106651694</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>70.27354917063431</v>
+        <v>70.27354917063474</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>14.70763311693304</v>
+        <v>14.70763311693329</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44.52785362536009</v>
+        <v>44.52785362536081</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>48.66531700881804</v>
+        <v>48.66531700881778</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.51907837775811</v>
+        <v>2.519078377757957</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>50.02929396165283</v>
+        <v>50.02929396165256</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>54.11408849545285</v>
+        <v>54.11408849545243</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>6.246171351553137</v>
+        <v>6.246171351553375</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>70.56155765001205</v>
+        <v>70.56155765001202</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>76.98494597050188</v>
+        <v>76.98494597050197</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>85.9482373683291</v>
+        <v>85.9482373683296</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>92.75407857921434</v>
+        <v>92.75407857921471</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>98.34374416094491</v>
+        <v>98.34374416094575</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>22.40117825678713</v>
+        <v>22.40117825678659</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>87.3563085743306</v>
+        <v>87.35630857433161</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>93.57391973663793</v>
+        <v>93.57391973663876</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>13.59301666993555</v>
+        <v>13.59301666993513</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.90113668470118</v>
+        <v>17.90113668470156</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.13898614103569</v>
+        <v>19.13898614103604</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-0.7891464110785407</v>
+        <v>-0.7891464110788</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>19.30659821672184</v>
+        <v>19.30659821672225</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.57257202900521</v>
+        <v>20.57257202900569</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>1.947305242537755</v>
+        <v>1.947305242537638</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.48325508682183</v>
+        <v>30.48325508682231</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.48769044980254</v>
+        <v>30.487690449803</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.45375811130479</v>
+        <v>36.45375811130521</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>39.87665189569569</v>
+        <v>39.87665189569586</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.66562178806633</v>
+        <v>41.6656217880668</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.62763100460315</v>
+        <v>16.62763100460348</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.51271518396617</v>
+        <v>29.51271518396606</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.8770727901389</v>
+        <v>31.87707279013882</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>12.12800077152976</v>
+        <v>12.12800077152961</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.75045907312621</v>
+        <v>32.75045907312614</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>39.66811237507773</v>
+        <v>39.66811237507785</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1.930665887693205</v>
+        <v>1.93066588769339</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>33.39289976189393</v>
+        <v>33.39289976189312</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.03218523799563</v>
+        <v>44.03218523799482</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>8.333080719080469</v>
+        <v>8.333080719080753</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>51.95227272264033</v>
+        <v>51.95227272264026</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>62.97732096716089</v>
+        <v>62.97732096716057</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>54.20168404168331</v>
+        <v>54.20168404168292</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>57.93181064577756</v>
+        <v>57.9318106457774</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>66.99443589665002</v>
+        <v>66.99443589664946</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.40770376590902</v>
+        <v>14.40770376590925</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>58.63126700328471</v>
+        <v>58.63126700328475</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>67.17146163206384</v>
+        <v>67.17146163206334</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.72942309040204</v>
+        <v>21.72942309040179</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>45.19288464779635</v>
+        <v>45.19288464779611</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>52.17481071015705</v>
+        <v>52.17481071015725</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.421301283533419</v>
+        <v>9.42130128353319</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>47.72224327632206</v>
+        <v>47.72224327632291</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>56.52681662644415</v>
+        <v>56.52681662644399</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>18.15426544873798</v>
+        <v>18.15426544873802</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>70.50212722941131</v>
+        <v>70.50212722941194</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>79.93716540774447</v>
+        <v>79.937165407745</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>81.9631476113618</v>
+        <v>81.96314761136162</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>80.81148039322511</v>
+        <v>80.8114803932252</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>93.38043250206503</v>
+        <v>93.38043250206552</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.6214755865578</v>
+        <v>33.62147558655762</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>82.56158076455691</v>
+        <v>82.56158076455722</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>92.87061890933946</v>
+        <v>92.87061890933994</v>
       </c>
     </row>
     <row r="856">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.41852637028281</v>
+        <v>18.41852637028277</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.54864500126039</v>
+        <v>20.54864500126047</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-0.8769675461582942</v>
+        <v>-0.8769675461591362</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.14896939728036</v>
+        <v>26.14896939728067</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.65695309794017</v>
+        <v>28.65695309793968</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>2.985025714226339</v>
+        <v>2.985025714225493</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>36.56619921415969</v>
+        <v>36.56619921415951</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.2795982885827</v>
+        <v>37.27959828858217</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>44.87526208274922</v>
+        <v>44.8752620827488</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>50.57237126849449</v>
+        <v>50.57237126849398</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>54.05028276852239</v>
+        <v>54.05028276852257</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>21.33709365456174</v>
+        <v>21.33709365456126</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.02654169125398</v>
+        <v>42.02654169125471</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>47.47673373363241</v>
+        <v>47.47673373363237</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>6.026975420961383</v>
+        <v>6.026975420961765</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.48907584895436</v>
+        <v>23.48907584895331</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.40181349018156</v>
+        <v>33.40181349018157</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.166095918845212</v>
+        <v>2.166095918844981</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.80771280048855</v>
+        <v>30.80771280048825</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>46.02136482918524</v>
+        <v>46.02136482918517</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>2.165221699419725</v>
+        <v>2.165221699420204</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>43.6853952582244</v>
+        <v>43.68539525822553</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>58.74340843003318</v>
+        <v>58.74340843003383</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>47.62080482696392</v>
+        <v>47.6208048269643</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>56.52018931013038</v>
+        <v>56.5201893101309</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>64.91619004191904</v>
+        <v>64.91619004192003</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>12.85516224900664</v>
+        <v>12.85516224900714</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>55.41499011858448</v>
+        <v>55.41499011858445</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>66.32870904680361</v>
+        <v>66.32870904680311</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>12.73853918144589</v>
+        <v>12.73853918144546</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>32.3583632827998</v>
+        <v>32.35836328279989</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.94384175968132</v>
+        <v>39.9438417596819</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>4.297305870305816</v>
+        <v>4.297305870305504</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>38.98634458309087</v>
+        <v>38.98634458309152</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>49.55568732492519</v>
+        <v>49.55568732492472</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>5.281631740581863</v>
+        <v>5.281631740582664</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>55.19105681280662</v>
+        <v>55.19105681280779</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>66.55748914591432</v>
+        <v>66.55748914591534</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>78.81744418031926</v>
+        <v>78.81744418031968</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>79.28301186184683</v>
+        <v>79.28301186184717</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>88.73399068795119</v>
+        <v>88.73399068795142</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>25.15595377877527</v>
+        <v>25.15595377877492</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>72.76846086274739</v>
+        <v>72.76846086274745</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>83.38801796857233</v>
+        <v>83.3880179685724</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>21.91520282853385</v>
+        <v>21.9152028285341</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>35.4130319620974</v>
+        <v>35.4130319620977</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.52933244690187</v>
+        <v>39.52933244690195</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>7.472194681944384</v>
+        <v>7.47219468194449</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>50.24950277569138</v>
+        <v>50.24950277569172</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>51.72473494223841</v>
+        <v>51.72473494223848</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>14.49050593867344</v>
+        <v>14.49050593867395</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>65.11224438762284</v>
+        <v>65.11224438762321</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>65.73249123806619</v>
+        <v>65.7324912380661</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>65.13159934582131</v>
+        <v>65.13159934582168</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>74.3835719236551</v>
+        <v>74.38357192365555</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>75.49334319438077</v>
+        <v>75.49334319438138</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>43.8595588487411</v>
+        <v>43.85955884874145</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>66.29520679673087</v>
+        <v>66.29520679673091</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>77.83380044844435</v>
+        <v>77.83380044844463</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>24.42571794832289</v>
+        <v>24.42571794832297</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>42.93845283474377</v>
+        <v>42.93845283474363</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>44.75984146428205</v>
+        <v>44.75984146428228</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>5.57537585392077</v>
+        <v>5.57537585392058</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>42.48243012172381</v>
+        <v>42.48243012172449</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>45.36698384342313</v>
+        <v>45.36698384342336</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.322330245146354</v>
+        <v>9.322330245147098</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>60.45078951467372</v>
+        <v>60.45078951467409</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>63.98545453951617</v>
+        <v>63.98545453951688</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>62.13786694729447</v>
+        <v>62.1378669472948</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>66.76069477557652</v>
+        <v>66.7606947755761</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>67.82113337764017</v>
+        <v>67.82113337764012</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>31.06702260672949</v>
+        <v>31.06702260672993</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>72.01063081788831</v>
+        <v>72.01063081788871</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>73.54607404458817</v>
+        <v>73.54607404458886</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>23.71747998883146</v>
+        <v>23.7174799888309</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>46.8423093691835</v>
+        <v>46.84230936918296</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>48.20009355373229</v>
+        <v>48.2000935537316</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>8.083673224135818</v>
+        <v>8.083673224135479</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>53.80454561339121</v>
+        <v>53.80454561339078</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>54.58507760634186</v>
+        <v>54.58507760634212</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>11.42520907553378</v>
+        <v>11.42520907553324</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>73.73273000369478</v>
+        <v>73.73273000369497</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>75.58064284556158</v>
+        <v>75.58064284556184</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>90.3822439735122</v>
+        <v>90.38224397351246</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>90.10646977606073</v>
+        <v>90.1064697760611</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>92.58798204304125</v>
+        <v>92.58798204304095</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>40.04944605723985</v>
+        <v>40.04944605723977</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>88.9486141726983</v>
+        <v>88.94861417269918</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>90.45897674555091</v>
+        <v>90.45897674555142</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>17.56915587035346</v>
+        <v>17.56915587035368</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.72860871024628</v>
+        <v>38.72860871024651</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>42.12483376760592</v>
+        <v>42.12483376760611</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>5.893275431967389</v>
+        <v>5.89327543196735</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>45.68936536012961</v>
+        <v>45.68936536012971</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>47.90583212368338</v>
+        <v>47.90583212368323</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>9.623298563239292</v>
+        <v>9.623298563239103</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>62.2419124274596</v>
+        <v>62.24191242745931</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>63.75599929490053</v>
+        <v>63.75599929490002</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>67.72259861094498</v>
+        <v>67.72259861094572</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>80.93430751494796</v>
+        <v>80.93430751494813</v>
       </c>
     </row>
     <row r="957">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>20.47826021432628</v>
+        <v>20.47826021432647</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>70.20096642864127</v>
+        <v>70.20096642864135</v>
       </c>
     </row>
     <row r="960">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>12.35671454262644</v>
+        <v>12.35671454262683</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>38.77605604114268</v>
+        <v>38.7760560411425</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>40.81567711546766</v>
+        <v>40.81567711546721</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-0.7215119011180562</v>
+        <v>-0.7215119011183759</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>39.69504813967457</v>
+        <v>39.69504813967428</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>44.32116741180079</v>
+        <v>44.32116741180084</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>6.741190980188636</v>
+        <v>6.741190980187939</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>61.6925428205095</v>
+        <v>61.6925428205097</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>68.15583264283637</v>
+        <v>68.15583264283723</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>62.00240332489633</v>
+        <v>62.00240332489601</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>68.5699667222576</v>
+        <v>68.56996672225746</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>67.41152902654133</v>
+        <v>67.41152902654119</v>
       </c>
     </row>
     <row r="973">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>70.82026504858376</v>
+        <v>70.82026504858428</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>72.65211146568534</v>
+        <v>72.65211146568504</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>14.8089931602747</v>
+        <v>14.80899316027464</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>44.1093062855973</v>
+        <v>44.10930628559683</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>47.27746181527178</v>
+        <v>47.27746181527154</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>2.802952229396642</v>
+        <v>2.802952229396666</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>49.94436867534755</v>
+        <v>49.94436867534752</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>53.10769698422379</v>
+        <v>53.10769698422421</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>6.098473978679827</v>
+        <v>6.098473978679497</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>69.67045786373549</v>
+        <v>69.67045786373487</v>
       </c>
     </row>
     <row r="984">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>83.21032198021166</v>
+        <v>83.21032198021214</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>88.2473819856567</v>
+        <v>88.24738198565716</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>94.15805205104131</v>
+        <v>94.15805205104174</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>18.63500338074013</v>
+        <v>18.63500338073915</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>81.26403495705935</v>
+        <v>81.26403495705956</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>87.13313056786448</v>
+        <v>87.13313056786453</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.502</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.326</v>
+        <v>17.124</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.834</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.707</v>
+        <v>10.279</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.882</v>
+        <v>4.022</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.34817024501663</v>
+        <v>18.48467484743021</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.97503734587122</v>
+        <v>23.26382246063395</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.28938450182689</v>
+        <v>21.36700569279364</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-2.502370034635206</v>
+        <v>-1.039481420408038</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.31108770831615</v>
+        <v>23.40283501693258</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.72263200081584</v>
+        <v>23.13891642796281</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.035192206509542</v>
+        <v>3.218658168893171</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.64449503431868</v>
+        <v>31.11056179305578</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.35820208499972</v>
+        <v>30.19098579451818</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39.48282577219464</v>
+        <v>32.46389703289979</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>45.23239974013356</v>
+        <v>39.77793799452274</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>47.25447677511118</v>
+        <v>43.1798163595321</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.75641079183364</v>
+        <v>14.65778422856892</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>39.48392438192739</v>
+        <v>31.68923144635765</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41.96643141847672</v>
+        <v>24.99222676815265</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>16.32904991409875</v>
+        <v>20.81228518553259</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37.26622853187266</v>
+        <v>38.89042188478441</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>44.38691815650169</v>
+        <v>44.25614211273485</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.916464497170423</v>
+        <v>7.346931473738923</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36.78281873554209</v>
+        <v>36.09867625613965</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>48.49354560645014</v>
+        <v>51.50216306962831</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.34707812337076</v>
+        <v>8.513511863418579</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>58.68571577643063</v>
+        <v>61.984613424425</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>70.75929890033382</v>
+        <v>74.5911495995977</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62.06107363495235</v>
+        <v>62.22183591049651</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>72.52820017847118</v>
+        <v>74.06142597176549</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>77.30125418124719</v>
+        <v>81.69943780299266</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.90962248257808</v>
+        <v>21.83919764100677</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>73.94379058600902</v>
+        <v>82.65821697957077</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>82.17753913892311</v>
+        <v>85.23968267785182</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.36268521205228</v>
+        <v>31.80749646250088</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.61167074862227</v>
+        <v>51.43902347860401</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>54.84307402718873</v>
+        <v>52.86608214646508</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.645287294058901</v>
+        <v>10.84754221101748</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>49.55585933742245</v>
+        <v>45.59816588225851</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>56.69992720831935</v>
+        <v>53.10725803399984</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>17.05795074387507</v>
+        <v>16.8424858611748</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>74.66089906325264</v>
+        <v>81.46501947498669</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>82.81957317915122</v>
+        <v>81.54965402382425</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>96.4096191407799</v>
+        <v>93.6469683453045</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>99.81735901145743</v>
+        <v>100.2288168706174</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>105.0646656009198</v>
+        <v>103.9242461815514</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>39.42658174696932</v>
+        <v>42.0933193170769</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>96.54697122106556</v>
+        <v>101.8832527224947</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>102.7463288907605</v>
+        <v>102.0621769309904</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>11.60083528978623</v>
+        <v>9.619184652519202</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>39.93913974895515</v>
+        <v>43.38898307199048</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.77015589046702</v>
+        <v>41.71404842046579</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-0.3217847281488204</v>
+        <v>1.530751809329868</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>47.83080581125928</v>
+        <v>47.4322905221304</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>49.96595171446168</v>
+        <v>46.67663454420771</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.579617064520175</v>
+        <v>1.998530552628651</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>67.30578651917025</v>
+        <v>66.74421046797198</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>68.13398021608813</v>
+        <v>64.10045347888109</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>67.51275602770019</v>
+        <v>64.44015126107024</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>77.45398241588477</v>
+        <v>69.85590297021767</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>76.91404818606949</v>
+        <v>70.43596141486159</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>19.54520557974951</v>
+        <v>10.38560587102328</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>67.38730709503646</v>
+        <v>66.28197515552189</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>70.61870864676408</v>
+        <v>66.66273618921761</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.21969668780792</v>
+        <v>13.40559880762894</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42.50370853833634</v>
+        <v>42.30149645735717</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>47.68375152726611</v>
+        <v>47.94581529439523</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-2.434418466399201</v>
+        <v>4.954497831823744</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.15364504605461</v>
+        <v>40.65664332186798</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>51.72724759996915</v>
+        <v>49.23111989376918</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6.843306369847426</v>
+        <v>8.319047519848443</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>67.2229532598223</v>
+        <v>65.84458845787711</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>77.06664941685924</v>
+        <v>80.30783351466374</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>66.53511532727588</v>
+        <v>64.06095500323998</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>77.53978194239357</v>
+        <v>75.85028807577868</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>81.50353791329334</v>
+        <v>78.90741309511787</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20.10835120059097</v>
+        <v>10.39456934043524</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>79.64939330859957</v>
+        <v>75.98291733897545</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>83.40259808299756</v>
+        <v>80.60510262482958</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>13.79063484981971</v>
+        <v>12.87160542949984</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>49.89296009480989</v>
+        <v>48.43341745021331</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>53.17256830009723</v>
+        <v>48.78148336599425</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-0.3128635810722749</v>
+        <v>3.57797282204578</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>54.56278848407583</v>
+        <v>52.16218179672967</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>59.74454300418827</v>
+        <v>57.92985320830991</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.232065551623474</v>
+        <v>6.673419410548508</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>79.25822454892406</v>
+        <v>82.46474449785305</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>85.69300136853171</v>
+        <v>87.9291569114566</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>93.50835911287304</v>
+        <v>89.26542308875739</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>101.1434051850074</v>
+        <v>99.65198998258636</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>103.8664576030272</v>
+        <v>98.90578174090436</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.61605322828872</v>
+        <v>10.69281942581003</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>99.41532508006274</v>
+        <v>92.79036199918995</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>98.80733825321583</v>
+        <v>93.80822936846376</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.66368356744991</v>
+        <v>36.63771134205891</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>40.67751736619213</v>
+        <v>47.27370931559347</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>41.52468624573982</v>
+        <v>48.03347383539826</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.533936047426941</v>
+        <v>8.162818007779958</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>44.28949992625878</v>
+        <v>48.2402825468373</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>44.53495403950863</v>
+        <v>46.99636298186759</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>12.87928827247935</v>
+        <v>9.391736123502195</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>63.91016734471077</v>
+        <v>68.86712182324624</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>62.83612727558537</v>
+        <v>62.06174825011141</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>67.22707512376526</v>
+        <v>64.8803827301096</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>77.29331658439935</v>
+        <v>75.81818176981965</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>75.51635466591443</v>
+        <v>73.60565738888712</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30.84380585337684</v>
+        <v>29.33373608934429</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>68.36927405179036</v>
+        <v>67.23982971693103</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>68.336172590563</v>
+        <v>65.98128865390667</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.90280376654098</v>
+        <v>26.52309058004261</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>49.67170257635097</v>
+        <v>48.06302127679884</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>52.65399939337439</v>
+        <v>51.36259226580997</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6.882404693868025</v>
+        <v>8.164870016847818</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>47.37379542044657</v>
+        <v>45.00487375301205</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>53.98083579394961</v>
+        <v>50.49087009118638</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.24488736767029</v>
+        <v>10.11799863813867</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>72.09667361179675</v>
+        <v>70.62347749610464</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>79.54586636598169</v>
+        <v>80.55951791667127</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>70.87337146694779</v>
+        <v>68.03330154620846</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>80.42622238763042</v>
+        <v>80.932609548724</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>82.75631815513711</v>
+        <v>80.13006645735048</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.04809575955606</v>
+        <v>30.01306444371259</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>81.69090077154857</v>
+        <v>79.50193772653869</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>82.77688436373643</v>
+        <v>78.93365323263211</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.35148580537298</v>
+        <v>35.94998678515665</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>55.53619092776266</v>
+        <v>55.08567491019664</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>56.13213299178412</v>
+        <v>54.39376217421973</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.163702380022027</v>
+        <v>8.891949067124195</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>61.4084553330193</v>
+        <v>57.01570885234463</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>62.4097271206135</v>
+        <v>58.96670363701465</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>13.64334520700267</v>
+        <v>11.07847993434254</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>84.57882707971055</v>
+        <v>83.84430723485617</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>87.42539467117844</v>
+        <v>85.55735142698148</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>98.10676814577373</v>
+        <v>93.67118418921157</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>103.9982615500487</v>
+        <v>97.94447595147778</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>105.2447079860615</v>
+        <v>100.1028472206203</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>39.88762648020038</v>
+        <v>38.75832973897143</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>103.7306136437547</v>
+        <v>95.98894692074094</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>100.7227616972001</v>
+        <v>94.38569356866699</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>17.50427332421889</v>
+        <v>18.34582669018356</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.04887600957477</v>
+        <v>24.67532673138527</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.43629744531338</v>
+        <v>24.22203007826042</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.975139610458974</v>
+        <v>1.105394338985427</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.06396487452016</v>
+        <v>24.20108429090441</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.41835832412531</v>
+        <v>26.7290980622201</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.84912683134133</v>
+        <v>5.16608047808478</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>34.63293648324879</v>
+        <v>32.9407863427799</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.85318159323339</v>
+        <v>33.38107987576289</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>42.28174422995133</v>
+        <v>38.03091592236162</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>46.62707600509016</v>
+        <v>41.78999884666493</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>50.24496690353378</v>
+        <v>47.35899092214802</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.54825919655345</v>
+        <v>65.95208629993954</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>55.59960291039065</v>
+        <v>69.98700740905083</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>57.86176859846717</v>
+        <v>64.29773028668089</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>19.22305644737955</v>
+        <v>17.17086823338254</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>37.88895880438746</v>
+        <v>41.29322565835458</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>44.98916376831439</v>
+        <v>45.66130410356504</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>11.13893443448468</v>
+        <v>7.632342220454397</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>40.23917271635406</v>
+        <v>43.78454563723507</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>52.48854279471121</v>
+        <v>55.70433276567069</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.03194916899766</v>
+        <v>16.07823307494427</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>57.56087740492977</v>
+        <v>68.99837256855108</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>69.60806433722043</v>
+        <v>79.02343353411561</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>57.15854692313437</v>
+        <v>62.49992165197516</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>64.86099723473531</v>
+        <v>73.72736817435067</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>74.01300284677082</v>
+        <v>77.97438633369552</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.82715035926643</v>
+        <v>19.46553644448588</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>71.72142381788848</v>
+        <v>76.09779601568385</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>78.04031169367912</v>
+        <v>82.5980140131588</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.35020347413457</v>
+        <v>30.4278179688392</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>51.19234670773822</v>
+        <v>49.7157862115557</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>56.67292031615641</v>
+        <v>51.23154123541415</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>15.33073479426222</v>
+        <v>10.78308906753056</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>52.64227953149699</v>
+        <v>48.13404906143414</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>60.38786286129879</v>
+        <v>56.40598862650859</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.57669252964936</v>
+        <v>18.80484633896926</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>75.88220970779814</v>
+        <v>78.12248456851928</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>84.21141277502419</v>
+        <v>84.31571256069354</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>91.71705565211981</v>
+        <v>85.96789019334159</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>93.96309129032207</v>
+        <v>88.72993849921036</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>103.2224314813491</v>
+        <v>98.95265391679963</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>46.16550607832798</v>
+        <v>43.57519316640597</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>95.80803813442395</v>
+        <v>93.81341602834776</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>99.98188123002988</v>
+        <v>97.75533492577956</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.59450439127501</v>
+        <v>29.92832551671551</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>44.83153638498067</v>
+        <v>50.57022228412931</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>43.27975280875054</v>
+        <v>45.65539143416716</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.91040804763319</v>
+        <v>9.183406376526122</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>50.40827548982089</v>
+        <v>51.17866750973958</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>48.2292767903387</v>
+        <v>53.93473572427385</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.87089186312637</v>
+        <v>11.75893455937936</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>66.30883193697007</v>
+        <v>80.26186978918815</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>62.08557424266385</v>
+        <v>68.07970404310905</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>57.60444637263076</v>
+        <v>62.22190824651319</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>64.73814049449817</v>
+        <v>77.04207028254433</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>63.67782171052514</v>
+        <v>79.56239071313573</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.46492215432161</v>
+        <v>21.95762137910839</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>51.98676954686179</v>
+        <v>6.974742838469563</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>51.54994694460321</v>
+        <v>6.795477502815924</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>30.32520669910811</v>
+        <v>34.27069813531703</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>54.68473550632554</v>
+        <v>51.61871537786757</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>55.06774561737258</v>
+        <v>49.58927836995194</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.59571063093454</v>
+        <v>8.05775794526507</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>53.42596342382467</v>
+        <v>47.30467319654626</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>57.80781868055186</v>
+        <v>53.76758118311236</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>24.04866154204887</v>
+        <v>14.45160742646741</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>77.9039449706179</v>
+        <v>78.3837987318341</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>82.34927077291933</v>
+        <v>79.88747466467063</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>77.94747079328394</v>
+        <v>76.2200167545945</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>86.53365044123754</v>
+        <v>85.77531540385988</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>90.28614186932194</v>
+        <v>86.78522559436703</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>42.4767217517352</v>
+        <v>44.96164960987615</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>90.71109435748879</v>
+        <v>86.03600623173719</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>30.05853622347644</v>
+        <v>39.06879352205382</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>58.09868622905896</v>
+        <v>57.07176952421435</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>59.64186938379471</v>
+        <v>56.0873162957891</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>9.315893774286662</v>
+        <v>8.903903060400548</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>57.95884315253246</v>
+        <v>51.20401772718786</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>60.3514925147806</v>
+        <v>56.43325982811203</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20.21516179218253</v>
+        <v>12.38827330218871</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>84.15341997386825</v>
+        <v>82.32394997550333</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>87.80179121083778</v>
+        <v>87.65127719989326</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>99.92194526556146</v>
+        <v>94.88939299511914</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>102.5272308335331</v>
+        <v>98.07008300649667</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>108.9116201755784</v>
+        <v>101.4363274230949</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>44.43317416548307</v>
+        <v>59.39920607087588</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>102.5391889082551</v>
+        <v>101.7520794925897</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>103.0177669584924</v>
+        <v>102.6110178488894</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>21.02012406705471</v>
+        <v>25.28782097657151</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>37.94240250490214</v>
+        <v>42.28144160656147</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>40.79891012619974</v>
+        <v>43.53276834208469</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>6.595560340239224</v>
+        <v>7.95988016805914</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>48.74896565708985</v>
+        <v>46.23396276322987</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.38426137511764</v>
+        <v>47.54899339278346</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>12.93007734679847</v>
+        <v>10.3275868139896</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>67.30778202058843</v>
+        <v>71.69373656276787</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>64.33055210005298</v>
+        <v>65.80970182995816</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>57.50819420592905</v>
+        <v>60.11980165402975</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>62.75972578174739</v>
+        <v>69.06469727052988</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>58.94844662751901</v>
+        <v>71.11755834432384</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>14.80422693492361</v>
+        <v>14.68565781725088</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>34.38381274945596</v>
+        <v>5.899436810033745</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35.75783076912775</v>
+        <v>5.154364168863527</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>27.81137574335607</v>
+        <v>28.68748646457989</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>56.70265296670475</v>
+        <v>54.05723615638533</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>57.94202607921969</v>
+        <v>53.27089683704539</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>2.719630402634497</v>
+        <v>7.684736808185242</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>51.55266342315791</v>
+        <v>49.69716099772798</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>55.25336695322004</v>
+        <v>50.46045121062591</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>14.87132593770539</v>
+        <v>9.986388173887821</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>78.68497371609679</v>
+        <v>76.44101688900803</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>81.48265738150621</v>
+        <v>78.5442509578474</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>73.31572114009518</v>
+        <v>70.11592203285628</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>83.48443442984487</v>
+        <v>81.92485449568299</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>86.3071615193744</v>
+        <v>84.4470465346044</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>33.31713930503484</v>
+        <v>31.65993421573965</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>88.23053683581595</v>
+        <v>83.71116346046708</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>86.92042599365239</v>
+        <v>84.6941101025887</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.31926955341606</v>
+        <v>29.153457762491</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>59.89492541357584</v>
+        <v>53.81185395869281</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>63.15591154442993</v>
+        <v>54.36367329703171</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1.609688304217734</v>
+        <v>8.412503319775773</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>56.38560863663558</v>
+        <v>52.51643181381888</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>59.43163056652722</v>
+        <v>56.32607647200271</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.15411687554883</v>
+        <v>10.27672131983103</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>82.36807899531669</v>
+        <v>79.13233603988121</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>85.02574276343708</v>
+        <v>81.35992343203502</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>93.15296081023224</v>
+        <v>84.36525893383902</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>98.98499482260475</v>
+        <v>91.20792577751538</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>101.16008955675</v>
+        <v>93.62477538127494</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.42213593566458</v>
+        <v>34.4568378298722</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>97.98228897025642</v>
+        <v>92.48585188415694</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>95.50676526836794</v>
+        <v>90.80009800478481</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>9.206697986646827</v>
+        <v>12.62943034373918</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>7.774959530667335</v>
+        <v>14.42680675708477</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>10.7050568613157</v>
+        <v>16.1511645324024</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>-3.367308098933101</v>
+        <v>0.359235757839695</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>13.43937442429915</v>
+        <v>19.34625403336371</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>14.84456665248048</v>
+        <v>19.4111202091479</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>-2.520247646297562</v>
+        <v>2.212001734586643</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>23.74866554927585</v>
+        <v>24.64080001084248</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.09868239506086</v>
+        <v>25.24496821792305</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.68195406383364</v>
+        <v>30.65282483810638</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>40.05126254779076</v>
+        <v>40.06856093834867</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.16540658062551</v>
+        <v>38.58211559326551</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>13.29733663254694</v>
+        <v>12.74913063645146</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.14435021309014</v>
+        <v>25.94795745833763</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.82692063455606</v>
+        <v>22.40650741553579</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>12.89974319324562</v>
+        <v>15.39561059252856</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.25704680554145</v>
+        <v>32.5538687163596</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>39.67335078761833</v>
+        <v>38.25091097268823</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>1.289732005353478</v>
+        <v>5.285921622713413</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>31.51386945691226</v>
+        <v>30.71081797514824</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>43.53442555330322</v>
+        <v>40.93575570347413</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>7.070035866824306</v>
+        <v>7.846284350104813</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.72080857877506</v>
+        <v>49.28297988395903</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>62.83894303590707</v>
+        <v>59.68012161458826</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.67386022200644</v>
+        <v>48.40899345501401</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>61.06808343337647</v>
+        <v>57.67238095717416</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>65.91771061048</v>
+        <v>61.71952072865923</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.6610148194123</v>
+        <v>17.91993195490159</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>59.98857274822464</v>
+        <v>59.53847043844614</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>65.47284413587312</v>
+        <v>62.00306679075519</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>19.71218980163916</v>
+        <v>22.76520042013905</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>43.39303844875642</v>
+        <v>40.43558785152753</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>50.41381407024992</v>
+        <v>45.99952695358174</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>8.047185217100925</v>
+        <v>9.109998361916865</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>50.53376691350438</v>
+        <v>44.88050244676434</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>57.8816027448334</v>
+        <v>53.9665327682149</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>13.45854900120802</v>
+        <v>13.1686137316342</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>71.84384437685316</v>
+        <v>68.94105090678983</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>79.22262903944963</v>
+        <v>72.45732203541864</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>86.82548174648421</v>
+        <v>79.83377066790388</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>93.1123079456127</v>
+        <v>88.16545555735243</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>95.18993039642417</v>
+        <v>89.36802743679041</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>40.34084286242031</v>
+        <v>36.72961996896917</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>92.95722946201748</v>
+        <v>85.36631311716148</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>95.88453087925454</v>
+        <v>90.64950513084531</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>11.07351796775024</v>
+        <v>13.5001096670858</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>13.92235555236941</v>
+        <v>17.81269910962993</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>14.06931031300673</v>
+        <v>15.44061356785262</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-4.494626256398028</v>
+        <v>-1.484605352913285</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>16.55704387703951</v>
+        <v>17.76512007300743</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>16.26241088524458</v>
+        <v>20.43721345144177</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-7.806682628109861</v>
+        <v>-0.25788435284759</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>23.27138343956551</v>
+        <v>19.6655681920678</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>20.95651571975982</v>
+        <v>18.32153110527599</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.4148965632078</v>
+        <v>20.03654243335527</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.05511976319651</v>
+        <v>27.18756926146406</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.69254668078175</v>
+        <v>24.63142445921073</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>6.100119060454372</v>
+        <v>12.52068981883194</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>20.54304617474552</v>
+        <v>15.37628759663951</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>18.79342933785102</v>
+        <v>8.952704142297019</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>1.596075004147117</v>
+        <v>5.240577203712654</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>10.41384571100515</v>
+        <v>10.94492095105853</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>15.48863283041082</v>
+        <v>14.18138114985817</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-6.053529907142259</v>
+        <v>-4.095169676691839</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>13.79188451954817</v>
+        <v>11.65506153340198</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.55722646876366</v>
+        <v>18.02776019662059</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-5.373563719657152</v>
+        <v>-4.044861146915402</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.83342265444973</v>
+        <v>19.53637269686654</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>38.00397647986367</v>
+        <v>29.68059518706448</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.69074664019292</v>
+        <v>12.80321996595186</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>38.19648070425161</v>
+        <v>36.30271936674173</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>48.11845575654127</v>
+        <v>44.186196019372</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>4.224693909498004</v>
+        <v>0.7784566037791976</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>36.12470390806735</v>
+        <v>26.15471374082897</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>38.31898844194103</v>
+        <v>20.6648680467821</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>5.778913316473815</v>
+        <v>6.212829666291558</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>19.51499051362537</v>
+        <v>17.91439137648179</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.15397094944127</v>
+        <v>33.66573135316112</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-4.655734295851907</v>
+        <v>-3.020181197722628</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>24.96957393425826</v>
+        <v>20.78481888966787</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.70353651149939</v>
+        <v>40.7830282598196</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-2.607097653862969</v>
+        <v>-2.093833021095399</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>43.5774328108859</v>
+        <v>33.09936236188422</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>57.43895662825788</v>
+        <v>71.18798773180168</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.4188961715062</v>
+        <v>22.87370616447289</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>62.75939468326045</v>
+        <v>58.58844986678052</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>78.37573879849398</v>
+        <v>77.82346431664845</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>11.17293629973189</v>
+        <v>6.157971971409957</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>54.07763343543203</v>
+        <v>44.72793390075136</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>60.95631665983696</v>
+        <v>56.97840745448192</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>16.29650518660152</v>
+        <v>19.82780507553507</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>34.99884769453711</v>
+        <v>27.09536750503002</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>42.45729897960975</v>
+        <v>38.74573552447052</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>3.001185649059728</v>
+        <v>7.559209831524466</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>52.07648450014635</v>
+        <v>50.57965052151698</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>53.92672646056256</v>
+        <v>50.15874671526096</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>12.2074066812335</v>
+        <v>8.862366328909552</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>72.55289610443248</v>
+        <v>68.38858670065775</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>73.81487192934799</v>
+        <v>67.76211974081464</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>75.79692962622812</v>
+        <v>68.45599772504055</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>86.89675425077898</v>
+        <v>77.66448719393074</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>83.11146591418499</v>
+        <v>73.83928179728606</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>37.63410152599816</v>
+        <v>45.50687599624431</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>73.23110691282268</v>
+        <v>68.05320492563048</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>78.88846880852105</v>
+        <v>78.14880859700747</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>18.50269587598361</v>
+        <v>21.73557450197036</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>40.08284940684847</v>
+        <v>39.90497717476725</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>43.34957662553479</v>
+        <v>42.77772681286463</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-0.9591561147212957</v>
+        <v>6.630306654163288</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>40.04614400777369</v>
+        <v>38.88892631260097</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>43.78232519898605</v>
+        <v>41.70482755067991</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>7.47247695940421</v>
+        <v>9.44665825079483</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>64.26018586828921</v>
+        <v>61.58702292446918</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>69.03626318397258</v>
+        <v>67.47782549782096</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>62.93085631803906</v>
+        <v>59.06437545470069</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>69.48417335118241</v>
+        <v>67.04429938669674</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>70.27077187689889</v>
+        <v>67.07790367958415</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.03265949044717</v>
+        <v>32.10606650022347</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>76.5472656985368</v>
+        <v>71.6772061227224</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>74.22659785039914</v>
+        <v>69.6270849861268</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>18.80036531232637</v>
+        <v>23.56147608081147</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>46.43906548786691</v>
+        <v>41.27607170503653</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>49.83915962102296</v>
+        <v>44.41932037090605</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1.41888486040601</v>
+        <v>8.707240298750733</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>52.7128005848637</v>
+        <v>49.41910550228985</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>55.17316338423049</v>
+        <v>52.5310224258311</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>7.542444365023963</v>
+        <v>11.15966116413355</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>76.48194448526567</v>
+        <v>74.77779735347224</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>80.43809455073698</v>
+        <v>77.18792955764144</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>88.32017087416043</v>
+        <v>80.35778553538917</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>90.96675827470689</v>
+        <v>86.99653688888165</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>91.73154096761773</v>
+        <v>87.00905815972968</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>34.8753180393422</v>
+        <v>38.76698539630837</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>93.95994977559901</v>
+        <v>87.35047862536442</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>92.94335314252145</v>
+        <v>87.86746160521486</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>4.066066847069692</v>
+        <v>6.453488476883784</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.593406933488717</v>
+        <v>15.20993467545818</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>12.00722348460908</v>
+        <v>15.63143867444583</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-2.433026281093319</v>
+        <v>0.1132198708749819</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>10.61529276831236</v>
+        <v>14.67875797317783</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>14.09609012184517</v>
+        <v>17.78169430954978</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-2.68790880793933</v>
+        <v>0.6163391917126582</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.40509811643717</v>
+        <v>21.67059919444569</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.83760239002052</v>
+        <v>23.67982357066666</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.07298782166032</v>
+        <v>24.8294055886415</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.01247607923612</v>
+        <v>29.53079526952037</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>33.04076673364334</v>
+        <v>32.45971602198736</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1.867506285464213</v>
+        <v>3.925492386812788</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>23.25011362382066</v>
+        <v>22.06912910760643</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.06282231152927</v>
+        <v>24.09856725648026</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>6.694621606695222</v>
+        <v>9.136170879435571</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.11079857949221</v>
+        <v>25.77433635730334</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.88411831472386</v>
+        <v>31.24208191433816</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>0.363875854160213</v>
+        <v>4.819207131260661</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>23.64712226111606</v>
+        <v>25.97114809518852</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>35.00031788342</v>
+        <v>34.08892942653928</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>5.129290895876451</v>
+        <v>6.379427957672135</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.95145826545419</v>
+        <v>41.63338398398572</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>52.5019729137492</v>
+        <v>50.05972388102423</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>40.05742255008834</v>
+        <v>39.59855090351229</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>46.44289362109538</v>
+        <v>45.79416764515736</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>52.67716081921454</v>
+        <v>50.59768176702933</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>7.217115731651393</v>
+        <v>8.886297390252139</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>46.44430217228695</v>
+        <v>46.71527482788926</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>55.16398622565688</v>
+        <v>51.377717215882</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>17.86812599862858</v>
+        <v>19.40820306249626</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>38.94036655312374</v>
+        <v>37.12331211078915</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>45.96434101067143</v>
+        <v>42.73290222137317</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>9.597488208432914</v>
+        <v>11.97076132108278</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>41.43334550512587</v>
+        <v>39.45631257794963</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>50.06425325345427</v>
+        <v>48.14726707613664</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>15.56350141409662</v>
+        <v>19.37902757418954</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>62.06266236782501</v>
+        <v>60.17164659192318</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>71.49306246882519</v>
+        <v>69.41380767887549</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>72.2897933352038</v>
+        <v>68.9142595800206</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>78.84097020820496</v>
+        <v>76.75096070572224</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>88.46031527223697</v>
+        <v>86.61202153498338</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.4069915722846</v>
+        <v>25.16468597869337</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>76.84666552548239</v>
+        <v>72.00302442410802</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>83.29633879572528</v>
+        <v>78.76551748036403</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>3.694808998269707</v>
+        <v>4.97665004278122</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>10.24385137797919</v>
+        <v>6.099634192397179</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>8.843533211390927</v>
+        <v>7.05818129382595</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-6.818729197222275</v>
+        <v>-3.087147923978549</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>10.93300151221108</v>
+        <v>8.548412733982506</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>10.4188304336924</v>
+        <v>12.40403496253162</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-10.41041352367214</v>
+        <v>-3.452905973256662</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.46837779223451</v>
+        <v>8.707701647207685</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>19.89186653446967</v>
+        <v>11.30623593082572</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>23.57380674264805</v>
+        <v>11.53439784281646</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.50972735828057</v>
+        <v>15.15668032971091</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.22015678273695</v>
+        <v>20.07305074660712</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-2.574719243164193</v>
+        <v>-1.338695903520577</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>12.50144270958745</v>
+        <v>5.199882631102088</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>11.37747185560157</v>
+        <v>9.468686720474036</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.27885724391621</v>
+        <v>20.33649516033704</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>40.46793481870611</v>
+        <v>37.86924386962173</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>41.58002176595862</v>
+        <v>40.50929914897086</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>1.74788993308896</v>
+        <v>6.63216675906629</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.71661600412669</v>
+        <v>35.99786678939508</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>43.36111379225174</v>
+        <v>41.023228520979</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>8.822962156458367</v>
+        <v>8.906645345684218</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>59.07600834556837</v>
+        <v>56.09938804738815</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>64.36220116992044</v>
+        <v>65.01151728583184</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>57.55907037383422</v>
+        <v>55.66807493899775</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>65.49422981196794</v>
+        <v>63.48611537802027</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>68.10490308541111</v>
+        <v>64.94427502329489</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>21.76683855382553</v>
+        <v>22.09039705664705</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>67.37572365830468</v>
+        <v>64.06180675145677</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>67.97144139376053</v>
+        <v>64.07596052169302</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>22.35830924922073</v>
+        <v>27.30937337077455</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>50.74891411646124</v>
+        <v>47.00844981275625</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>51.79549536493002</v>
+        <v>49.34696574689858</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>6.927000975812366</v>
+        <v>9.058952546176631</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>54.39732784346406</v>
+        <v>52.21968214375342</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>55.75750925605055</v>
+        <v>56.24825074660879</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.19677405807682</v>
+        <v>10.55036104178239</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>74.38970870317853</v>
+        <v>74.26312358579722</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>76.4063701934745</v>
+        <v>77.01300185123</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>88.95166955260504</v>
+        <v>83.9114642891093</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>94.78925142096072</v>
+        <v>91.46245968331087</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>96.13207056217915</v>
+        <v>91.07692559387985</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>33.25079236482567</v>
+        <v>30.41478071166263</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>92.11480248345977</v>
+        <v>89.15177690053181</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>88.09598174860858</v>
+        <v>84.02419152048607</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>9.644661613727092</v>
+        <v>13.93812898567428</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>14.00258576668995</v>
+        <v>20.07361586525828</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.88569058064145</v>
+        <v>19.40820949011269</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1.724764176816976</v>
+        <v>-0.1148855690094202</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>12.87801450655265</v>
+        <v>18.84279013714879</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.1183266318931</v>
+        <v>18.75610812965943</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-0.6365690660558201</v>
+        <v>2.541018065367826</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.53968739941281</v>
+        <v>25.06433931545322</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>27.38682919399842</v>
+        <v>23.02545757672123</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.87603290197584</v>
+        <v>28.67147803565228</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.99037357285095</v>
+        <v>33.60603718045753</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.17584495195522</v>
+        <v>36.40000365778502</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.48650015555948</v>
+        <v>11.8938295606668</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>27.71845558548805</v>
+        <v>27.90437101868145</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.85361839575246</v>
+        <v>28.42590583248125</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>3.96404009444867</v>
+        <v>6.14856998314216</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>12.25127427877538</v>
+        <v>15.14703923992632</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>21.6807338598322</v>
+        <v>24.29206339814205</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-5.246364305071296</v>
+        <v>-2.361194912047473</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.07618269197152</v>
+        <v>12.61694545366174</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.45260852962853</v>
+        <v>24.33417372536769</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-3.356093863820583</v>
+        <v>-1.432064766548244</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>24.86551969496593</v>
+        <v>21.2110488039756</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>39.356096166224</v>
+        <v>40.52115217001592</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.65601716453554</v>
+        <v>17.38597677554679</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.66631992970444</v>
+        <v>31.93295856165614</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.59563558267391</v>
+        <v>38.49746032457609</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>4.415156679468648</v>
+        <v>5.249079008885136</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.73620862585447</v>
+        <v>28.17064153570102</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.24224744403489</v>
+        <v>36.70400264157298</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>17.18540306107796</v>
+        <v>21.05725802703234</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>33.14494413262755</v>
+        <v>32.83366658738694</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.74445466835321</v>
+        <v>37.4105938163879</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>3.152532346110647</v>
+        <v>4.404385282770598</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>31.88215976649222</v>
+        <v>30.43894293814797</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.64586947735327</v>
+        <v>37.76469456397247</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>9.042997112089648</v>
+        <v>10.34782933602467</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>53.73345171841187</v>
+        <v>51.79523101288864</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>61.11211817211682</v>
+        <v>59.18186398311491</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>65.52910664882941</v>
+        <v>57.0969427081589</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>68.33726493503124</v>
+        <v>65.80584311264369</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>71.57301551744251</v>
+        <v>68.84992881851093</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>32.15441897744875</v>
+        <v>33.42223628967052</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>67.0505357272344</v>
+        <v>60.68409828567166</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>68.06019225736799</v>
+        <v>63.54000179305584</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.076877689856763</v>
+        <v>5.146546574236904</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>1.795986975775964</v>
+        <v>8.845269525362013</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-0.1550961117502716</v>
+        <v>6.720542041291033</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>0.458835525139687</v>
+        <v>-3.354986124199787</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.3874650614546198</v>
+        <v>6.550719893985924</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>0.7916645493998971</v>
+        <v>7.667542450031547</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-5.730697716000805</v>
+        <v>-3.365313358311539</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.639881265258188</v>
+        <v>6.49149974348235</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>4.379063434223227</v>
+        <v>5.967877171182224</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.24110486386498</v>
+        <v>10.41453433492465</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>7.229504446876795</v>
+        <v>11.04561519139439</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>8.511528035608698</v>
+        <v>14.60832513476619</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.707565121342629</v>
+        <v>3.645337583473612</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.246585064657706</v>
+        <v>10.03378310742646</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>3.730826551732179</v>
+        <v>12.01627453350742</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-1.359423732967802</v>
+        <v>2.365515133982264</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.194667913715005</v>
+        <v>7.333522288516463</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>5.16483415658789</v>
+        <v>9.102152302691081</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-4.666020464404589</v>
+        <v>-3.371974450079264</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>1.595218549987251</v>
+        <v>5.796099994280354</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.0282742005833</v>
+        <v>10.36703918525265</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-8.790271085263008</v>
+        <v>-3.077611126585776</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.866110551358464</v>
+        <v>8.788354287541893</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.8894878125226</v>
+        <v>14.60915130710085</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>7.008827500452313</v>
+        <v>7.372618999717965</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>9.271627337874609</v>
+        <v>10.68776825843239</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>13.62720933283795</v>
+        <v>13.36816305651622</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-5.28273285643715</v>
+        <v>-3.182432381331871</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>10.70544837068364</v>
+        <v>10.48576161905459</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>12.64486106725352</v>
+        <v>12.2583293586364</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.51773762192282</v>
+        <v>19.78731859215544</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.59376970254591</v>
+        <v>26.16542296431852</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.81228775938183</v>
+        <v>27.8794517600089</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>7.70541383509655</v>
+        <v>4.741728621847979</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.97275796615184</v>
+        <v>23.36154292688247</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.77656746266167</v>
+        <v>28.3004991845706</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>7.128677561959208</v>
+        <v>10.31275039371218</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>37.90748256319024</v>
+        <v>36.08999832076604</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.72502450670197</v>
+        <v>39.26998665842765</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>49.3052492412327</v>
+        <v>45.04791429854534</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>48.5553380761903</v>
+        <v>46.30557681423764</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>51.58797574646063</v>
+        <v>49.34524988047048</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.33730449205805</v>
+        <v>25.8151660060547</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>46.9928543572085</v>
+        <v>39.61514207306045</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>45.72438971181662</v>
+        <v>43.42518801790804</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.63878876085591</v>
+        <v>22.57277880782723</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.47833940845788</v>
+        <v>34.4162341170349</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>33.82961123178343</v>
+        <v>34.92048148243635</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>1.946296907161937</v>
+        <v>5.082991357592704</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.92670792822386</v>
+        <v>32.20724432265714</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>33.11008613598347</v>
+        <v>34.98521482930087</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>9.240791809860823</v>
+        <v>10.15446179932959</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>45.8682884929615</v>
+        <v>45.9967593591347</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>47.33901972210994</v>
+        <v>47.61684241944272</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>52.81229397577421</v>
+        <v>49.81512190705355</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>59.35346765129341</v>
+        <v>60.42584031931884</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>62.42295254519904</v>
+        <v>64.07070098825932</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>34.1070632969914</v>
+        <v>37.64973819870951</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>61.01367610467703</v>
+        <v>59.47612846294879</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>63.53355301887097</v>
+        <v>65.92956866284665</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>11.32265222148856</v>
+        <v>14.07543885228387</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.12642031808724</v>
+        <v>26.96951834394215</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>32.59048883347313</v>
+        <v>29.16969246853054</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-3.737826229529919</v>
+        <v>-1.451890499529693</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.28331863936732</v>
+        <v>20.03016882026217</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>30.88542291812975</v>
+        <v>27.11621628022896</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>2.275878482444874</v>
+        <v>0.5436437610078109</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>42.37171250981471</v>
+        <v>40.25098743722058</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>51.76185451484747</v>
+        <v>44.22055099228858</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>45.49447608951778</v>
+        <v>43.0382664489216</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>51.77578475837081</v>
+        <v>50.50082764384012</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>53.98369450186534</v>
+        <v>51.11852659507421</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>19.08623025626371</v>
+        <v>23.48992038481038</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>59.78736827689314</v>
+        <v>56.66886429153303</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>63.43556712665763</v>
+        <v>58.61702917045881</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.81676751743582</v>
+        <v>27.88961816217234</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>44.43486168067776</v>
+        <v>42.86507650081201</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>49.53488572565365</v>
+        <v>48.04536714252606</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>6.157692192346195</v>
+        <v>8.5967309131645</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>42.58498558181294</v>
+        <v>38.07874600240762</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>48.2891951631151</v>
+        <v>45.37982011465792</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>15.39858319458925</v>
+        <v>13.44340694766571</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>68.06506930632193</v>
+        <v>67.50220595498506</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>74.93921681825032</v>
+        <v>72.00938539445784</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>88.8771332398599</v>
+        <v>85.32571252670178</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>88.62090104678411</v>
+        <v>86.33794144091287</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>91.41772169264883</v>
+        <v>88.53832548290902</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>38.04563627495598</v>
+        <v>43.96997386280731</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>87.02481005335974</v>
+        <v>81.50275164924811</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>91.36537101677412</v>
+        <v>88.16792999133868</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>16.59201669296437</v>
+        <v>17.73099328108294</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>38.90684558254111</v>
+        <v>39.2586228295971</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>41.78128033310205</v>
+        <v>39.83338360244719</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>7.39473919926006</v>
+        <v>9.13103542962461</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>44.49035681686251</v>
+        <v>45.72810473481247</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>47.91406909209107</v>
+        <v>46.05284078234028</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>13.96356709611712</v>
+        <v>11.0759597909922</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>62.86527889672261</v>
+        <v>61.44363783747791</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>65.01843913205238</v>
+        <v>61.19824495707945</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>70.08749141260037</v>
+        <v>70.52161968492626</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>79.06667233324751</v>
+        <v>75.53926051053574</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>79.71586916891027</v>
+        <v>75.45464128078066</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.7610196441176</v>
+        <v>21.88417877100884</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>69.28830395333702</v>
+        <v>69.25386548703065</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>72.56553749144007</v>
+        <v>70.37539115054813</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>15.04172300657648</v>
+        <v>16.54219148841781</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>38.618338643906</v>
+        <v>36.47904837433248</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>43.39023191762463</v>
+        <v>40.94469931398392</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>0.8735642874526732</v>
+        <v>7.125200522810694</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.14043719163722</v>
+        <v>35.35705459318181</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>44.44448553712388</v>
+        <v>41.80410870009187</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>7.627671686045746</v>
+        <v>8.080605238172254</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>55.92158416584901</v>
+        <v>53.20272651495939</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>64.72514241615549</v>
+        <v>63.2924437250846</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>57.0385269857063</v>
+        <v>55.02679164626682</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>64.69788064533208</v>
+        <v>63.28460590247787</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>65.64148060343889</v>
+        <v>62.50606867411528</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.193537877257</v>
+        <v>17.49689685947526</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>66.50936153303277</v>
+        <v>64.5362201994009</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>71.94207104779115</v>
+        <v>67.79388543911625</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>16.7594009738348</v>
+        <v>19.07826903282923</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>44.67204399036653</v>
+        <v>42.7526058454035</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>49.43974279538222</v>
+        <v>46.42501205738938</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>3.663155284330536</v>
+        <v>7.517276193443898</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.86299985913653</v>
+        <v>45.26120029948304</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>54.09387815703863</v>
+        <v>51.05779012477478</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>8.55715476895633</v>
+        <v>7.90100488099619</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>67.8848061885864</v>
+        <v>64.92887151996963</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>75.73956446039413</v>
+        <v>74.33913642295519</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>84.44044937452372</v>
+        <v>80.51905417790837</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>90.63927934094671</v>
+        <v>85.35083320828733</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>95.90590383189176</v>
+        <v>91.85350556605124</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.3105126779526</v>
+        <v>20.95007494055156</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>87.61047108743337</v>
+        <v>78.97375897094415</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>91.72327983404399</v>
+        <v>85.81826187532641</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>21.69618666206859</v>
+        <v>24.40960014113636</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.44352981546983</v>
+        <v>36.84227321392595</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.39994889413802</v>
+        <v>39.60197391196617</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>6.038084264735783</v>
+        <v>7.254630447246537</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.95994337715756</v>
+        <v>49.33234979592893</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>51.85899066829467</v>
+        <v>49.72770926277192</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>12.86805505234875</v>
+        <v>9.254820630276935</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>65.67276318463064</v>
+        <v>67.07723595322025</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>66.06735593972139</v>
+        <v>63.80569594832651</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>65.6751564925306</v>
+        <v>66.33888716228456</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>72.57381385332562</v>
+        <v>67.17160372223719</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>72.40718912216876</v>
+        <v>71.00599630626017</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>30.35892271220798</v>
+        <v>41.59164266115231</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>65.75117395339333</v>
+        <v>63.23981488884206</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>71.48820265130794</v>
+        <v>72.69406996297663</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>16.76722482190068</v>
+        <v>25.35138313324615</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>39.98382769448174</v>
+        <v>40.08909955741797</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>43.04313822054122</v>
+        <v>41.77387149800497</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>0.5612093401968536</v>
+        <v>5.550768241534904</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>39.81779946835021</v>
+        <v>36.10769013993153</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>46.08547768559059</v>
+        <v>43.84088864358286</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>9.426221170022227</v>
+        <v>5.99186841689561</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>63.52977353561832</v>
+        <v>61.33773381477725</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>70.76586624403302</v>
+        <v>69.11374387677201</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>64.61551091677123</v>
+        <v>60.50286546467913</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>71.95973142429789</v>
+        <v>68.19956493997645</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>73.73722804167781</v>
+        <v>69.2240522090511</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.20455736699063</v>
+        <v>28.46281241015889</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>77.93708575678606</v>
+        <v>74.80066838299444</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>80.99497389199621</v>
+        <v>76.23220243510683</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>19.00356962582029</v>
+        <v>28.00245546301566</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>46.91872434203822</v>
+        <v>46.66348253657728</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>50.17259076767022</v>
+        <v>47.83147002078967</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>1.187251830893324</v>
+        <v>6.464050300424596</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>49.24212357748185</v>
+        <v>45.46095503686556</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>53.53635005892392</v>
+        <v>49.78935483020457</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>9.658171327979225</v>
+        <v>6.154039033776083</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>74.62181444099591</v>
+        <v>73.77404284365922</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>80.67279418477278</v>
+        <v>76.86662993199637</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>93.7943786358437</v>
+        <v>86.09798361393277</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>94.86840493511558</v>
+        <v>90.92936711625305</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>98.9781069469593</v>
+        <v>92.84594918490336</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>31.4114898871771</v>
+        <v>30.93634782633623</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>92.81935942336784</v>
+        <v>88.3830149671368</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>96.5763288364551</v>
+        <v>89.36106583356462</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.86469835024609</v>
+        <v>25.72756793441903</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>37.88499253548088</v>
+        <v>34.40640122280345</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>39.00692738551068</v>
+        <v>39.35414717991026</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>19.86644116576315</v>
+        <v>13.95735615277257</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>56.73572755054654</v>
+        <v>62.75192093412823</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>57.27851895031164</v>
+        <v>60.14811693557448</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>20.46740817984729</v>
+        <v>13.2755327958236</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>63.39604141443478</v>
+        <v>66.5672324251594</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>62.30060646609146</v>
+        <v>66.68541991383671</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>64.02115787847301</v>
+        <v>73.36443730606655</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>69.81968764677623</v>
+        <v>76.26270391805915</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>71.97559516953876</v>
+        <v>76.46455012322902</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>39.21634787245844</v>
+        <v>53.26886862050101</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>63.18956501630421</v>
+        <v>67.84060313149942</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>69.18903077058609</v>
+        <v>72.99677014734769</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>20.80210793564352</v>
+        <v>27.06143004003367</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>41.3495015964358</v>
+        <v>35.93349671369469</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>45.39833783927663</v>
+        <v>40.25685633493929</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>22.43411737354814</v>
+        <v>35.39333636561597</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>57.07487654236864</v>
+        <v>53.86539871690609</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>64.76231440216537</v>
+        <v>59.52906442049421</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>16.62343178485355</v>
+        <v>10.30594928099189</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>63.95698013804545</v>
+        <v>57.79974962942373</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>72.10565296356165</v>
+        <v>64.1852859593337</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>63.69593578533102</v>
+        <v>57.60063117095065</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>71.17498413610593</v>
+        <v>65.77849014094934</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>76.04656347276783</v>
+        <v>66.00295795236408</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.4467650617536</v>
+        <v>32.69972820472552</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>73.92915316431507</v>
+        <v>69.9121680427746</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>79.86440903256488</v>
+        <v>74.27608803116823</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>24.48670647971528</v>
+        <v>31.6609515400139</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>48.29375881565635</v>
+        <v>46.97917642737167</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>50.25178520210273</v>
+        <v>47.34088479615421</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.35983797467343</v>
+        <v>37.57988681684581</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>67.22635885096102</v>
+        <v>64.42612723146979</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>70.23129050760208</v>
+        <v>64.72294413840277</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.09084541436937</v>
+        <v>10.7655015278421</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>76.95731710129262</v>
+        <v>73.37980177519236</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>81.4763844374948</v>
+        <v>75.33440512730498</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>96.04708938736171</v>
+        <v>96.28155450823976</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>96.83985446543032</v>
+        <v>90.76772602693131</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>103.1143366403703</v>
+        <v>95.17207754192816</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>42.59751381452586</v>
+        <v>41.72580722919798</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>94.43402045258178</v>
+        <v>89.19918562643676</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>98.46748980110455</v>
+        <v>92.77365269780418</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>18.10952670604697</v>
+        <v>20.88865743879259</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>40.07052637438544</v>
+        <v>39.20882796203136</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>44.42336055653958</v>
+        <v>44.02705570465628</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>4.168675807369347</v>
+        <v>6.157849906475633</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>42.66064767234436</v>
+        <v>36.97234834729431</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>46.18913979368611</v>
+        <v>46.62156080009717</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>10.30617585871727</v>
+        <v>6.806729979967503</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.50296807682437</v>
+        <v>59.90395505282223</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>64.86068942570444</v>
+        <v>62.88098861033342</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>71.47741215703121</v>
+        <v>68.25009569695757</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>80.02501956199345</v>
+        <v>73.20357984730558</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>81.44286956848498</v>
+        <v>75.11545618168165</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>22.63972138898367</v>
+        <v>13.82808044538668</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>71.50701466939785</v>
+        <v>68.85342789778321</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>73.74996554646521</v>
+        <v>71.85793286590348</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.39227531557232</v>
+        <v>16.90864748344985</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>39.21685008894055</v>
+        <v>37.63785813374782</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>41.78167117758619</v>
+        <v>39.15550710140489</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-1.240445466597386</v>
+        <v>4.764075502361305</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.38473459629666</v>
+        <v>35.91025544040692</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>41.53200249947683</v>
+        <v>40.05799632705977</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>5.02978593903638</v>
+        <v>5.639864461578522</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>57.63576708717335</v>
+        <v>57.18091145019372</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>64.17903104086312</v>
+        <v>62.91857926175739</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>58.30167131113942</v>
+        <v>56.11400103499572</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>64.80215986184213</v>
+        <v>63.28432498438965</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>65.98837596436924</v>
+        <v>62.95608189948181</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>12.23841121324833</v>
+        <v>11.77407177939114</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>65.45916106651694</v>
+        <v>54.22624631274232</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>70.27354917063474</v>
+        <v>66.71833461107596</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>14.70763311693329</v>
+        <v>16.9054253460511</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44.52785362536081</v>
+        <v>41.33796120521015</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>48.66531700881778</v>
+        <v>44.03044056172611</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>2.519078377757957</v>
+        <v>3.48448967872762</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>50.02929396165256</v>
+        <v>45.88112169612789</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>54.11408849545243</v>
+        <v>49.57743882486881</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>6.246171351553375</v>
+        <v>4.074369466224333</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>70.56155765001202</v>
+        <v>67.06013392697935</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>76.98494597050197</v>
+        <v>73.89096134498567</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>85.9482373683296</v>
+        <v>80.76891339712789</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>92.75407857921471</v>
+        <v>84.40069928402932</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>98.34374416094575</v>
+        <v>90.32257275703256</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>22.40117825678659</v>
+        <v>5.828606348331121</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>87.35630857433161</v>
+        <v>79.0297693614263</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>93.57391973663876</v>
+        <v>84.02708272707159</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>13.59301666993513</v>
+        <v>15.79519380502303</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>17.90113668470156</v>
+        <v>21.60048976910014</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.13898614103604</v>
+        <v>21.23461223198327</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>-0.7891464110788</v>
+        <v>4.231370289680509</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>19.30659821672225</v>
+        <v>22.38534888158668</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.57257202900569</v>
+        <v>23.53307345095413</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>1.947305242537638</v>
+        <v>7.15647417071628</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.48325508682231</v>
+        <v>30.17938531868086</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.487690449803</v>
+        <v>30.95887035203097</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.45375811130521</v>
+        <v>33.5767313694565</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>39.87665189569586</v>
+        <v>38.54354828438581</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.6656217880668</v>
+        <v>41.62362482664532</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.62763100460348</v>
+        <v>17.78135577108037</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.51271518396606</v>
+        <v>28.2763823901007</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.87707279013882</v>
+        <v>30.20211298157873</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>12.12800077152961</v>
+        <v>14.79702812087598</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.75045907312614</v>
+        <v>31.60379417564281</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>39.66811237507785</v>
+        <v>36.40208288697222</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1.93066588769339</v>
+        <v>7.412426554154624</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>33.39289976189312</v>
+        <v>32.35947370836371</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>44.03218523799482</v>
+        <v>41.86414058050048</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>8.333080719080753</v>
+        <v>8.699343628499452</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>51.95227272264026</v>
+        <v>52.14489895279657</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>62.97732096716057</v>
+        <v>60.79009845025219</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>54.20168404168292</v>
+        <v>51.43814285374127</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>57.9318106457774</v>
+        <v>56.30409606619956</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>66.99443589664946</v>
+        <v>63.11355109965358</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.40770376590925</v>
+        <v>14.91220279926481</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>58.63126700328475</v>
+        <v>57.54683977094529</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>67.17146163206334</v>
+        <v>62.01156984058419</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.72942309040179</v>
+        <v>23.01286282300401</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>45.19288464779611</v>
+        <v>41.70631964885561</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>52.17481071015725</v>
+        <v>47.01532144305344</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>9.42130128353319</v>
+        <v>10.30250791674196</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>47.72224327632291</v>
+        <v>43.52015826951776</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>56.52681662644399</v>
+        <v>51.85630178814997</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>18.15426544873802</v>
+        <v>17.96238165636989</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>70.50212722941194</v>
+        <v>68.96228670616051</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>79.937165407745</v>
+        <v>76.74861907012514</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>81.96314761136162</v>
+        <v>75.7663964473561</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>80.8114803932252</v>
+        <v>76.01277849748328</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>93.38043250206552</v>
+        <v>89.4780879096225</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.62147558655762</v>
+        <v>33.39717371750223</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>82.56158076455722</v>
+        <v>75.43651147383076</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>92.87061890933994</v>
+        <v>87.99265724449377</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>12.73305663372734</v>
+        <v>15.26698279016327</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>18.41852637028277</v>
+        <v>17.42526668548146</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>20.54864500126047</v>
+        <v>19.53422592006357</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-0.8769675461591362</v>
+        <v>-0.3595484807274474</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.14896939728067</v>
+        <v>21.04679149086399</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.65695309793968</v>
+        <v>22.15467975561464</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>2.985025714225493</v>
+        <v>3.067681572227595</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>36.56619921415951</v>
+        <v>26.97814591112267</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>37.27959828858217</v>
+        <v>31.89173594968265</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>44.8752620827488</v>
+        <v>42.96832939382496</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>50.57237126849398</v>
+        <v>53.97993853019156</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>54.05028276852257</v>
+        <v>61.44297587972937</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>21.33709365456126</v>
+        <v>18.65227172283942</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>42.02654169125471</v>
+        <v>32.36532434456736</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>47.47673373363237</v>
+        <v>33.45362869669633</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>6.026975420961765</v>
+        <v>7.605585028605834</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.48907584895331</v>
+        <v>15.47625827708885</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.40181349018157</v>
+        <v>32.98942641834197</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>2.166095918844981</v>
+        <v>7.47939112298295</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.80771280048825</v>
+        <v>15.96921180732531</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>46.02136482918517</v>
+        <v>59.08385055003112</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>2.165221699420204</v>
+        <v>-1.099613354013961</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>43.68539525822553</v>
+        <v>33.47130373580396</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>58.74340843003383</v>
+        <v>60.08507833962958</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>47.6208048269643</v>
+        <v>39.21579959083964</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>56.5201893101309</v>
+        <v>53.66709590426533</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>64.91619004192003</v>
+        <v>65.30643850200019</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>12.85516224900714</v>
+        <v>9.86604694011416</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>55.41499011858445</v>
+        <v>51.8616829637463</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>66.32870904680311</v>
+        <v>66.89059763732948</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>12.73853918144546</v>
+        <v>22.03590124101256</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>32.35836328279989</v>
+        <v>31.57132730253642</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.9438417596819</v>
+        <v>41.69142974648162</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>4.297305870305504</v>
+        <v>7.936238785629641</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>38.98634458309152</v>
+        <v>20.00769491307681</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>49.55568732492472</v>
+        <v>46.42625531102118</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>5.281631740582664</v>
+        <v>5.0435039719376</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>55.19105681280779</v>
+        <v>50.2898252254824</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>66.55748914591534</v>
+        <v>68.49440673226775</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>78.81744418031968</v>
+        <v>76.49079269755822</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>79.28301186184717</v>
+        <v>74.50423233555364</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>88.73399068795142</v>
+        <v>87.54654934857984</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>25.15595377877492</v>
+        <v>18.85647114701629</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>72.76846086274745</v>
+        <v>58.55514367185476</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>83.3880179685724</v>
+        <v>83.8997612852398</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>21.9152028285341</v>
+        <v>23.94994499584556</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>35.4130319620977</v>
+        <v>36.07821819059255</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.52933244690195</v>
+        <v>39.39124269813414</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>7.47219468194449</v>
+        <v>8.361758664136609</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>50.24950277569172</v>
+        <v>50.49165022558972</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>51.72473494223848</v>
+        <v>50.47773580140159</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>14.49050593867395</v>
+        <v>14.4149249497038</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>65.11224438762321</v>
+        <v>66.12742769090929</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>65.7324912380661</v>
+        <v>63.66860370285966</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>65.13159934582168</v>
+        <v>65.73443342713091</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>74.38357192365555</v>
+        <v>72.45045054772395</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>75.49334319438138</v>
+        <v>73.96983756123967</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>43.85955884874145</v>
+        <v>40.6674224773207</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>66.29520679673091</v>
+        <v>60.49845196595336</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>77.83380044844463</v>
+        <v>79.40314312089933</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>24.42571794832297</v>
+        <v>28.35233132019113</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>42.93845283474363</v>
+        <v>42.8533839928193</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>44.75984146428228</v>
+        <v>43.80126484493861</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>5.57537585392058</v>
+        <v>7.825312789600993</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>42.48243012172449</v>
+        <v>38.55459079520881</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>45.36698384342336</v>
+        <v>41.29798364985258</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.322330245147098</v>
+        <v>9.720985230463135</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>60.45078951467409</v>
+        <v>58.9074511607943</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>63.98545453951688</v>
+        <v>60.58863762201573</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>62.1378669472948</v>
+        <v>59.77036511411164</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>66.7606947755761</v>
+        <v>65.10899841745166</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>67.82113337764012</v>
+        <v>64.61306376319865</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>31.06702260672993</v>
+        <v>31.06421971428925</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>72.01063081788871</v>
+        <v>68.68098782350785</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>73.54607404458886</v>
+        <v>67.89398282429167</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>23.7174799888309</v>
+        <v>27.75297560583518</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>46.84230936918296</v>
+        <v>45.52416146227582</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>48.2000935537316</v>
+        <v>47.08702483034512</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>8.083673224135479</v>
+        <v>9.380311638857677</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>53.80454561339078</v>
+        <v>48.96300378245091</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>54.58507760634212</v>
+        <v>50.59154520443516</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>11.42520907553324</v>
+        <v>10.18337034248484</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>73.73273000369497</v>
+        <v>70.69109381101575</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>75.58064284556184</v>
+        <v>73.70346508063693</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>90.38224397351246</v>
+        <v>83.76713669317195</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>90.1064697760611</v>
+        <v>84.71658697948548</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>92.58798204304095</v>
+        <v>88.20503136461656</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>40.04944605723977</v>
+        <v>38.81477995649983</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>88.94861417269918</v>
+        <v>80.81716589602581</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>90.45897674555142</v>
+        <v>85.28429214614246</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>17.56915587035368</v>
+        <v>19.91041945859483</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.72860871024651</v>
+        <v>37.73366444154556</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>42.12483376760611</v>
+        <v>40.97217540817099</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>5.89327543196735</v>
+        <v>7.793663423445512</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>45.68936536012971</v>
+        <v>42.81616663950525</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>47.90583212368323</v>
+        <v>46.26436247974326</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>9.623298563239103</v>
+        <v>8.017767802173655</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>62.24191242745931</v>
+        <v>60.14141611692251</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>63.75599929490002</v>
+        <v>61.51640345503539</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>67.72259861094572</v>
+        <v>63.13676858462873</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>80.93430751494813</v>
+        <v>73.31916550016535</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>76.31880277733998</v>
+        <v>73.68449275094723</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>20.47826021432647</v>
+        <v>13.92821093659544</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>70.20096642864135</v>
+        <v>66.29216499584049</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>69.78778836140108</v>
+        <v>72.84210348453021</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>12.35671454262683</v>
+        <v>16.3991161302685</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>38.7760560411425</v>
+        <v>36.37511514770744</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>40.81567711546721</v>
+        <v>38.25776499118174</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-0.7215119011183759</v>
+        <v>5.834669121288936</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>39.69504813967428</v>
+        <v>36.67847781804373</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>44.32116741180084</v>
+        <v>41.82489820003755</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>6.741190980187939</v>
+        <v>7.599762955194695</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>61.6925428205097</v>
+        <v>57.79303531924523</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>68.15583264283723</v>
+        <v>66.12056728836225</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>62.00240332489601</v>
+        <v>59.73957207437064</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>68.56996672225746</v>
+        <v>66.48062956422464</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>67.41152902654119</v>
+        <v>65.2179138604391</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>12.16932477186026</v>
+        <v>13.35719703634916</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>70.82026504858428</v>
+        <v>69.41860504209008</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>72.65211146568504</v>
+        <v>68.60153375162493</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>14.80899316027464</v>
+        <v>16.58616478972624</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>44.10930628559683</v>
+        <v>39.97451563249858</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>47.27746181527154</v>
+        <v>43.24173342242673</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>2.802952229396666</v>
+        <v>6.378337462679866</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>49.94436867534752</v>
+        <v>46.58346854742397</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>53.10769698422421</v>
+        <v>50.46132641372831</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>6.098473978679497</v>
+        <v>6.594736805223306</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>69.67045786373487</v>
+        <v>65.83445657946379</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>75.6589507179655</v>
+        <v>74.30825658240447</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>83.21032198021214</v>
+        <v>77.83067957635741</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>88.24738198565716</v>
+        <v>82.29612100159179</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>94.15805205104174</v>
+        <v>90.03438611991928</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>18.63500338073915</v>
+        <v>12.44922116420157</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>81.26403495705956</v>
+        <v>74.71674275586241</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>87.13313056786453</v>
+        <v>82.17390357712434</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.508</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.124</v>
+        <v>17.607</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.872</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.279</v>
+        <v>9.917</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.977</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.022</v>
+        <v>0.954</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.48467484743021</v>
+        <v>16.48482419966265</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.26382246063395</v>
+        <v>20.03961131149944</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.36700569279364</v>
+        <v>17.7874879916921</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.039481420408038</v>
+        <v>4.235895612152746</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.40283501693258</v>
+        <v>19.3705615634414</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.13891642796281</v>
+        <v>23.5550721970744</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.218658168893171</v>
+        <v>8.113788468647062</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.11056179305578</v>
+        <v>28.35887398562602</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30.19098579451818</v>
+        <v>29.26218682877052</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.46389703289979</v>
+        <v>30.63452870337442</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39.77793799452274</v>
+        <v>37.19285933039693</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.1798163595321</v>
+        <v>37.56993539843289</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.65778422856892</v>
+        <v>12.94715779122357</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.68923144635765</v>
+        <v>27.77962599492487</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24.99222676815265</v>
+        <v>27.69395409743802</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.81228518553259</v>
+        <v>17.31599121801901</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>38.89042188478441</v>
+        <v>37.90870019685134</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>44.25614211273485</v>
+        <v>41.66982275676518</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.346931473738923</v>
+        <v>4.114966719085302</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36.09867625613965</v>
+        <v>33.86903781581903</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>51.50216306962831</v>
+        <v>46.4644078655267</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.513511863418579</v>
+        <v>5.674569123850141</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>61.984613424425</v>
+        <v>62.75527437051777</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>74.5911495995977</v>
+        <v>74.77125926460882</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>62.22183591049651</v>
+        <v>63.62368724493042</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>74.06142597176549</v>
+        <v>74.05314924921483</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>81.69943780299266</v>
+        <v>77.21971068406363</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.83919764100677</v>
+        <v>17.23009980841604</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>82.65821697957077</v>
+        <v>82.78535984488542</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>85.23968267785182</v>
+        <v>86.70526850306497</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31.80749646250088</v>
+        <v>29.69020240278548</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>51.43902347860401</v>
+        <v>49.57051927123356</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>52.86608214646508</v>
+        <v>51.12297314079127</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.84754221101748</v>
+        <v>6.789287268422587</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.59816588225851</v>
+        <v>40.59502281864285</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53.10725803399984</v>
+        <v>55.38063746447339</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>16.8424858611748</v>
+        <v>15.58879070346656</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>81.46501947498669</v>
+        <v>82.24069321848729</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>81.54965402382425</v>
+        <v>81.06341407303168</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>93.6469683453045</v>
+        <v>88.6051205962372</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100.2288168706174</v>
+        <v>93.82057349691792</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>103.9242461815514</v>
+        <v>96.8070084812606</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>42.0933193170769</v>
+        <v>37.08087076017117</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>101.8832527224947</v>
+        <v>101.9799447092778</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>102.0621769309904</v>
+        <v>102.1182611016971</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.619184652519202</v>
+        <v>8.477172893556641</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>43.38898307199048</v>
+        <v>46.50086297750089</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>41.71404842046579</v>
+        <v>42.65380740880727</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.530751809329868</v>
+        <v>3.127045588018252</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>47.4322905221304</v>
+        <v>43.94753505539447</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>46.67663454420771</v>
+        <v>48.51154967248465</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.998530552628651</v>
+        <v>4.038306404772207</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>66.74421046797198</v>
+        <v>66.81790265191155</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>64.10045347888109</v>
+        <v>64.47079695772645</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>64.44015126107024</v>
+        <v>64.78865329336647</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>69.85590297021767</v>
+        <v>65.98998757873778</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>70.43596141486159</v>
+        <v>66.28603603899721</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>10.38560587102328</v>
+        <v>9.280692269897028</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>66.28197515552189</v>
+        <v>66.47418249436153</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>66.66273618921761</v>
+        <v>69.31935772345246</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.40559880762894</v>
+        <v>9.98385547451478</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>42.30149645735717</v>
+        <v>43.33999154731468</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>47.94581529439523</v>
+        <v>44.49555248237328</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4.954497831823744</v>
+        <v>2.721118584191913</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>40.65664332186798</v>
+        <v>38.40512597674855</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>49.23111989376918</v>
+        <v>46.2884657432521</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>8.319047519848443</v>
+        <v>4.510686937346946</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>65.84458845787711</v>
+        <v>66.46733704315477</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>80.30783351466374</v>
+        <v>82.09466650384617</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>64.06095500323998</v>
+        <v>65.33685615883579</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>75.85028807577868</v>
+        <v>76.02929548748025</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>78.90741309511787</v>
+        <v>80.15925622242595</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>10.39456934043524</v>
+        <v>6.760379171804974</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>75.98291733897545</v>
+        <v>78.10531063797997</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>80.60510262482958</v>
+        <v>82.50053416828651</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.87160542949984</v>
+        <v>10.22057858794972</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>48.43341745021331</v>
+        <v>50.56437127281194</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.78148336599425</v>
+        <v>49.68464387566532</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3.57797282204578</v>
+        <v>2.093780653303391</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>52.16218179672967</v>
+        <v>50.46417770276203</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>57.92985320830991</v>
+        <v>56.44045115567292</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.673419410548508</v>
+        <v>3.998368811502953</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>82.46474449785305</v>
+        <v>83.09614507102275</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>87.9291569114566</v>
+        <v>83.11309838338741</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>89.26542308875739</v>
+        <v>89.34909889326218</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>99.65198998258636</v>
+        <v>95.96453181689581</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>98.90578174090436</v>
+        <v>96.61371706005281</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10.69281942581003</v>
+        <v>7.426275956972638</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>92.79036199918995</v>
+        <v>93.80468173066757</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>93.80822936846376</v>
+        <v>94.84130505874901</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.63771134205891</v>
+        <v>39.86345396656287</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>47.27370931559347</v>
+        <v>44.12950533904055</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>48.03347383539826</v>
+        <v>44.45134089780703</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8.162818007779958</v>
+        <v>4.80338731399182</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>48.2402825468373</v>
+        <v>46.89088434388373</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>46.99636298186759</v>
+        <v>46.58534009699418</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.391736123502195</v>
+        <v>6.333930758905989</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>68.86712182324624</v>
+        <v>70.97409299145193</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>62.06174825011141</v>
+        <v>63.64884490694259</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>64.8803827301096</v>
+        <v>61.46930138839218</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>75.81818176981965</v>
+        <v>77.82301110314346</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>73.60565738888712</v>
+        <v>75.63723253779277</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.33373608934429</v>
+        <v>32.19291507920311</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>67.23982971693103</v>
+        <v>68.29227352543012</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>65.98128865390667</v>
+        <v>68.09101938109302</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.52309058004261</v>
+        <v>29.46706592183381</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>48.06302127679884</v>
+        <v>44.56448335850179</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>51.36259226580997</v>
+        <v>46.47689767872492</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>8.164870016847818</v>
+        <v>4.595220563454205</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>45.00487375301205</v>
+        <v>43.24287623816279</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>50.49087009118638</v>
+        <v>47.3189598880284</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>10.11799863813867</v>
+        <v>5.992465303681012</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>70.62347749610464</v>
+        <v>71.19797891187098</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>80.55951791667127</v>
+        <v>82.48176130580752</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>68.03330154620846</v>
+        <v>69.97908025217792</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>80.932609548724</v>
+        <v>81.40996333043813</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>80.13006645735048</v>
+        <v>81.16728492377482</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>30.01306444371259</v>
+        <v>32.13694413198071</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>79.50193772653869</v>
+        <v>78.16542382326716</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>78.93365323263211</v>
+        <v>79.97249478695178</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.94998678515665</v>
+        <v>39.16150460531307</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>55.08567491019664</v>
+        <v>51.68062404958696</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>54.39376217421973</v>
+        <v>49.57992721928507</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.891949067124195</v>
+        <v>3.988069575760697</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>57.01570885234463</v>
+        <v>53.96866461023259</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>58.96670363701465</v>
+        <v>53.42752198838394</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>11.07847993434254</v>
+        <v>7.341890655496627</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>83.84430723485617</v>
+        <v>81.46030434685048</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>85.55735142698148</v>
+        <v>78.06906743386321</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>93.67118418921157</v>
+        <v>87.70741857191436</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>97.94447595147778</v>
+        <v>90.7647023508602</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>100.1028472206203</v>
+        <v>93.19852577902424</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>38.75832973897143</v>
+        <v>41.28078281038265</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>95.98894692074094</v>
+        <v>93.72974561547744</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>94.38569356866699</v>
+        <v>91.79444488759425</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>18.34582669018356</v>
+        <v>15.95158470353729</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.67532673138527</v>
+        <v>20.83124202897366</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.22203007826042</v>
+        <v>19.61396304125083</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.105394338985427</v>
+        <v>3.513630745305313</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.20108429090441</v>
+        <v>20.1596987369901</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.7290980622201</v>
+        <v>23.1679647193845</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.16608047808478</v>
+        <v>7.82292164742573</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.9407863427799</v>
+        <v>29.45669621986041</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.38107987576289</v>
+        <v>29.565311757971</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.03091592236162</v>
+        <v>33.07754556642249</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.78999884666493</v>
+        <v>36.02121607819798</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>47.35899092214802</v>
+        <v>41.23624125369422</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>65.95208629993954</v>
+        <v>65.02886898018571</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>69.98700740905083</v>
+        <v>69.82922210930124</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>64.29773028668089</v>
+        <v>66.27374604523982</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>17.17086823338254</v>
+        <v>13.48799028851507</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>41.29322565835458</v>
+        <v>43.0957689950381</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>45.66130410356504</v>
+        <v>45.42670064022033</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>7.632342220454397</v>
+        <v>4.524841705640647</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>43.78454563723507</v>
+        <v>46.17214810651843</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>55.70433276567069</v>
+        <v>58.42534039033359</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>16.07823307494427</v>
+        <v>17.66248296913187</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>68.99837256855108</v>
+        <v>70.10729467839637</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>79.02343353411561</v>
+        <v>80.54946821783788</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>62.49992165197516</v>
+        <v>63.54806804933858</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>73.72736817435067</v>
+        <v>74.08181289108173</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>77.97438633369552</v>
+        <v>79.0694950646372</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.46553644448588</v>
+        <v>15.47275332559093</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>76.09779601568385</v>
+        <v>77.27991174711489</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>82.5980140131588</v>
+        <v>83.70210832352446</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.4278179688392</v>
+        <v>26.9862514899903</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>49.7157862115557</v>
+        <v>52.09913551197777</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>51.23154123541415</v>
+        <v>52.24514959821347</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.78308906753056</v>
+        <v>7.544578857433006</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>48.13404906143414</v>
+        <v>50.0406054836826</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>56.40598862650859</v>
+        <v>58.77633231064098</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>18.80484633896926</v>
+        <v>18.2153750108489</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>78.12248456851928</v>
+        <v>78.85352077508243</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>84.31571256069354</v>
+        <v>82.81519816280914</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>85.96789019334159</v>
+        <v>85.53865707664043</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>88.72993849921036</v>
+        <v>90.18952911730641</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>98.95265391679963</v>
+        <v>98.98549108309942</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>43.57519316640597</v>
+        <v>39.86802816527396</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>93.81341602834776</v>
+        <v>93.99144229699853</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>97.75533492577956</v>
+        <v>94.72886179348167</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.92832551671551</v>
+        <v>32.67663514216604</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>50.57022228412931</v>
+        <v>53.76978846923723</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>45.65539143416716</v>
+        <v>47.05437034051695</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>9.183406376526122</v>
+        <v>4.979333016368187</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>51.17866750973958</v>
+        <v>54.34488054598509</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>53.93473572427385</v>
+        <v>57.025451245059</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.75893455937936</v>
+        <v>7.559113232902057</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>80.26186978918815</v>
+        <v>81.73009943893217</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>68.07970404310905</v>
+        <v>69.49342260192857</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>62.22190824651319</v>
+        <v>60.04050477861976</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>77.04207028254433</v>
+        <v>78.35230583032283</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>79.56239071313573</v>
+        <v>80.59553515770823</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>21.95762137910839</v>
+        <v>18.53069202487463</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>6.974742838469563</v>
+        <v>3.250845697876155</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>6.795477502815924</v>
+        <v>3.147273101635676</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.27069813531703</v>
+        <v>37.94100262933096</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>51.61871537786757</v>
+        <v>52.74949483387469</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>49.58927836995194</v>
+        <v>48.97711715053477</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.05775794526507</v>
+        <v>4.887791333040031</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>47.30467319654626</v>
+        <v>47.25360003429</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>53.76758118311236</v>
+        <v>52.41458526443449</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>14.45160742646741</v>
+        <v>14.7159977508282</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>78.3837987318341</v>
+        <v>77.70718227367601</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>79.88747466467063</v>
+        <v>80.70681523052951</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>76.2200167545945</v>
+        <v>78.58720691630666</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>85.77531540385988</v>
+        <v>82.29335960941326</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>86.78522559436703</v>
+        <v>86.09168879564606</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>44.96164960987615</v>
+        <v>48.62740583362763</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>86.03600623173719</v>
+        <v>86.42656377997341</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>39.06879352205382</v>
+        <v>42.29423033673887</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>57.07176952421435</v>
+        <v>52.93067512821801</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>56.0873162957891</v>
+        <v>50.91072456364667</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>8.903903060400548</v>
+        <v>5.392520516225236</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>51.20401772718786</v>
+        <v>54.33227832530353</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>56.43325982811203</v>
+        <v>53.11790167745562</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12.38827330218871</v>
+        <v>9.408503487734649</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>82.32394997550333</v>
+        <v>84.02878870610999</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>87.65127719989326</v>
+        <v>79.49671921697124</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>94.88939299511914</v>
+        <v>88.69330280961675</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>98.07008300649667</v>
+        <v>91.37355692382256</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>101.4363274230949</v>
+        <v>94.43469627115761</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>59.39920607087588</v>
+        <v>62.47085552049261</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>101.7520794925897</v>
+        <v>97.72099329057242</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>102.6110178488894</v>
+        <v>94.1809872465286</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.28782097657151</v>
+        <v>29.25091935663099</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>42.28144160656147</v>
+        <v>45.0157681506298</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>43.53276834208469</v>
+        <v>42.52602693258267</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>7.95988016805914</v>
+        <v>4.37463202262493</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>46.23396276322987</v>
+        <v>46.70352728150641</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>47.54899339278346</v>
+        <v>49.838747926015</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>10.3275868139896</v>
+        <v>6.83595565220217</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>71.69373656276787</v>
+        <v>73.14833314726927</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>65.80970182995816</v>
+        <v>65.72338084162351</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>60.11980165402975</v>
+        <v>62.11403489498457</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>69.06469727052988</v>
+        <v>70.76919442380697</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>71.11755834432384</v>
+        <v>72.56400297385004</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>14.68565781725088</v>
+        <v>18.66470226336102</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>5.899436810033745</v>
+        <v>2.174929633467997</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5.154364168863527</v>
+        <v>1.560758077885527</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.68748646457989</v>
+        <v>31.10968928952336</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>54.05723615638533</v>
+        <v>51.37480088040636</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>53.27089683704539</v>
+        <v>51.64231880495707</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>7.684736808185242</v>
+        <v>4.408203669244646</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>49.69716099772798</v>
+        <v>45.57222085149676</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>50.46045121062591</v>
+        <v>52.2698381514286</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>9.986388173887821</v>
+        <v>6.508951849123157</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>76.44101688900803</v>
+        <v>77.76650184838229</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>78.5442509578474</v>
+        <v>80.17591947853012</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.11592203285628</v>
+        <v>70.50693807768322</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>81.92485449568299</v>
+        <v>81.59036733633553</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>84.4470465346044</v>
+        <v>85.41914785070205</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>31.65993421573965</v>
+        <v>30.99033960594297</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>83.71116346046708</v>
+        <v>85.52085479610052</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>84.6941101025887</v>
+        <v>86.54509498601502</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.153457762491</v>
+        <v>31.8057031212767</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>53.81185395869281</v>
+        <v>51.56360632476352</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>54.36367329703171</v>
+        <v>53.40210584689699</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>8.412503319775773</v>
+        <v>4.885739052781371</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>52.51643181381888</v>
+        <v>48.945359079718</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>56.32607647200271</v>
+        <v>51.82268406652577</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.27672131983103</v>
+        <v>7.076981940828404</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>79.13233603988121</v>
+        <v>79.1600963823727</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>81.35992343203502</v>
+        <v>76.62139793819776</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>84.36525893383902</v>
+        <v>86.04229062357265</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>91.20792577751538</v>
+        <v>88.94097220110152</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>93.62477538127494</v>
+        <v>88.85905546671577</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.4568378298722</v>
+        <v>31.18811486675096</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>92.48585188415694</v>
+        <v>93.19973294676544</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>90.80009800478481</v>
+        <v>92.21919565230036</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>12.62943034373918</v>
+        <v>10.73324378447024</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>14.42680675708477</v>
+        <v>12.87011223637426</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>16.1511645324024</v>
+        <v>12.58869789164813</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.359235757839695</v>
+        <v>5.503924389660046</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>19.34625403336371</v>
+        <v>17.23505641196935</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.4111202091479</v>
+        <v>19.51016865677618</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>2.212001734586643</v>
+        <v>5.124185033192745</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.64080001084248</v>
+        <v>20.78892664166044</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.24496821792305</v>
+        <v>21.41139782927079</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>30.65282483810638</v>
+        <v>29.96069255357425</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>40.06856093834867</v>
+        <v>37.31938897203974</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>38.58211559326551</v>
+        <v>39.59927139826442</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.74913063645146</v>
+        <v>12.78874516059928</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.94795745833763</v>
+        <v>22.43778992271768</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.40650741553579</v>
+        <v>21.79239769765947</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>15.39561059252856</v>
+        <v>11.38694406543533</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>32.5538687163596</v>
+        <v>30.13491715410088</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>38.25091097268823</v>
+        <v>36.23373591833869</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>5.285921622713413</v>
+        <v>4.084591882229351</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>30.71081797514824</v>
+        <v>33.85199182677415</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>40.93575570347413</v>
+        <v>43.21994780831606</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>7.846284350104813</v>
+        <v>4.357871485462056</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>49.28297988395903</v>
+        <v>50.48514386264839</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>59.68012161458826</v>
+        <v>58.21735053271121</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.40899345501401</v>
+        <v>51.12497039523992</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>57.67238095717416</v>
+        <v>58.57050004244837</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>61.71952072865923</v>
+        <v>59.3414770372332</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.91993195490159</v>
+        <v>13.6716974043875</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>59.53847043844614</v>
+        <v>56.38842776118969</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>62.00306679075519</v>
+        <v>56.60497012354449</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.76520042013905</v>
+        <v>22.39955465143762</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>40.43558785152753</v>
+        <v>37.40956091689191</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>45.99952695358174</v>
+        <v>46.98853469646174</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>9.109998361916865</v>
+        <v>4.878623788841413</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.88050244676434</v>
+        <v>47.87080133983521</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>53.9665327682149</v>
+        <v>56.20983473748951</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>13.1686137316342</v>
+        <v>8.781914697266274</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>68.94105090678983</v>
+        <v>71.12650328007589</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>72.45732203541864</v>
+        <v>70.27710953407046</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>79.83377066790388</v>
+        <v>74.50620279431998</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>88.16545555735243</v>
+        <v>82.19418647218664</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>89.36802743679041</v>
+        <v>81.39114243884624</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>36.72961996896917</v>
+        <v>37.83349407375241</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>85.36631311716148</v>
+        <v>85.43433645729975</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>90.64950513084531</v>
+        <v>90.04576000328504</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>13.5001096670858</v>
+        <v>12.25529759171275</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>17.81269910962993</v>
+        <v>14.59199886654943</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>15.44061356785262</v>
+        <v>12.19326677784382</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>-1.484605352913285</v>
+        <v>2.492303711763508</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>17.76512007300743</v>
+        <v>15.91331667670432</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>20.43721345144177</v>
+        <v>19.7377010050057</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-0.25788435284759</v>
+        <v>5.678981249449485</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.6655681920678</v>
+        <v>16.55794354464261</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>18.32153110527599</v>
+        <v>16.54012966257407</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.03654243335527</v>
+        <v>20.9319682138741</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.18756926146406</v>
+        <v>22.28396194249528</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>24.63142445921073</v>
+        <v>19.87498870678175</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>12.52068981883194</v>
+        <v>13.72742495000876</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>15.37628759663951</v>
+        <v>15.91354216765653</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>8.952704142297019</v>
+        <v>12.87226844964259</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5.240577203712654</v>
+        <v>3.70823178068359</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>10.94492095105853</v>
+        <v>8.831044899916272</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>14.18138114985817</v>
+        <v>10.18397333184322</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>-4.095169676691839</v>
+        <v>1.658066479726585</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>11.65506153340198</v>
+        <v>10.42566904824758</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>18.02776019662059</v>
+        <v>17.68026342762718</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-4.044861146915402</v>
+        <v>1.657702195956301</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>19.53637269686654</v>
+        <v>15.93266484204559</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.68059518706448</v>
+        <v>31.27285651364791</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>12.80321996595186</v>
+        <v>10.9185498449705</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>36.30271936674173</v>
+        <v>32.29257939973272</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>44.186196019372</v>
+        <v>46.13636088038785</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>0.7784566037791976</v>
+        <v>3.416939085995555</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.15471374082897</v>
+        <v>21.12991157335635</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>20.6648680467821</v>
+        <v>15.97937239051122</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>6.212829666291558</v>
+        <v>4.378303079337261</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>17.91439137648179</v>
+        <v>14.98923678326129</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.66573135316112</v>
+        <v>36.35112346820399</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-3.020181197722628</v>
+        <v>1.657627706388471</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>20.78481888966787</v>
+        <v>17.20703392745986</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>40.7830282598196</v>
+        <v>39.7027267995491</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-2.093833021095399</v>
+        <v>1.975531142974873</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>33.09936236188422</v>
+        <v>27.50988546965061</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>71.18798773180168</v>
+        <v>72.80100222471152</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>22.87370616447289</v>
+        <v>17.87082748863333</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>58.58844986678052</v>
+        <v>55.10405877718928</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>77.82346431664845</v>
+        <v>79.56408477680368</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>6.157971971409957</v>
+        <v>3.734529508225901</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>44.72793390075136</v>
+        <v>45.59284993165003</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>56.97840745448192</v>
+        <v>51.52072320260829</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>19.82780507553507</v>
+        <v>20.13909445918815</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>27.09536750503002</v>
+        <v>23.52389124255181</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>38.74573552447052</v>
+        <v>36.44576121295417</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>7.559209831524466</v>
+        <v>5.259445723871476</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>50.57965052151698</v>
+        <v>45.45707958106728</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>50.15874671526096</v>
+        <v>45.8059105788568</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>8.862366328909552</v>
+        <v>13.25159512735978</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>68.38858670065775</v>
+        <v>67.65730728806346</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>67.76211974081464</v>
+        <v>65.14266311546668</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>68.45599772504055</v>
+        <v>66.26804460284545</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>77.66448719393074</v>
+        <v>79.08974274267204</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>73.83928179728606</v>
+        <v>74.57725212587835</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>45.50687599624431</v>
+        <v>47.82824237333753</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>68.05320492563048</v>
+        <v>69.7568151000257</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>78.14880859700747</v>
+        <v>73.26792545800546</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>21.73557450197036</v>
+        <v>26.52251534356981</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>39.90497717476725</v>
+        <v>35.56526184450296</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>42.77772681286463</v>
+        <v>38.27632199700996</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>6.630306654163288</v>
+        <v>4.916028424872071</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>38.88892631260097</v>
+        <v>39.727798395238</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>41.70482755067991</v>
+        <v>41.06160031253984</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>9.44665825079483</v>
+        <v>7.768688155258332</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>61.58702292446918</v>
+        <v>59.22442647308215</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>67.47782549782096</v>
+        <v>61.57389100874708</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>59.06437545470069</v>
+        <v>55.64312844675744</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>67.04429938669674</v>
+        <v>62.63932846053309</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>67.07790367958415</v>
+        <v>60.92619916478446</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>32.10606650022347</v>
+        <v>35.33182960282502</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>71.6772061227224</v>
+        <v>65.61890186694824</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>69.6270849861268</v>
+        <v>63.41741043243495</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>23.56147608081147</v>
+        <v>27.14783850130626</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>41.27607170503653</v>
+        <v>36.75781942449402</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.41932037090605</v>
+        <v>44.70391456566092</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.707240298750733</v>
+        <v>5.360433846796102</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>49.41910550228985</v>
+        <v>52.77926147098385</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.5310224258311</v>
+        <v>52.98657973651393</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>11.15966116413355</v>
+        <v>8.565406202325036</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>74.77779735347224</v>
+        <v>73.65534173501928</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>77.18792955764144</v>
+        <v>72.37462101633216</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>80.35778553538917</v>
+        <v>77.41774631777049</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>86.99653688888165</v>
+        <v>81.50797112442723</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>87.00905815972968</v>
+        <v>81.75877219076595</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38.76698539630837</v>
+        <v>41.73848777916051</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>87.35047862536442</v>
+        <v>82.31291427364951</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>87.86746160521486</v>
+        <v>85.09767228065107</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>6.453488476883784</v>
+        <v>9.050002974614312</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>15.20993467545818</v>
+        <v>12.55284661010599</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.63143867444583</v>
+        <v>13.0402431347155</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>0.1132198708749819</v>
+        <v>3.592579147895357</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>14.67875797317783</v>
+        <v>12.03459722245114</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>17.78169430954978</v>
+        <v>16.17916013838285</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>0.6163391917126582</v>
+        <v>4.739155221981484</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.67059919444569</v>
+        <v>18.68149336644627</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.67982357066666</v>
+        <v>20.13742249416037</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.8294055886415</v>
+        <v>20.52755092946725</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.53079526952037</v>
+        <v>25.04343048867301</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.45971602198736</v>
+        <v>27.73502188260559</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>3.925492386812788</v>
+        <v>9.002317509981829</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>22.06912910760643</v>
+        <v>18.02270179880652</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.09856725648026</v>
+        <v>19.38405420424217</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>9.136170879435571</v>
+        <v>6.221519082647784</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.77433635730334</v>
+        <v>24.177699747285</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>31.24208191433816</v>
+        <v>29.78206839478121</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>4.819207131260661</v>
+        <v>3.73475491352637</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.97114809518852</v>
+        <v>27.11830283176218</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>34.08892942653928</v>
+        <v>36.53597998230106</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>6.379427957672135</v>
+        <v>4.155946115839019</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>41.63338398398572</v>
+        <v>44.42550959365212</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>50.05972388102423</v>
+        <v>52.03854650254517</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>39.59855090351229</v>
+        <v>36.39596833820485</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>45.79416764515736</v>
+        <v>47.36893350572912</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>50.59768176702933</v>
+        <v>51.83298397267065</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.886297390252139</v>
+        <v>6.519642574375951</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>46.71527482788926</v>
+        <v>44.8125580265717</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>51.377717215882</v>
+        <v>50.05799156514133</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>19.40820306249626</v>
+        <v>16.11002285262488</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>37.12331211078915</v>
+        <v>33.55730819989806</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>42.73290222137317</v>
+        <v>45.3898189327338</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>11.97076132108278</v>
+        <v>8.221931316862054</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.45631257794963</v>
+        <v>34.18880502611683</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>48.14726707613664</v>
+        <v>45.93062677124411</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.37902757418954</v>
+        <v>16.40898109464517</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>60.17164659192318</v>
+        <v>57.46722832862574</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>69.41380767887549</v>
+        <v>66.47936562506099</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>68.9142595800206</v>
+        <v>62.91289967131355</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>76.75096070572224</v>
+        <v>77.37577534282072</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>86.61202153498338</v>
+        <v>87.88755887164098</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.16468597869337</v>
+        <v>27.20711999839132</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>72.00302442410802</v>
+        <v>71.865189101092</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>78.76551748036403</v>
+        <v>79.79130826533282</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>4.97665004278122</v>
+        <v>3.73496127416178</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>6.099634192397179</v>
+        <v>4.051259973210747</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>7.05818129382595</v>
+        <v>5.626604167586216</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-3.087147923978549</v>
+        <v>1.657260757833441</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>8.548412733982506</v>
+        <v>4.803449258853689</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.40403496253162</v>
+        <v>8.141356334742898</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-3.452905973256662</v>
+        <v>1.881593968443759</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.707701647207685</v>
+        <v>5.374279523771584</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>11.30623593082572</v>
+        <v>8.647110331843809</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.53439784281646</v>
+        <v>7.186668883477846</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>15.15668032971091</v>
+        <v>11.14369702229301</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>20.07305074660712</v>
+        <v>15.21481338612791</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>-1.338695903520577</v>
+        <v>2.912584688202323</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.199882631102088</v>
+        <v>4.09805440371359</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.468686720474036</v>
+        <v>7.497061550079582</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>20.33649516033704</v>
+        <v>22.87226204170877</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>37.86924386962173</v>
+        <v>36.64419459538407</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>40.50929914897086</v>
+        <v>36.1893868112586</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>6.63216675906629</v>
+        <v>4.505509144643739</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.99786678939508</v>
+        <v>38.26005041932815</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>41.023228520979</v>
+        <v>40.96356598598538</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>8.906645345684218</v>
+        <v>5.655938221614733</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>56.09938804738815</v>
+        <v>55.59425666952424</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>65.01151728583184</v>
+        <v>59.8768094950269</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>55.66807493899775</v>
+        <v>58.51256187628748</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>63.48611537802027</v>
+        <v>57.6429443384909</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>64.94427502329489</v>
+        <v>60.61270210290368</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>22.09039705664705</v>
+        <v>25.24206856706985</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>64.06180675145677</v>
+        <v>61.0672915168102</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>64.07596052169302</v>
+        <v>61.62191907527284</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>27.30937337077455</v>
+        <v>27.62266221239084</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>47.00844981275625</v>
+        <v>41.39724986947986</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>49.34696574689858</v>
+        <v>48.17843060889764</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>9.058952546176631</v>
+        <v>4.823244581391503</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>52.21968214375342</v>
+        <v>54.57655148291693</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>56.24825074660879</v>
+        <v>58.25593865256207</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>10.55036104178239</v>
+        <v>6.405768765513869</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>74.26312358579722</v>
+        <v>76.1762309052599</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>77.01300185123</v>
+        <v>73.60192757938654</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>83.9114642891093</v>
+        <v>83.90264608060707</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>91.46245968331087</v>
+        <v>87.38384159235954</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>91.07692559387985</v>
+        <v>88.66033739731434</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>30.41478071166263</v>
+        <v>31.13986327115151</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>89.15177690053181</v>
+        <v>90.00674192437936</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>84.02419152048607</v>
+        <v>85.21836171800211</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>13.93812898567428</v>
+        <v>14.31173575087808</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.07361586525828</v>
+        <v>17.35533746170241</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>19.40820949011269</v>
+        <v>17.71370338144209</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-0.1148855690094202</v>
+        <v>3.665889879122769</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>18.84279013714879</v>
+        <v>17.66329677083966</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>18.75610812965943</v>
+        <v>20.63649748558495</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>2.541018065367826</v>
+        <v>6.04802284447565</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.06433931545322</v>
+        <v>22.91780270631535</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.02545757672123</v>
+        <v>24.37836234489701</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.67147803565228</v>
+        <v>24.04401905404339</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.60603718045753</v>
+        <v>33.2209123373835</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.40000365778502</v>
+        <v>32.55301487996442</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>11.8938295606668</v>
+        <v>11.938226363986</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>27.90437101868145</v>
+        <v>23.79831526480425</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.42590583248125</v>
+        <v>25.5325070819888</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>6.14856998314216</v>
+        <v>3.669931229469647</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>15.14703923992632</v>
+        <v>11.54046354721095</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>24.29206339814205</v>
+        <v>22.86738137007103</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>-2.361194912047473</v>
+        <v>1.828055225028145</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>12.61694545366174</v>
+        <v>10.15932784751399</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.33417372536769</v>
+        <v>26.67059544251778</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-1.432064766548244</v>
+        <v>1.974790443514333</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>21.2110488039756</v>
+        <v>16.94876393536842</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>40.52115217001592</v>
+        <v>43.14661470865423</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>17.38597677554679</v>
+        <v>14.10941849197623</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.93295856165614</v>
+        <v>31.41734826510862</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.49746032457609</v>
+        <v>40.71887844706826</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>5.249079008885136</v>
+        <v>3.505214718477113</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.17064153570102</v>
+        <v>30.0750742338506</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.70400264157298</v>
+        <v>39.00004608676434</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>21.05725802703234</v>
+        <v>21.68191678913653</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>32.83366658738694</v>
+        <v>28.57296774437172</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.4105938163879</v>
+        <v>40.91087385272047</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>4.404385282770598</v>
+        <v>5.470588606221103</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.43894293814797</v>
+        <v>26.3554392433856</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>37.76469456397247</v>
+        <v>36.11749497927004</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>10.34782933602467</v>
+        <v>13.89043024752124</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>51.79523101288864</v>
+        <v>47.32183624442821</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>59.18186398311491</v>
+        <v>60.53227730175676</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>57.0969427081589</v>
+        <v>52.05304498890548</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>65.80584311264369</v>
+        <v>62.00488757539921</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>68.84992881851093</v>
+        <v>71.07362214138963</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>33.42223628967052</v>
+        <v>36.63506931175617</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>60.68409828567166</v>
+        <v>57.21817544070108</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>63.54000179305584</v>
+        <v>60.46652440151517</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.146546574236904</v>
+        <v>4.641680755175237</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>8.845269525362013</v>
+        <v>7.763034041465165</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>6.720542041291033</v>
+        <v>7.530980565051529</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-3.354986124199787</v>
+        <v>2.025635090022508</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>6.550719893985924</v>
+        <v>6.906160243165829</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>7.667542450031547</v>
+        <v>8.179113531277704</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-3.365313358311539</v>
+        <v>2.009462063973295</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.49149974348235</v>
+        <v>8.360954912436867</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>5.967877171182224</v>
+        <v>10.64339174621497</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>10.41453433492465</v>
+        <v>7.07583524937484</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>11.04561519139439</v>
+        <v>8.039711835205285</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>14.60832513476619</v>
+        <v>12.85076570967054</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.645337583473612</v>
+        <v>3.442109228637548</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.03378310742646</v>
+        <v>6.838940579080187</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.01627453350742</v>
+        <v>8.960610087090462</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>2.365515133982264</v>
+        <v>3.558668123622471</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.333522288516463</v>
+        <v>5.422565769833664</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>9.102152302691081</v>
+        <v>6.77716636543613</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-3.371974450079264</v>
+        <v>1.657807584882413</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>5.796099994280354</v>
+        <v>4.703006307590325</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.36703918525265</v>
+        <v>6.373134189734341</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-3.077611126585776</v>
+        <v>2.113877343643914</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.788354287541893</v>
+        <v>5.771245988616386</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>14.60915130710085</v>
+        <v>10.0740203351405</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>7.372618999717965</v>
+        <v>5.407237628880381</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>10.68776825843239</v>
+        <v>8.745381998162159</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>13.36816305651622</v>
+        <v>10.69993433069298</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-3.182432381331871</v>
+        <v>1.657755003912037</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>10.48576161905459</v>
+        <v>6.208449130578611</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>12.2583293586364</v>
+        <v>7.846585806231904</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>19.78731859215544</v>
+        <v>22.2979596345962</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.16542296431852</v>
+        <v>23.67611651040949</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.8794517600089</v>
+        <v>25.63628117498013</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>4.741728621847979</v>
+        <v>6.081092553446414</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.36154292688247</v>
+        <v>19.89326572430722</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.3004991845706</v>
+        <v>23.1149037836889</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>10.31275039371218</v>
+        <v>15.01366525785032</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.08999832076604</v>
+        <v>31.53649944252853</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>39.26998665842765</v>
+        <v>33.83746942941664</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>45.04791429854534</v>
+        <v>43.21395765676677</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>46.30557681423764</v>
+        <v>47.02701000852006</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>49.34524988047048</v>
+        <v>51.36790240756322</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.8151660060547</v>
+        <v>30.75459857806224</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>39.61514207306045</v>
+        <v>33.66545553067257</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>43.42518801790804</v>
+        <v>37.64501975516999</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.57277880782723</v>
+        <v>19.9716581865633</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.4162341170349</v>
+        <v>31.84433328769637</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>34.92048148243635</v>
+        <v>37.09438424288691</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>5.082991357592704</v>
+        <v>4.497871996519308</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>32.20724432265714</v>
+        <v>28.51041716742471</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>34.98521482930087</v>
+        <v>30.57829748677507</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>10.15446179932959</v>
+        <v>7.649649083258211</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>45.9967593591347</v>
+        <v>48.47266625071578</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>47.61684241944272</v>
+        <v>49.73515094437508</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>49.81512190705355</v>
+        <v>50.70255483155761</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>60.42584031931884</v>
+        <v>60.86112520232453</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>64.07070098825932</v>
+        <v>64.00745315368182</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>37.64973819870951</v>
+        <v>35.56626877745739</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>59.47612846294879</v>
+        <v>62.34206233418216</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>65.92956866284665</v>
+        <v>68.42062868058274</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>14.07543885228387</v>
+        <v>17.58249240138591</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.96951834394215</v>
+        <v>27.77835533588189</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.16969246853054</v>
+        <v>31.03384226628324</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-1.451890499529693</v>
+        <v>2.443641617528122</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>20.03016882026217</v>
+        <v>17.63111018741445</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.11621628022896</v>
+        <v>22.01865443705324</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>0.5436437610078109</v>
+        <v>5.176632973688687</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>40.25098743722058</v>
+        <v>36.07634569294963</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>44.22055099228858</v>
+        <v>37.75889797127101</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.0382664489216</v>
+        <v>38.76822182047878</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>50.50082764384012</v>
+        <v>47.5570446042471</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>51.11852659507421</v>
+        <v>45.92907019482669</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.48992038481038</v>
+        <v>26.88841607832468</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>56.66886429153303</v>
+        <v>51.48795408660148</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>58.61702917045881</v>
+        <v>53.38341674003553</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.88961816217234</v>
+        <v>27.25689157722642</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>42.86507650081201</v>
+        <v>37.70274459822429</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>48.04536714252606</v>
+        <v>48.03748662863212</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>8.5967309131645</v>
+        <v>5.847705715889933</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.07874600240762</v>
+        <v>36.65729366204076</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>45.37982011465792</v>
+        <v>40.76765740846602</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>13.44340694766571</v>
+        <v>11.79407707593753</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>67.50220595498506</v>
+        <v>64.80504825118551</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>72.00938539445784</v>
+        <v>64.8706411638121</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>85.32571252670178</v>
+        <v>79.88131501717091</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>86.33794144091287</v>
+        <v>83.31880811552612</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>88.53832548290902</v>
+        <v>86.38839183597358</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>43.96997386280731</v>
+        <v>45.61887070880928</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>81.50275164924811</v>
+        <v>77.00671474232828</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>88.16792999133868</v>
+        <v>80.77055848499775</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>17.73099328108294</v>
+        <v>21.02914386125553</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>39.2586228295971</v>
+        <v>34.61936067094529</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>39.83338360244719</v>
+        <v>37.86581133425961</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.13103542962461</v>
+        <v>6.461057272077124</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>45.72810473481247</v>
+        <v>42.60872673356758</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>46.05284078234028</v>
+        <v>42.78055762657709</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>11.0759597909922</v>
+        <v>11.00843942032742</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>61.44363783747791</v>
+        <v>59.27688241683095</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>61.19824495707945</v>
+        <v>61.15128564519842</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>70.52161968492626</v>
+        <v>71.03402489117737</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>75.53926051053574</v>
+        <v>71.40754663869983</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>75.45464128078066</v>
+        <v>73.83159717830316</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.88417877100884</v>
+        <v>24.48522904657835</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>69.25386548703065</v>
+        <v>70.44555825867322</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>70.37539115054813</v>
+        <v>70.7976981143872</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>16.54219148841781</v>
+        <v>19.66767232125885</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.47904837433248</v>
+        <v>34.43386985978357</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>40.94469931398392</v>
+        <v>40.68819192835907</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>7.125200522810694</v>
+        <v>4.183157929445141</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>35.35705459318181</v>
+        <v>37.0353817595588</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.80410870009187</v>
+        <v>38.33963129506252</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>8.080605238172254</v>
+        <v>4.916312202044342</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>53.20272651495939</v>
+        <v>54.36827359196681</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>63.2924437250846</v>
+        <v>65.24710444958427</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>55.02679164626682</v>
+        <v>56.88146966956933</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>63.28460590247787</v>
+        <v>63.94769797493805</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>62.50606867411528</v>
+        <v>57.01359780070932</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>17.49689685947526</v>
+        <v>20.13569798728763</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>64.5362201994009</v>
+        <v>63.90863493264648</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>67.79388543911625</v>
+        <v>69.5473692998815</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>19.07826903282923</v>
+        <v>22.85888083920852</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>42.7526058454035</v>
+        <v>39.32729485143611</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>46.42501205738938</v>
+        <v>43.62680301969114</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>7.517276193443898</v>
+        <v>4.450225515345203</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>45.26120029948304</v>
+        <v>48.19316644577557</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>51.05779012477478</v>
+        <v>46.67345845927085</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>7.90100488099619</v>
+        <v>5.242067493719176</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>64.92887151996963</v>
+        <v>67.13942705291397</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>74.33913642295519</v>
+        <v>68.75838839100351</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>80.51905417790837</v>
+        <v>80.96282589493045</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>85.35083320828733</v>
+        <v>81.15652775640451</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>91.85350556605124</v>
+        <v>85.05861364139093</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>20.95007494055156</v>
+        <v>22.69446956570548</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>78.97375897094415</v>
+        <v>79.91407866471903</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>85.81826187532641</v>
+        <v>82.43049910288758</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>24.40960014113636</v>
+        <v>27.43564890694891</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.84227321392595</v>
+        <v>32.19065347778717</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>39.60197391196617</v>
+        <v>36.49691521329505</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.254630447246537</v>
+        <v>4.790913616447757</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.33234979592893</v>
+        <v>44.29252157834981</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>49.72770926277192</v>
+        <v>43.79698324612055</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>9.254820630276935</v>
+        <v>10.11582948042836</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>67.07723595322025</v>
+        <v>60.63038573147317</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>63.80569594832651</v>
+        <v>60.3806120076878</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>66.33888716228456</v>
+        <v>61.56077736705768</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>67.17160372223719</v>
+        <v>62.39163626948707</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>71.00599630626017</v>
+        <v>65.84373840025758</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.59164266115231</v>
+        <v>44.86406176799447</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>63.23981488884206</v>
+        <v>65.1402892867617</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>72.69406996297663</v>
+        <v>69.77189394565409</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.35138313324615</v>
+        <v>28.66892690392692</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>40.08909955741797</v>
+        <v>38.89060471679999</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>41.77387149800497</v>
+        <v>37.08931556214045</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>5.550768241534904</v>
+        <v>4.202630541760104</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.10769013993153</v>
+        <v>37.3060773827869</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>43.84088864358286</v>
+        <v>38.30753400776731</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>5.99186841689561</v>
+        <v>5.504466556346859</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>61.33773381477725</v>
+        <v>56.64419891635586</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>69.11374387677201</v>
+        <v>64.39233499946467</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>60.50286546467913</v>
+        <v>62.45835481595142</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>68.19956493997645</v>
+        <v>63.45688130582134</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>69.2240522090511</v>
+        <v>63.36004701523818</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.46281241015889</v>
+        <v>30.94981842855204</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>74.80066838299444</v>
+        <v>69.09776761306881</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>76.23220243510683</v>
+        <v>70.49571246801307</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.00245546301566</v>
+        <v>31.68179211342414</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>46.66348253657728</v>
+        <v>42.52278831863462</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>47.83147002078967</v>
+        <v>43.12877765367343</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>6.464050300424596</v>
+        <v>4.813506210041851</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>45.46095503686556</v>
+        <v>48.3902469824902</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>49.78935483020457</v>
+        <v>48.76154202547634</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>6.154039033776083</v>
+        <v>6.437058119839698</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>73.77404284365922</v>
+        <v>71.82432797865273</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>76.86662993199637</v>
+        <v>69.29463521244359</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>86.09798361393277</v>
+        <v>83.48975325103942</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>90.92936711625305</v>
+        <v>84.77145826596563</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>92.84594918490336</v>
+        <v>84.37432613546603</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.93634782633623</v>
+        <v>31.70014585113334</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>88.3830149671368</v>
+        <v>81.07190512441333</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>89.36106583356462</v>
+        <v>81.05138539504831</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.72756793441903</v>
+        <v>28.40227339998569</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.40640122280345</v>
+        <v>34.67035999279223</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>39.35414717991026</v>
+        <v>38.05902724666328</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>13.95735615277257</v>
+        <v>10.88028658905461</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>62.75192093412823</v>
+        <v>64.81456148318431</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>60.14811693557448</v>
+        <v>61.80699461002926</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>13.2755327958236</v>
+        <v>10.62774687624094</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>66.5672324251594</v>
+        <v>63.45192977755211</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>66.68541991383671</v>
+        <v>60.68903776427714</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>73.36443730606655</v>
+        <v>69.63079782351944</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>76.26270391805915</v>
+        <v>70.92981413879012</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>76.46455012322902</v>
+        <v>70.97504619175876</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>53.26886862050101</v>
+        <v>54.84775590226822</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>67.84060313149942</v>
+        <v>69.08118785311628</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>72.99677014734769</v>
+        <v>74.35972543262697</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>27.06143004003367</v>
+        <v>31.57172613999006</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>35.93349671369469</v>
+        <v>38.60042715032665</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>40.25685633493929</v>
+        <v>38.50611531832678</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.39333636561597</v>
+        <v>39.04583959811042</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>53.86539871690609</v>
+        <v>56.22063518363998</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>59.52906442049421</v>
+        <v>52.95961240481236</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>10.30594928099189</v>
+        <v>7.998886590256607</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>57.79974962942373</v>
+        <v>58.67718963895815</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>64.1852859593337</v>
+        <v>61.43092367409722</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>57.60063117095065</v>
+        <v>58.97104055658417</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>65.77849014094934</v>
+        <v>61.29869511661332</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>66.00295795236408</v>
+        <v>60.13073187856547</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>32.69972820472552</v>
+        <v>36.64110329182135</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>69.9121680427746</v>
+        <v>65.04126049542849</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>74.27608803116823</v>
+        <v>68.89404790515475</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>31.6609515400139</v>
+        <v>36.18773836655788</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>46.97917642737167</v>
+        <v>42.40104947971612</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>47.34088479615421</v>
+        <v>42.50571420025763</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>37.57988681684581</v>
+        <v>40.7697902041665</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>64.42612723146979</v>
+        <v>65.51093056587139</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>64.72294413840277</v>
+        <v>58.49079388781637</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>10.7655015278421</v>
+        <v>8.106849573558488</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>73.37980177519236</v>
+        <v>71.3273731209889</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>75.33440512730498</v>
+        <v>67.89397388217479</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>96.28155450823976</v>
+        <v>89.91281336390148</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>90.76772602693131</v>
+        <v>84.26073700743129</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>95.17207754192816</v>
+        <v>86.57349316964782</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>41.72580722919798</v>
+        <v>45.10356514556504</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>89.19918562643676</v>
+        <v>83.19784225803301</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>92.77365269780418</v>
+        <v>84.68592160002125</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>20.88865743879259</v>
+        <v>17.37051164234385</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>39.20882796203136</v>
+        <v>36.22262547705228</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>44.02705570465628</v>
+        <v>38.79971375622684</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>6.157849906475633</v>
+        <v>3.734432679648965</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.97234834729431</v>
+        <v>38.65372394498928</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>46.62156080009717</v>
+        <v>47.50981473097948</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.806729979967503</v>
+        <v>4.469663841633924</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>59.90395505282223</v>
+        <v>62.72364679137387</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>62.88098861033342</v>
+        <v>64.79851110791569</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>68.25009569695757</v>
+        <v>70.11998064855521</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>73.20357984730558</v>
+        <v>71.75466633145864</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>75.11545618168165</v>
+        <v>76.69758621685182</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>13.82808044538668</v>
+        <v>11.24740972881584</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>68.85342789778321</v>
+        <v>71.59090039253643</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>71.85793286590348</v>
+        <v>72.90335734932037</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>16.90864748344985</v>
+        <v>13.80391586847973</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>37.63785813374782</v>
+        <v>36.14335296634322</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>39.15550710140489</v>
+        <v>36.59195205468529</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.764075502361305</v>
+        <v>4.098006823808383</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>35.91025544040692</v>
+        <v>38.34788998371437</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>40.05799632705977</v>
+        <v>36.41561319650257</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>5.639864461578522</v>
+        <v>4.542490284186808</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>57.18091145019372</v>
+        <v>56.28727145907941</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>62.91857926175739</v>
+        <v>61.39441959281334</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>56.11400103499572</v>
+        <v>57.75176532978145</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>63.28432498438965</v>
+        <v>65.96189888972626</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>62.95608189948181</v>
+        <v>58.52008317173123</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>11.77407177939114</v>
+        <v>9.298710932663724</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>54.22624631274232</v>
+        <v>55.28828630121998</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>66.71833461107596</v>
+        <v>68.89178597131708</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>16.9054253460511</v>
+        <v>14.13530630365681</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>41.33796120521015</v>
+        <v>39.53813154243369</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>44.03044056172611</v>
+        <v>41.88657897635098</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3.48448967872762</v>
+        <v>3.822511149742809</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>45.88112169612789</v>
+        <v>47.68191415419506</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>49.57743882486881</v>
+        <v>47.48864102363119</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>4.074369466224333</v>
+        <v>4.135936713672141</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>67.06013392697935</v>
+        <v>68.21883587823025</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>73.89096134498567</v>
+        <v>67.90858696599473</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>80.76891339712789</v>
+        <v>81.02577216453123</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>84.40069928402932</v>
+        <v>81.51946158086078</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>90.32257275703256</v>
+        <v>85.4786191572977</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>5.828606348331121</v>
+        <v>3.547884843431877</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>79.0297693614263</v>
+        <v>78.83314166843999</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>84.02708272707159</v>
+        <v>82.61381611987275</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>15.79519380502303</v>
+        <v>14.88730665931246</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>21.60048976910014</v>
+        <v>18.28132894212195</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>21.23461223198327</v>
+        <v>17.55118496704888</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>4.231370289680509</v>
+        <v>5.449508166997305</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.38534888158668</v>
+        <v>18.8030022711989</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>23.53307345095413</v>
+        <v>19.71379908445812</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>7.15647417071628</v>
+        <v>9.659118160047214</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.17938531868086</v>
+        <v>26.79783976404223</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>30.95887035203097</v>
+        <v>28.77170257479203</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>33.5767313694565</v>
+        <v>29.41612689137693</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>38.54354828438581</v>
+        <v>33.54066608680595</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.62362482664532</v>
+        <v>37.26948279222639</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.78135577108037</v>
+        <v>17.87645393829088</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.2763823901007</v>
+        <v>24.85190172892942</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>30.20211298157873</v>
+        <v>26.02211074041665</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>14.79702812087598</v>
+        <v>10.93523862514227</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>31.60379417564281</v>
+        <v>32.39456069366907</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>36.40208288697222</v>
+        <v>36.5362891509169</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>7.412426554154624</v>
+        <v>4.183084761461011</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>32.35947370836371</v>
+        <v>34.98993304030137</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.86414058050048</v>
+        <v>41.56130510165963</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>8.699343628499452</v>
+        <v>5.021860956568606</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>52.14489895279657</v>
+        <v>54.16050092598965</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>60.79009845025219</v>
+        <v>63.38140234124776</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>51.43814285374127</v>
+        <v>53.45234390190754</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>56.30409606619956</v>
+        <v>59.07104678374021</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>63.11355109965358</v>
+        <v>60.03316087427523</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>14.91220279926481</v>
+        <v>10.77267327887383</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>57.54683977094529</v>
+        <v>55.56402381494438</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>62.01156984058419</v>
+        <v>64.62649378020021</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.01286282300401</v>
+        <v>19.14778984049072</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>41.70631964885561</v>
+        <v>40.95497949274671</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>47.01532144305344</v>
+        <v>47.09284783652203</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>10.30250791674196</v>
+        <v>6.687758117996868</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.52015826951776</v>
+        <v>46.22912237109034</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>51.85630178814997</v>
+        <v>51.86516939430621</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>17.96238165636989</v>
+        <v>13.8037305306001</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>68.96228670616051</v>
+        <v>69.93998275807951</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>76.74861907012514</v>
+        <v>75.2349335106237</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>75.7663964473561</v>
+        <v>75.26402042858126</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>76.01277849748328</v>
+        <v>75.29000156844032</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>89.4780879096225</v>
+        <v>86.01436809017015</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.39717371750223</v>
+        <v>31.28482757313924</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>75.43651147383076</v>
+        <v>74.7624236490678</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>87.99265724449377</v>
+        <v>82.65886281476844</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>15.26698279016327</v>
+        <v>13.82257768193425</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>17.42526668548146</v>
+        <v>16.31862510770211</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>19.53422592006357</v>
+        <v>17.51206042094066</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-0.3595484807274474</v>
+        <v>3.855313878357798</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>21.04679149086399</v>
+        <v>17.11301793757764</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>22.15467975561464</v>
+        <v>18.77192518130914</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>3.067681572227595</v>
+        <v>7.326543533009307</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>26.97814591112267</v>
+        <v>24.49245972305705</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.89173594968265</v>
+        <v>29.09461870812394</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>42.96832939382496</v>
+        <v>43.80177862568411</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>53.97993853019156</v>
+        <v>54.1767727108497</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>61.44297587972937</v>
+        <v>61.34198535753025</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>18.65227172283942</v>
+        <v>17.00818038703628</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>32.36532434456736</v>
+        <v>28.74046354086878</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>33.45362869669633</v>
+        <v>30.32290498534009</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>7.605585028605834</v>
+        <v>5.683674240893041</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>15.47625827708885</v>
+        <v>12.78295685512648</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>32.98942641834197</v>
+        <v>34.47914139994059</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>7.47939112298295</v>
+        <v>4.098324543015156</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>15.96921180732531</v>
+        <v>12.26832491099271</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>59.08385055003112</v>
+        <v>61.52828056610836</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-1.099613354013961</v>
+        <v>3.504897865985612</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>33.47130373580396</v>
+        <v>28.67729040493109</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>60.08507833962958</v>
+        <v>60.75916677903992</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.21579959083964</v>
+        <v>34.68918833381976</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>53.66709590426533</v>
+        <v>48.90406793064059</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>65.30643850200019</v>
+        <v>59.37088049223762</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>9.86604694011416</v>
+        <v>6.44839211019357</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>51.8616829637463</v>
+        <v>48.23754609503655</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>66.89059763732948</v>
+        <v>64.15991628461484</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>22.03590124101256</v>
+        <v>19.2523490732061</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>31.57132730253642</v>
+        <v>30.84679530546113</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.69142974648162</v>
+        <v>40.84751617791206</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>7.936238785629641</v>
+        <v>4.533496951438078</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>20.00769491307681</v>
+        <v>15.38526662631934</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>46.42625531102118</v>
+        <v>49.19233443106798</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>5.0435039719376</v>
+        <v>5.925989780914133</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>50.2898252254824</v>
+        <v>44.63572828031906</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>68.49440673226775</v>
+        <v>70.25180923841447</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>76.49079269755822</v>
+        <v>75.69982173694102</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>74.50423233555364</v>
+        <v>74.81173675105163</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>87.54654934857984</v>
+        <v>85.94977080075141</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>18.85647114701629</v>
+        <v>15.2461161038483</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>58.55514367185476</v>
+        <v>57.05849309141807</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>83.8997612852398</v>
+        <v>84.87983430365659</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>23.94994499584556</v>
+        <v>26.27564449461957</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>36.07821819059255</v>
+        <v>31.79946713122603</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>39.39124269813414</v>
+        <v>35.26950589576528</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>8.361758664136609</v>
+        <v>5.750259498970117</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>50.49165022558972</v>
+        <v>47.52213661636651</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>50.47773580140159</v>
+        <v>44.67886330714183</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>14.4149249497038</v>
+        <v>13.31880172881676</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>66.12742769090929</v>
+        <v>63.49292720304412</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>63.66860370285966</v>
+        <v>59.52786753507094</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>65.73443342713091</v>
+        <v>60.92046487605327</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>72.45045054772395</v>
+        <v>67.09633606430609</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>73.96983756123967</v>
+        <v>69.09610780596689</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>40.6674224773207</v>
+        <v>42.94737034030631</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>60.49845196595336</v>
+        <v>61.59644445627943</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>79.40314312089933</v>
+        <v>72.44649173078334</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.35233132019113</v>
+        <v>31.92689177427734</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>42.8533839928193</v>
+        <v>38.64817789177895</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>43.80126484493861</v>
+        <v>40.14550741613035</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>7.825312789600993</v>
+        <v>4.844408452890924</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>38.55459079520881</v>
+        <v>40.87842320981442</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>41.29798364985258</v>
+        <v>38.39858589470694</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.720985230463135</v>
+        <v>6.390379719459602</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>58.9074511607943</v>
+        <v>57.5602212162031</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>60.58863762201573</v>
+        <v>59.53999972977637</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>59.77036511411164</v>
+        <v>62.26741791465729</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>65.10899841745166</v>
+        <v>60.35401582038843</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>64.61306376319865</v>
+        <v>61.23667127330384</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>31.06421971428925</v>
+        <v>34.73125774910804</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>68.68098782350785</v>
+        <v>63.44874844013478</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>67.89398282429167</v>
+        <v>63.14117046085323</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>27.75297560583518</v>
+        <v>30.77361079077344</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>45.52416146227582</v>
+        <v>40.35209024964602</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>47.08702483034512</v>
+        <v>41.91222622154093</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>9.380311638857677</v>
+        <v>5.537909631222988</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>48.96300378245091</v>
+        <v>51.83471933508424</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>50.59154520443516</v>
+        <v>46.2554951520068</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>10.18337034248484</v>
+        <v>6.612055985096987</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>70.69109381101575</v>
+        <v>72.74418898685671</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>73.70346508063693</v>
+        <v>71.05503555309804</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>83.76713669317195</v>
+        <v>85.26888520270235</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>84.71658697948548</v>
+        <v>81.16722222741461</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>88.20503136461656</v>
+        <v>80.08124219536069</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>38.81477995649983</v>
+        <v>41.73822416866167</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>80.81716589602581</v>
+        <v>79.61307376468669</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>85.28429214614246</v>
+        <v>80.53016795870444</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>19.91041945859483</v>
+        <v>16.52883271762572</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>37.73366444154556</v>
+        <v>38.666596340578</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>40.97217540817099</v>
+        <v>37.54580680501614</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>7.793663423445512</v>
+        <v>4.442277937878636</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>42.81616663950525</v>
+        <v>46.07257382070674</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>46.26436247974326</v>
+        <v>45.8080376220301</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>8.017767802173655</v>
+        <v>4.765069875062384</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>60.14141611692251</v>
+        <v>63.24573182657852</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>61.51640345503539</v>
+        <v>64.43348915369079</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>63.13676858462873</v>
+        <v>64.14380602642568</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>73.31916550016535</v>
+        <v>73.53502337556584</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>73.68449275094723</v>
+        <v>71.73514270312113</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>13.92821093659544</v>
+        <v>10.94237944908741</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>66.29216499584049</v>
+        <v>68.93576558660467</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>72.84210348453021</v>
+        <v>73.73026847479164</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>16.3991161302685</v>
+        <v>14.27368650141652</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.37511514770744</v>
+        <v>35.8960694867982</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>38.25776499118174</v>
+        <v>36.91552419952841</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>5.834669121288936</v>
+        <v>4.188475387602622</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.67847781804373</v>
+        <v>37.35974386040482</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>41.82489820003755</v>
+        <v>36.73131657362739</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>7.599762955194695</v>
+        <v>3.957677057304178</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>57.79303531924523</v>
+        <v>53.31176148086459</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>66.12056728836225</v>
+        <v>59.33630871560519</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>59.73957207437064</v>
+        <v>61.66948303451703</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>66.48062956422464</v>
+        <v>62.35854765851172</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>65.2179138604391</v>
+        <v>60.74762237981991</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>13.35719703634916</v>
+        <v>9.564172908710997</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>69.41860504209008</v>
+        <v>64.98560656599793</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>68.60153375162493</v>
+        <v>64.35123424122999</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>16.58616478972624</v>
+        <v>13.56116431074765</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>39.97451563249858</v>
+        <v>38.32567011405725</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>43.24173342242673</v>
+        <v>42.88246202803191</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>6.378337462679866</v>
+        <v>4.232426313722822</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>46.58346854742397</v>
+        <v>48.26778460035894</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>50.46132641372831</v>
+        <v>48.4118811584492</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>6.594736805223306</v>
+        <v>4.350744002101131</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>65.83445657946379</v>
+        <v>66.72551301679067</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>74.30825658240447</v>
+        <v>72.24020236761021</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>77.83067957635741</v>
+        <v>77.73230066323639</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>82.29612100159179</v>
+        <v>77.48256741799412</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>90.03438611991928</v>
+        <v>83.51392118396204</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>12.44922116420157</v>
+        <v>9.782736756902899</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>74.71674275586241</v>
+        <v>74.39228986273386</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>82.17390357712434</v>
+        <v>82.45526453079374</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_3/out_of_sample/ligand/LOO_t-BuBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.486</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.607</v>
+        <v>17.013</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.881</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.917</v>
+        <v>10.702</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.954</v>
+        <v>5.143</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.48482419966265</v>
+        <v>17.64384619256344</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.03961131149944</v>
+        <v>21.98712567849185</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.7874879916921</v>
+        <v>21.21084377459267</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.235895612152746</v>
+        <v>-1.679415797549936</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.3705615634414</v>
+        <v>22.92400404104271</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.5550721970744</v>
+        <v>23.22753474228706</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.113788468647062</v>
+        <v>2.108504194467027</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.35887398562602</v>
+        <v>33.45761612122132</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.26218682877052</v>
+        <v>30.64804845447375</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>30.63452870337442</v>
+        <v>35.99783520995379</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.19285933039693</v>
+        <v>43.68511436271786</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.56993539843289</v>
+        <v>44.85382612182772</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.94715779122357</v>
+        <v>14.03412885048137</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.77962599492487</v>
+        <v>32.20587193416962</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.69395409743802</v>
+        <v>35.05070061408431</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>17.31599121801901</v>
+        <v>20.3461839762165</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37.90870019685134</v>
+        <v>38.83810459220845</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>41.66982275676518</v>
+        <v>45.18752383742388</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.114966719085302</v>
+        <v>4.367740659805701</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>33.86903781581903</v>
+        <v>35.95140131511153</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>46.4644078655267</v>
+        <v>47.81869842023534</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.674569123850141</v>
+        <v>8.639120792582958</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>62.75527437051777</v>
+        <v>61.04992267229509</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>74.77125926460882</v>
+        <v>74.11387290434079</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>63.62368724493042</v>
+        <v>63.44768322942913</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>74.05314924921483</v>
+        <v>74.84229123591183</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>77.21971068406363</v>
+        <v>82.00533737260481</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17.23009980841604</v>
+        <v>24.98640785037464</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>82.78535984488542</v>
+        <v>78.98868830895812</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>86.70526850306497</v>
+        <v>85.64080223675498</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.69020240278548</v>
+        <v>32.27095430118431</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.57051927123356</v>
+        <v>52.49600604357895</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>51.12297314079127</v>
+        <v>55.41910041738769</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6.789287268422587</v>
+        <v>10.37258004212265</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.59502281864285</v>
+        <v>46.09450790848572</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>55.38063746447339</v>
+        <v>54.76352134793986</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>15.58879070346656</v>
+        <v>17.536674840509</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>82.24069321848729</v>
+        <v>80.60558222054131</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>81.06341407303168</v>
+        <v>82.69862922346077</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>88.6051205962372</v>
+        <v>96.80392010778264</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>93.82057349691792</v>
+        <v>102.2358121359348</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>96.8070084812606</v>
+        <v>105.2242445314568</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>37.08087076017117</v>
+        <v>41.94992150212674</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>101.9799447092778</v>
+        <v>102.6697880698798</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>102.1182611016971</v>
+        <v>103.291785197779</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>8.477172893556641</v>
+        <v>8.881581179919397</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>46.50086297750089</v>
+        <v>42.0957989834198</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.65380740880727</v>
+        <v>42.69170739898974</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.127045588018252</v>
+        <v>0.6380210565020477</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>43.94753505539447</v>
+        <v>47.98548428862078</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>48.51154967248465</v>
+        <v>48.45521261422687</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4.038306404772207</v>
+        <v>1.781979379584342</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>66.81790265191155</v>
+        <v>70.37632070204197</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>64.47079695772645</v>
+        <v>68.43725519958089</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>64.78865329336647</v>
+        <v>65.64403113090708</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>65.98998757873778</v>
+        <v>73.33641272782468</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>66.28603603899721</v>
+        <v>73.82895392161635</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9.280692269897028</v>
+        <v>12.48251637880884</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>66.47418249436153</v>
+        <v>66.87077040854042</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>69.31935772345246</v>
+        <v>68.81890882264129</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>9.98385547451478</v>
+        <v>12.90639956630341</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>43.33999154731468</v>
+        <v>43.21561375996568</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.49555248237328</v>
+        <v>48.53368358746471</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2.721118584191913</v>
+        <v>3.840674787620014</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>38.40512597674855</v>
+        <v>42.38872293277063</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>46.2884657432521</v>
+        <v>52.24273352290145</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.510686937346946</v>
+        <v>6.828728511808716</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>66.46733704315477</v>
+        <v>66.55068129702184</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>82.09466650384617</v>
+        <v>80.59979220495283</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>65.33685615883579</v>
+        <v>65.08347126390791</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>76.02929548748025</v>
+        <v>77.04791424263398</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>80.15925622242595</v>
+        <v>80.08313434411426</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6.760379171804974</v>
+        <v>11.06577189661521</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>78.10531063797997</v>
+        <v>77.55180273933109</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>82.50053416828651</v>
+        <v>82.19983696522638</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10.22057858794972</v>
+        <v>12.18109697993255</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>50.56437127281194</v>
+        <v>48.85106481313476</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>49.68464387566532</v>
+        <v>51.40278861844728</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2.093780653303391</v>
+        <v>2.533622294804253</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50.46417770276203</v>
+        <v>52.74293753911294</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>56.44045115567292</v>
+        <v>59.49421585813086</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3.998368811502953</v>
+        <v>6.313172030498656</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>83.09614507102275</v>
+        <v>83.14003242950268</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>83.11309838338741</v>
+        <v>90.09127654665363</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>89.34909889326218</v>
+        <v>91.31854265009936</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>95.96453181689581</v>
+        <v>102.5852143539365</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>96.61371706005281</v>
+        <v>102.2528280415877</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.426275956972638</v>
+        <v>16.7770789454889</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>93.80468173066757</v>
+        <v>94.87120935447537</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>94.84130505874901</v>
+        <v>96.00547964877155</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>39.86345396656287</v>
+        <v>27.31688909278211</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>44.12950533904055</v>
+        <v>44.15554561772458</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>44.45134089780703</v>
+        <v>45.32834516856784</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4.80338731399182</v>
+        <v>7.817989099588321</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>46.89088434388373</v>
+        <v>47.53295388454154</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>46.58534009699418</v>
+        <v>47.94341165552619</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.333930758905989</v>
+        <v>9.015018272219244</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>70.97409299145193</v>
+        <v>69.52287534269709</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>63.64884490694259</v>
+        <v>64.46012153174681</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>61.46930138839218</v>
+        <v>64.92131325752044</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>77.82301110314346</v>
+        <v>77.36639394227512</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>75.63723253779277</v>
+        <v>75.14547072439547</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>32.19291507920311</v>
+        <v>29.9287282941288</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>68.29227352543012</v>
+        <v>67.89325453882753</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>68.09101938109302</v>
+        <v>67.47069194177607</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.46706592183381</v>
+        <v>26.62310746824581</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.56448335850179</v>
+        <v>50.0843075727888</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>46.47689767872492</v>
+        <v>52.66990261078746</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.595220563454205</v>
+        <v>7.698792139537147</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>43.24287623816279</v>
+        <v>47.22242725500094</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.3189598880284</v>
+        <v>53.7344016829508</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.992465303681012</v>
+        <v>9.782424145072856</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>71.19797891187098</v>
+        <v>72.7960816544888</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>82.48176130580752</v>
+        <v>81.98248793123878</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>69.97908025217792</v>
+        <v>69.25008448220684</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>81.40996333043813</v>
+        <v>82.22891322210863</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>81.16728492377482</v>
+        <v>81.47674638180729</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.13694413198071</v>
+        <v>30.05697565563656</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>78.16542382326716</v>
+        <v>79.82433273650147</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>79.97249478695178</v>
+        <v>80.45711065735372</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>39.16150460531307</v>
+        <v>30.89041199508914</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>51.68062404958696</v>
+        <v>55.49780960075938</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>49.57992721928507</v>
+        <v>55.26532364309166</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3.988069575760697</v>
+        <v>8.526600507517614</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>53.96866461023259</v>
+        <v>58.72792093732031</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>53.42752198838394</v>
+        <v>60.58991586494116</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>7.341890655496627</v>
+        <v>10.82104960646596</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>81.46030434685048</v>
+        <v>86.9315429372047</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>78.06906743386321</v>
+        <v>87.26737304617967</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>87.70741857191436</v>
+        <v>95.85481989717204</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>90.7647023508602</v>
+        <v>100.6768094472407</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>93.19852577902424</v>
+        <v>102.9373081961462</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>41.28078281038265</v>
+        <v>39.29746618304714</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>93.72974561547744</v>
+        <v>99.17081851192907</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>91.79444488759425</v>
+        <v>96.9956520235113</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>15.95158470353729</v>
+        <v>17.51852247546216</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>20.83124202897366</v>
+        <v>23.03740756700913</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>19.61396304125083</v>
+        <v>23.15546970000537</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3.513630745305313</v>
+        <v>-0.5685607640664188</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.1596987369901</v>
+        <v>24.02394922829843</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>23.1679647193845</v>
+        <v>25.33960148198562</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7.82292164742573</v>
+        <v>5.442904424251093</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.45669621986041</v>
+        <v>33.48801224502412</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.565311757971</v>
+        <v>32.24630487394334</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>33.07754556642249</v>
+        <v>38.81276387410122</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>36.02121607819798</v>
+        <v>43.05708627526938</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.23624125369422</v>
+        <v>48.35634634824666</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>65.02886898018571</v>
+        <v>56.75086965673292</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>69.82922210930124</v>
+        <v>68.40853900125555</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>66.27374604523982</v>
+        <v>68.39970816549285</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>13.48799028851507</v>
+        <v>18.56008468433928</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>43.0957689950381</v>
+        <v>41.57358724547914</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>45.42670064022033</v>
+        <v>48.97106875418794</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>4.524841705640647</v>
+        <v>6.694171640711691</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>46.17214810651843</v>
+        <v>44.38176494888921</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>58.42534039033359</v>
+        <v>56.33741805081502</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>17.66248296913187</v>
+        <v>16.35081811913305</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>70.10729467839637</v>
+        <v>65.44486484065462</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>80.54946821783788</v>
+        <v>79.15557987266338</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>63.54806804933858</v>
+        <v>63.80009785363963</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>74.08181289108173</v>
+        <v>72.10313074678514</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>79.0694950646372</v>
+        <v>79.43428963975836</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>15.47275332559093</v>
+        <v>30.10864327403424</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>77.27991174711489</v>
+        <v>77.88659382678635</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>83.70210832352446</v>
+        <v>83.13493256393241</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.9862514899903</v>
+        <v>30.46652545145095</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>52.09913551197777</v>
+        <v>51.13116215374976</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>52.24514959821347</v>
+        <v>53.38282915813783</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>7.544578857433006</v>
+        <v>10.54897870643102</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>50.0406054836826</v>
+        <v>50.02802440485819</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>58.77633231064098</v>
+        <v>58.26576545467825</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>18.2153750108489</v>
+        <v>19.84693140979887</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>78.85352077508243</v>
+        <v>79.92806033556107</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>82.81519816280914</v>
+        <v>83.00254222966436</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>85.53865707664043</v>
+        <v>88.15851173590504</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>90.18952911730641</v>
+        <v>91.35089884157495</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>98.98549108309942</v>
+        <v>101.1188830295372</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.86802816527396</v>
+        <v>44.43330271985498</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>93.99144229699853</v>
+        <v>96.598448217216</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>94.72886179348167</v>
+        <v>98.69063088051888</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>32.67663514216604</v>
+        <v>29.42196370120111</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>53.76978846923723</v>
+        <v>49.26713467157091</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>47.05437034051695</v>
+        <v>46.68539451759772</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.979333016368187</v>
+        <v>8.890584759981092</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>54.34488054598509</v>
+        <v>51.40539986375201</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>57.025451245059</v>
+        <v>51.57577514715584</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.559113232902057</v>
+        <v>14.53083555272593</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>81.73009943893217</v>
+        <v>74.5273508002025</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>69.49342260192857</v>
+        <v>69.25080422636628</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>60.04050477861976</v>
+        <v>58.84991213443328</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>78.35230583032283</v>
+        <v>72.0717759204498</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>80.59553515770823</v>
+        <v>71.372971744164</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.53069202487463</v>
+        <v>23.15250309931788</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>3.250845697876155</v>
+        <v>38.57543030290061</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>3.147273101635676</v>
+        <v>38.08866026065091</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>37.94100262933096</v>
+        <v>34.32220547409287</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>52.74949483387469</v>
+        <v>55.21902342947892</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>48.97711715053477</v>
+        <v>53.45469645939183</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4.887791333040031</v>
+        <v>7.448342560513648</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>47.25360003429</v>
+        <v>49.12906029119661</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>52.41458526443449</v>
+        <v>55.58451288367922</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>14.7159977508282</v>
+        <v>15.27298220123333</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>77.70718227367601</v>
+        <v>78.04526585282002</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>80.70681523052951</v>
+        <v>82.54882556297451</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>78.58720691630666</v>
+        <v>77.19924194776354</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>82.29335960941326</v>
+        <v>86.25425380088024</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>86.09168879564606</v>
+        <v>88.06101527077578</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>48.62740583362763</v>
+        <v>45.53698448309126</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>86.42656377997341</v>
+        <v>89.84721299822931</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42.29423033673887</v>
+        <v>38.09120985574439</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>52.93067512821801</v>
+        <v>60.12009024872862</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>50.91072456364667</v>
+        <v>58.14826981362645</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>5.392520516225236</v>
+        <v>8.398943253448355</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>54.33227832530353</v>
+        <v>53.32536726409656</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>53.11790167745562</v>
+        <v>57.32224044699574</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>9.408503487734649</v>
+        <v>13.33516803963652</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>84.02878870610999</v>
+        <v>85.11747311585725</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>79.49671921697124</v>
+        <v>88.1215477930281</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>88.69330280961675</v>
+        <v>97.81555930143482</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>91.37355692382256</v>
+        <v>100.603791217979</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>94.43469627115761</v>
+        <v>104.1917445742852</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>62.47085552049261</v>
+        <v>51.08019599155131</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>97.72099329057242</v>
+        <v>105.1235137384989</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>94.1809872465286</v>
+        <v>103.9800430481889</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.25091935663099</v>
+        <v>25.26096689563739</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>45.0157681506298</v>
+        <v>42.18278254706016</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>42.52602693258267</v>
+        <v>45.59959423342785</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>4.37463202262493</v>
+        <v>7.317189108819349</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>46.70352728150641</v>
+        <v>48.74008068324631</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>49.838747926015</v>
+        <v>47.98195354182084</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>6.83595565220217</v>
+        <v>9.677167205769258</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>73.14833314726927</v>
+        <v>72.91242133353016</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>65.72338084162351</v>
+        <v>68.20029433727066</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>62.11403489498457</v>
+        <v>57.94930262822025</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>70.76919442380697</v>
+        <v>66.74234224889535</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>72.56400297385004</v>
+        <v>68.24642354889903</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>18.66470226336102</v>
+        <v>14.37915713132025</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2.174929633467997</v>
+        <v>15.97873820640347</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>1.560758077885527</v>
+        <v>16.0065398885444</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.10968928952336</v>
+        <v>28.86793811235779</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>51.37480088040636</v>
+        <v>57.24726989518864</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>51.64231880495707</v>
+        <v>56.36394168886649</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>4.408203669244646</v>
+        <v>7.101073440458745</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>45.57222085149676</v>
+        <v>50.62232338293811</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>52.2698381514286</v>
+        <v>55.29264552273983</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>6.508951849123157</v>
+        <v>9.570332705518592</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>77.76650184838229</v>
+        <v>77.74140850429319</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>80.17591947853012</v>
+        <v>80.04934897913074</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>70.50693807768322</v>
+        <v>71.78244154329433</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>81.59036733633553</v>
+        <v>83.22162226090146</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>85.41914785070205</v>
+        <v>85.78153531904864</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>30.99033960594297</v>
+        <v>31.35580836520837</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>85.52085479610052</v>
+        <v>86.29121313735644</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>86.54509498601502</v>
+        <v>86.2881566450244</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>31.8057031212767</v>
+        <v>29.38601036012949</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>51.56360632476352</v>
+        <v>57.82510270051563</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>53.40210584689699</v>
+        <v>59.09671662749927</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>4.885739052781371</v>
+        <v>7.349108745573158</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>48.945359079718</v>
+        <v>54.24119942257688</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>51.82268406652577</v>
+        <v>58.89476154984745</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>7.076981940828404</v>
+        <v>10.55253398012794</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>79.1600963823727</v>
+        <v>83.3028948384423</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>76.62139793819776</v>
+        <v>85.82344060773315</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>86.04229062357265</v>
+        <v>88.94494311836334</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>88.94097220110152</v>
+        <v>98.1887106050587</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>88.85905546671577</v>
+        <v>99.20962070363427</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.18811486675096</v>
+        <v>32.15534756058609</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>93.19973294676544</v>
+        <v>95.00277893648956</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>92.21919565230036</v>
+        <v>92.97183278584976</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>10.73324378447024</v>
+        <v>11.41296649258001</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>12.87011223637426</v>
+        <v>10.09122210228933</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.58869789164813</v>
+        <v>13.63332706352083</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>5.503924389660046</v>
+        <v>-2.705965289939787</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>17.23505641196935</v>
+        <v>14.21353569285732</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.51016865677618</v>
+        <v>15.59506761179914</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>5.124185033192745</v>
+        <v>-0.6320428508365055</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>20.78892664166044</v>
+        <v>23.87852565333358</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>21.41139782927079</v>
+        <v>23.40949618127647</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.96069255357425</v>
+        <v>31.85034624227636</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>37.31938897203974</v>
+        <v>39.20380848928158</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.59927139826442</v>
+        <v>39.89478388723803</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>12.78874516059928</v>
+        <v>13.25396582372923</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.43778992271768</v>
+        <v>24.58245708311257</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>21.79239769765947</v>
+        <v>22.29773115643013</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>11.38694406543533</v>
+        <v>14.49407274215167</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>30.13491715410088</v>
+        <v>32.75042755850777</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.23373591833869</v>
+        <v>39.26881041902597</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>4.084591882229351</v>
+        <v>2.714538057949998</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>33.85199182677415</v>
+        <v>30.84626062190979</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>43.21994780831606</v>
+        <v>41.40110606051775</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>4.357871485462056</v>
+        <v>6.443706532151058</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>50.48514386264839</v>
+        <v>51.30526439834026</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>58.21735053271121</v>
+        <v>61.80423400389735</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.12497039523992</v>
+        <v>50.24478588927853</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>58.57050004244837</v>
+        <v>60.92034252211142</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>59.3414770372332</v>
+        <v>65.43661130838947</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>13.6716974043875</v>
+        <v>17.07529181336869</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>56.38842776118969</v>
+        <v>61.21058334885229</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>56.60497012354449</v>
+        <v>63.90062720031528</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>22.39955465143762</v>
+        <v>20.9801640449281</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>37.40956091689191</v>
+        <v>41.31716428881829</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>46.98853469646174</v>
+        <v>47.70974773266757</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>4.878623788841413</v>
+        <v>8.823108420144617</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.87080133983521</v>
+        <v>46.07683809918854</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>56.20983473748951</v>
+        <v>55.74156516623665</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>8.781914697266274</v>
+        <v>12.96984431177825</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>71.12650328007589</v>
+        <v>72.39963033007291</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>70.27710953407046</v>
+        <v>76.02723873256571</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>74.50620279431998</v>
+        <v>83.20490024703471</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>82.19418647218664</v>
+        <v>90.78099887768562</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>81.39114243884624</v>
+        <v>91.3813605668451</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>37.83349407375241</v>
+        <v>38.18587389953201</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>85.43433645729975</v>
+        <v>90.88808053903276</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>90.04576000328504</v>
+        <v>92.96100837876732</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>12.25529759171275</v>
+        <v>12.40876841653991</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>14.59199886654943</v>
+        <v>15.1845907655781</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>12.19326677784382</v>
+        <v>13.9412976753796</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>2.492303711763508</v>
+        <v>-2.174536195168493</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>15.91331667670432</v>
+        <v>15.66942557351381</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>19.7377010050057</v>
+        <v>16.12501946077013</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>5.678981249449485</v>
+        <v>-1.573604182306529</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>16.55794354464261</v>
+        <v>19.8158071959563</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.54012966257407</v>
+        <v>17.56367029633879</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>20.9319682138741</v>
+        <v>21.40844336121508</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>22.28396194249528</v>
+        <v>27.77445810728303</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>19.87498870678175</v>
+        <v>26.57401278243922</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.72742495000876</v>
+        <v>6.218445666931515</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>15.91354216765653</v>
+        <v>17.66032811063424</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>12.87226844964259</v>
+        <v>15.76322785271935</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3.70823178068359</v>
+        <v>3.213176357253957</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>8.831044899916272</v>
+        <v>8.791671821777978</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>10.18397333184322</v>
+        <v>14.18320494619982</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1.658066479726585</v>
+        <v>-5.660930036283204</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>10.42566904824758</v>
+        <v>8.910038907782415</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>17.68026342762718</v>
+        <v>16.20640294226471</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>1.657702195956301</v>
+        <v>-5.472811007653853</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>15.93266484204559</v>
+        <v>19.12257827826598</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>31.27285651364791</v>
+        <v>31.61172692292719</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10.9185498449705</v>
+        <v>19.30487229114508</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>32.29257939973272</v>
+        <v>35.63869016675828</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.13636088038785</v>
+        <v>45.3129394225376</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>3.416939085995555</v>
+        <v>2.378415622581009</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.12991157335635</v>
+        <v>26.28668923472489</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>15.97937239051122</v>
+        <v>23.98876779876343</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>4.378303079337261</v>
+        <v>5.942308020303059</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>14.98923678326129</v>
+        <v>16.27581907952026</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.35112346820399</v>
+        <v>32.13627647368881</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1.657627706388471</v>
+        <v>-4.036353540077851</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>17.20703392745986</v>
+        <v>19.21623833114847</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>39.7027267995491</v>
+        <v>37.44148417964868</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1.975531142974873</v>
+        <v>-3.790354607645959</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>27.50988546965061</v>
+        <v>34.12599759896211</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>72.80100222471152</v>
+        <v>60.21370627956335</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>17.87082748863333</v>
+        <v>42.27683935097355</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>55.10405877718928</v>
+        <v>58.65284192569602</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>79.56408477680368</v>
+        <v>79.2711432093528</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>3.734529508225901</v>
+        <v>5.738583098773667</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>45.59284993165003</v>
+        <v>47.01915275341639</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>51.52072320260829</v>
+        <v>53.98597414231735</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>20.13909445918815</v>
+        <v>19.70493319740595</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>23.52389124255181</v>
+        <v>30.14704777135347</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>36.44576121295417</v>
+        <v>40.72933445767535</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>5.259445723871476</v>
+        <v>7.461576067747146</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>45.45707958106728</v>
+        <v>51.4857109166793</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.8059105788568</v>
+        <v>51.12622576404763</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.25159512735978</v>
+        <v>11.18807480946738</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>67.65730728806346</v>
+        <v>73.86013288613057</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>65.14266311546668</v>
+        <v>72.97426048497299</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>66.26804460284545</v>
+        <v>73.81075011846748</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>79.08974274267204</v>
+        <v>80.79659963714184</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>74.57725212587835</v>
+        <v>79.66913673712287</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>47.82824237333753</v>
+        <v>49.13042972242535</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>69.7568151000257</v>
+        <v>69.17076964654183</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>73.26792545800546</v>
+        <v>81.10560620323258</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.52251534356981</v>
+        <v>21.16163628466063</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>35.56526184450296</v>
+        <v>39.89299415553368</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.27632199700996</v>
+        <v>41.51130997091608</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>4.916028424872071</v>
+        <v>3.750437924697543</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>39.727798395238</v>
+        <v>39.83708482214406</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>41.06160031253984</v>
+        <v>42.61105770394978</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>7.768688155258332</v>
+        <v>8.080969206435853</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>59.22442647308215</v>
+        <v>64.30384650928734</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>61.57389100874708</v>
+        <v>68.94600337527146</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>55.64312844675744</v>
+        <v>61.56806547246286</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>62.63932846053309</v>
+        <v>68.45788459042737</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>60.92619916478446</v>
+        <v>68.11523889265322</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>35.33182960282502</v>
+        <v>31.84671784868344</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>65.61890186694824</v>
+        <v>74.70681321763176</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>63.41741043243495</v>
+        <v>71.0583550052761</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.14783850130626</v>
+        <v>23.04276372915212</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.75781942449402</v>
+        <v>41.65844337466938</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.70391456566092</v>
+        <v>45.50628195218934</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>5.360433846796102</v>
+        <v>7.273194454123331</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>52.77926147098385</v>
+        <v>50.28460179312984</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.98657973651393</v>
+        <v>53.1832052568748</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>8.565406202325036</v>
+        <v>10.84191901149916</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>73.65534173501928</v>
+        <v>78.05640470504194</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>72.37462101633216</v>
+        <v>80.33203456677093</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>77.41774631777049</v>
+        <v>85.83716004551411</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>81.50797112442723</v>
+        <v>89.06728255917405</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>81.75877219076595</v>
+        <v>89.57658125092561</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>41.73848777916051</v>
+        <v>39.22847852072769</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>82.31291427364951</v>
+        <v>90.71610710828001</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>85.09767228065107</v>
+        <v>90.38446711738467</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>9.050002974614312</v>
+        <v>6.512718852131208</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>12.55284661010599</v>
+        <v>13.17509340341094</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>13.0402431347155</v>
+        <v>14.77813455981951</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>3.592579147895357</v>
+        <v>-2.308684796865169</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>12.03459722245114</v>
+        <v>10.66829761339325</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.17916013838285</v>
+        <v>14.366645572175</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>4.739155221981484</v>
+        <v>-1.110286482200596</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>18.68149336644627</v>
+        <v>21.25697333413754</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>20.13742249416037</v>
+        <v>22.93299438758379</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.52755092946725</v>
+        <v>25.47182359761391</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.04343048867301</v>
+        <v>30.1850155723646</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.73502188260559</v>
+        <v>31.89510528306133</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>9.002317509981829</v>
+        <v>2.707630689621084</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>18.02270179880652</v>
+        <v>21.10406815525803</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>19.38405420424217</v>
+        <v>23.71543894043952</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>6.221519082647784</v>
+        <v>8.220687548634832</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.177699747285</v>
+        <v>26.77344629470225</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.78206839478121</v>
+        <v>31.89537750281778</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>3.73475491352637</v>
+        <v>3.316968483291959</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.11830283176218</v>
+        <v>24.8218232964191</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>36.53597998230106</v>
+        <v>33.81351098610135</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>4.155946115839019</v>
+        <v>5.709735402900943</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>44.42550959365212</v>
+        <v>42.31695836430119</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>52.03854650254517</v>
+        <v>52.13856242750163</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.39596833820485</v>
+        <v>39.95852793867884</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>47.36893350572912</v>
+        <v>47.22013919272779</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>51.83298397267065</v>
+        <v>51.09997601465088</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>6.519642574375951</v>
+        <v>8.479068699204383</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>44.8125580265717</v>
+        <v>47.23223585882997</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>50.05799156514133</v>
+        <v>53.76310102841067</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>16.11002285262488</v>
+        <v>18.73463378852775</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>33.55730819989806</v>
+        <v>38.31551133145544</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>45.3898189327338</v>
+        <v>44.60314391891741</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>8.221931316862054</v>
+        <v>11.47647249266323</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>34.18880502611683</v>
+        <v>39.98918229204486</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>45.93062677124411</v>
+        <v>49.67251868665005</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>16.40898109464517</v>
+        <v>19.46483362080972</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>57.46722832862574</v>
+        <v>63.44760364183274</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>66.47936562506099</v>
+        <v>71.89145535171841</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>62.91289967131355</v>
+        <v>71.20936762400522</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>77.37577534282072</v>
+        <v>78.47477817153958</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>87.88755887164098</v>
+        <v>87.60405017939966</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.20711999839132</v>
+        <v>28.32157824406033</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>71.865189101092</v>
+        <v>74.04575630524073</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>79.79130826533282</v>
+        <v>80.67503678121602</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>3.73496127416178</v>
+        <v>4.198387653196932</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.051259973210747</v>
+        <v>5.959659692461308</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>5.626604167586216</v>
+        <v>6.634235512266127</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>1.657260757833441</v>
+        <v>-3.937482270154565</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>4.803449258853689</v>
+        <v>8.751675188672763</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>8.141356334742898</v>
+        <v>11.13136085752553</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>1.881593968443759</v>
+        <v>-11.16818479879419</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>5.374279523771584</v>
+        <v>11.94436058171111</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>8.647110331843809</v>
+        <v>11.21682444103425</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>7.186668883477846</v>
+        <v>13.80081445652126</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.14369702229301</v>
+        <v>18.26514284962093</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>15.21481338612791</v>
+        <v>20.54973835676612</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>2.912584688202323</v>
+        <v>-3.631329036186319</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.09805440371359</v>
+        <v>7.992351382416487</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>7.497061550079582</v>
+        <v>9.450705007604899</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>22.87226204170877</v>
+        <v>19.85658815132926</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.64419459538407</v>
+        <v>38.40773842008729</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>36.1893868112586</v>
+        <v>41.09032472391571</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>4.505509144643739</v>
+        <v>6.59530547581484</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>38.26005041932815</v>
+        <v>37.01087832663308</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.96356598598538</v>
+        <v>45.01202264312602</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>5.655938221614733</v>
+        <v>7.660027992066926</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>55.59425666952424</v>
+        <v>56.77867012179171</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>59.8768094950269</v>
+        <v>66.41630768978708</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>58.51256187628748</v>
+        <v>55.71769810331182</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>57.6429443384909</v>
+        <v>64.55192321779694</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>60.61270210290368</v>
+        <v>66.01941122438191</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.24206856706985</v>
+        <v>21.89880540988268</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>61.0672915168102</v>
+        <v>65.34095865700937</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>61.62191907527284</v>
+        <v>65.60065292060574</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>27.62266221239084</v>
+        <v>24.31729597749548</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>41.39724986947986</v>
+        <v>47.580633053122</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>48.17843060889764</v>
+        <v>50.28717557062966</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>4.823244581391503</v>
+        <v>8.7853083348704</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>54.57655148291693</v>
+        <v>53.02347869640543</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>58.25593865256207</v>
+        <v>57.79603194696205</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>6.405768765513869</v>
+        <v>9.525773998523498</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>76.1762309052599</v>
+        <v>74.90984574627092</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>73.60192757938654</v>
+        <v>78.46587566960005</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>83.90264608060707</v>
+        <v>87.30287400948549</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>87.38384159235954</v>
+        <v>94.83963909218259</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>88.66033739731434</v>
+        <v>94.39264121954142</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>31.13986327115151</v>
+        <v>29.55705247816217</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>90.00674192437936</v>
+        <v>90.70283721080136</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>85.21836171800211</v>
+        <v>86.37470589192</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>14.31173575087808</v>
+        <v>10.74429394472557</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>17.35533746170241</v>
+        <v>15.67022151068758</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.71370338144209</v>
+        <v>15.85096210264541</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>3.665889879122769</v>
+        <v>-1.507817973359</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.66329677083966</v>
+        <v>14.78033475464189</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>20.63649748558495</v>
+        <v>16.76584375075266</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>6.04802284447565</v>
+        <v>0.6087733981294008</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>22.91780270631535</v>
+        <v>25.09447557965193</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.37836234489701</v>
+        <v>22.93982497461615</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.04401905404339</v>
+        <v>26.99546167968028</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>33.2209123373835</v>
+        <v>33.03409373258965</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.55301487996442</v>
+        <v>36.31269420409888</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>11.938226363986</v>
+        <v>13.81184198959227</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.79831526480425</v>
+        <v>27.27867391675758</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.5325070819888</v>
+        <v>29.59838665560833</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>3.669931229469647</v>
+        <v>5.209906154100029</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>11.54046354721095</v>
+        <v>12.80010866703766</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>22.86738137007103</v>
+        <v>22.93096254575649</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1.828055225028145</v>
+        <v>-3.350470382077443</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>10.15932784751399</v>
+        <v>11.38640394435153</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.67059544251778</v>
+        <v>25.12366727204713</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>1.974790443514333</v>
+        <v>-1.916787658997894</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>16.94876393536842</v>
+        <v>20.96086883850417</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>43.14661470865423</v>
+        <v>40.97062147103062</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>14.10941849197623</v>
+        <v>18.71342954432467</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.41734826510862</v>
+        <v>31.5696372516994</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.71887844706826</v>
+        <v>38.62929945045673</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>3.505214718477113</v>
+        <v>5.005284992964079</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>30.0750742338506</v>
+        <v>28.5049668535321</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>39.00004608676434</v>
+        <v>37.22426701142469</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>21.68191678913653</v>
+        <v>19.68541885203071</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.57296774437172</v>
+        <v>32.63182060198829</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>40.91087385272047</v>
+        <v>37.61089534585957</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>5.470588606221103</v>
+        <v>3.473591332491992</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.3554392433856</v>
+        <v>30.52478649819966</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.11749497927004</v>
+        <v>38.44064181092197</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>13.89043024752124</v>
+        <v>9.81337632721484</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>47.32183624442821</v>
+        <v>52.58376757848983</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>60.53227730175676</v>
+        <v>60.09831544808293</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>52.05304498890548</v>
+        <v>58.36813793620859</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>62.00488757539921</v>
+        <v>66.62045732658757</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>71.07362214138963</v>
+        <v>69.98699896126013</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>36.63506931175617</v>
+        <v>33.57108425496307</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>57.21817544070108</v>
+        <v>62.43068514047769</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>60.46652440151517</v>
+        <v>65.20392365886781</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>4.641680755175237</v>
+        <v>2.893029712598953</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>7.763034041465165</v>
+        <v>4.53061823954004</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>7.530980565051529</v>
+        <v>3.591694693608698</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>2.025635090022508</v>
+        <v>-4.342361762019735</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>6.906160243165829</v>
+        <v>2.073525887342473</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>8.179113531277704</v>
+        <v>4.785202486237353</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>2.009462063973295</v>
+        <v>-5.162466480966039</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>8.360954912436867</v>
+        <v>5.836574506069137</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>10.64339174621497</v>
+        <v>5.00775520579986</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>7.07583524937484</v>
+        <v>7.379134463534385</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.039711835205285</v>
+        <v>7.993797915648791</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>12.85076570967054</v>
+        <v>11.53017983674719</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.442109228637548</v>
+        <v>2.626666545429593</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>6.838940579080187</v>
+        <v>9.354834505992276</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>8.960610087090462</v>
+        <v>11.36959663376721</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>3.558668123622471</v>
+        <v>0.1016739951033152</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>5.422565769833664</v>
+        <v>4.047486202939975</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>6.77716636543613</v>
+        <v>5.719120503335017</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>1.657807584882413</v>
+        <v>-4.729964713980216</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.703006307590325</v>
+        <v>3.528453519766611</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>6.373134189734341</v>
+        <v>10.38789363724473</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>2.113877343643914</v>
+        <v>-4.324579016850745</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5.771245988616386</v>
+        <v>8.12190096859149</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>10.0740203351405</v>
+        <v>14.49301481492528</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>5.407237628880381</v>
+        <v>6.638907149520008</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>8.745381998162159</v>
+        <v>9.806482332019485</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>10.69993433069298</v>
+        <v>12.61473577311263</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>1.657755003912037</v>
+        <v>-4.204980463546761</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>6.208449130578611</v>
+        <v>10.19567581202765</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>7.846585806231904</v>
+        <v>12.07735011200719</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.2979596345962</v>
+        <v>17.54048000859192</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>23.67611651040949</v>
+        <v>23.14990021123351</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.63628117498013</v>
+        <v>25.52218171815305</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>6.081092553446414</v>
+        <v>3.615021635097467</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>19.89326572430722</v>
+        <v>21.07166850332838</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>23.1149037836889</v>
+        <v>28.019812843378</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>15.01366525785032</v>
+        <v>9.594046570491713</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.53649944252853</v>
+        <v>36.111182296274</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.83746942941664</v>
+        <v>39.35190170071964</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>43.21395765676677</v>
+        <v>45.47702321049029</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>47.02701000852006</v>
+        <v>45.9257130930343</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>51.36790240756322</v>
+        <v>50.12838728790717</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>30.75459857806224</v>
+        <v>25.82781088903693</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>33.66545553067257</v>
+        <v>40.23723018981887</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>37.64501975516999</v>
+        <v>44.13133930008663</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>19.9716581865633</v>
+        <v>21.94749374138912</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>31.84433328769637</v>
+        <v>33.7093499309246</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>37.09438424288691</v>
+        <v>34.99968133232411</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>4.497871996519308</v>
+        <v>3.288196310303505</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.51041716742471</v>
+        <v>30.99252496234131</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.57829748677507</v>
+        <v>34.65922085469023</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>7.649649083258211</v>
+        <v>9.307868109454059</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>48.47266625071578</v>
+        <v>46.60748928197485</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>49.73515094437508</v>
+        <v>48.40741228812747</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>50.70255483155761</v>
+        <v>51.24237445687172</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>60.86112520232453</v>
+        <v>62.09826147652613</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>64.00745315368182</v>
+        <v>65.03531157551171</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>35.56626877745739</v>
+        <v>33.74864839808655</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>62.34206233418216</v>
+        <v>60.17425640142553</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>68.42062868058274</v>
+        <v>62.97046219470969</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>17.58249240138591</v>
+        <v>13.43970777152967</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.77835533588189</v>
+        <v>26.02172691397689</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.03384226628324</v>
+        <v>29.09949458525482</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>2.443641617528122</v>
+        <v>-3.123724765653257</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>17.63111018741445</v>
+        <v>21.08108645839274</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.01865443705324</v>
+        <v>27.7625757159594</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>5.176632973688687</v>
+        <v>1.088861062387032</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.07634569294963</v>
+        <v>40.52118818714641</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>37.75889797127101</v>
+        <v>46.79320833770498</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.76822182047878</v>
+        <v>43.89357154416922</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>47.5570446042471</v>
+        <v>50.75320596768604</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>45.92907019482669</v>
+        <v>51.54787585844676</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.88841607832468</v>
+        <v>23.33947058845584</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>51.48795408660148</v>
+        <v>58.07476168457133</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>53.38341674003553</v>
+        <v>59.78040565503113</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.25689157722642</v>
+        <v>28.1518775658666</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.70274459822429</v>
+        <v>43.41445075820187</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>48.03748662863212</v>
+        <v>49.44243719003811</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>5.847705715889933</v>
+        <v>7.826223075915419</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>36.65729366204076</v>
+        <v>39.39966848763103</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>40.76765740846602</v>
+        <v>46.77563453934373</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>11.79407707593753</v>
+        <v>14.22169540105369</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>64.80504825118551</v>
+        <v>68.81122318460478</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>64.8706411638121</v>
+        <v>72.75500971898676</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>79.88131501717091</v>
+        <v>87.86532663845372</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>83.31880811552612</v>
+        <v>87.81828331057608</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>86.38839183597358</v>
+        <v>89.17761387607152</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>45.61887070880928</v>
+        <v>41.61912717912023</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>77.00671474232828</v>
+        <v>84.39221710099466</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>80.77055848499775</v>
+        <v>89.4201937009978</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>21.02914386125553</v>
+        <v>17.18704197476445</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>34.61936067094529</v>
+        <v>39.37965292530832</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>37.86581133425961</v>
+        <v>42.06061745410076</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>6.461057272077124</v>
+        <v>8.681154654984791</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>42.60872673356758</v>
+        <v>45.09441431569061</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>42.78055762657709</v>
+        <v>47.46737739720717</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>11.00843942032742</v>
+        <v>10.25622985285905</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>59.27688241683095</v>
+        <v>64.3170219696045</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>61.15128564519842</v>
+        <v>64.57429038148256</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>71.03402489117737</v>
+        <v>71.28288523808902</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>71.40754663869983</v>
+        <v>78.27264095738857</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>73.83159717830316</v>
+        <v>78.55207418907688</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.48522904657835</v>
+        <v>22.46204896506045</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>70.44555825867322</v>
+        <v>70.0451128969973</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>70.7976981143872</v>
+        <v>71.46458736074453</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.66767232125885</v>
+        <v>16.12244551440381</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>34.43386985978357</v>
+        <v>37.64575608776302</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>40.68819192835907</v>
+        <v>42.0085427847485</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>4.183157929445141</v>
+        <v>6.231189908408169</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>37.0353817595588</v>
+        <v>36.06922414182969</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>38.33963129506252</v>
+        <v>42.99647718682304</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>4.916312202044342</v>
+        <v>7.373194078699544</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>54.36827359196681</v>
+        <v>54.96482212904708</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>65.24710444958427</v>
+        <v>65.42831306299317</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>56.88146966956933</v>
+        <v>55.70911873541452</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>63.94769797493805</v>
+        <v>64.07285461764079</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>57.01359780070932</v>
+        <v>63.21654166210514</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>20.13569798728763</v>
+        <v>17.12733269525074</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>63.90863493264648</v>
+        <v>65.55629092369213</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>69.5473692998815</v>
+        <v>70.10405514638127</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>22.85888083920852</v>
+        <v>18.53518655537987</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>39.32729485143611</v>
+        <v>43.62625744711296</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>43.62680301969114</v>
+        <v>48.52729945307701</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>4.450225515345203</v>
+        <v>5.888746984492528</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>48.19316644577557</v>
+        <v>45.78869254510946</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>46.67345845927085</v>
+        <v>52.20919840113798</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>5.242067493719176</v>
+        <v>7.283017159271431</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>67.13942705291397</v>
+        <v>67.01380960938599</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>68.75838839100351</v>
+        <v>76.41040480336486</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>80.96282589493045</v>
+        <v>82.12191865565251</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>81.15652775640451</v>
+        <v>88.49583095876997</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>85.05861364139093</v>
+        <v>93.6299884265985</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>22.69446956570548</v>
+        <v>24.47713225975281</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>79.91407866471903</v>
+        <v>82.76517077324921</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>82.43049910288758</v>
+        <v>88.61667017985789</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>27.43564890694891</v>
+        <v>23.91171010091346</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>32.19065347778717</v>
+        <v>37.41161325866273</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.49691521329505</v>
+        <v>41.27634424424704</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>4.790913616447757</v>
+        <v>6.537415087520664</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>44.29252157834981</v>
+        <v>49.66281530542915</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.79698324612055</v>
+        <v>50.22073196018482</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>10.11582948042836</v>
+        <v>11.1155283716897</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>60.63038573147317</v>
+        <v>67.10289579556007</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>60.3806120076878</v>
+        <v>66.14462657773635</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>61.56077736705768</v>
+        <v>64.57342148415128</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>62.39163626948707</v>
+        <v>69.56976149295753</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>65.84373840025758</v>
+        <v>68.6690935356329</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>44.86406176799447</v>
+        <v>32.30913906321764</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>65.1402892867617</v>
+        <v>59.87287839311058</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>69.77189394565409</v>
+        <v>72.9172233956568</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.66892690392692</v>
+        <v>24.42004976062906</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>38.89060471679999</v>
+        <v>40.38340777208845</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>37.08931556214045</v>
+        <v>42.42164719203642</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>4.202630541760104</v>
+        <v>3.401653752187819</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>37.3060773827869</v>
+        <v>38.1789430611787</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>38.30753400776731</v>
+        <v>44.58124292196299</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>5.504466556346859</v>
+        <v>6.379257828330264</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>56.64419891635586</v>
+        <v>62.18421444647444</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>64.39233499946467</v>
+        <v>71.20932922239214</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>62.45835481595142</v>
+        <v>62.81230090182015</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>63.45688130582134</v>
+        <v>69.36643440867147</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>63.36004701523818</v>
+        <v>70.23352276351855</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>30.94981842855204</v>
+        <v>27.93647999672328</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>69.09776761306881</v>
+        <v>76.24404625505437</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>70.49571246801307</v>
+        <v>78.02876906985679</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>31.68179211342414</v>
+        <v>27.91736026052018</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>42.52278831863462</v>
+        <v>47.38671509405887</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.12877765367343</v>
+        <v>49.13470007784453</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>4.813506210041851</v>
+        <v>5.344908396199344</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>48.3902469824902</v>
+        <v>46.13926518489599</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.76154202547634</v>
+        <v>51.22709109609569</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>6.437058119839698</v>
+        <v>7.862585419815126</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>71.82432797865273</v>
+        <v>76.03676380663779</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>69.29463521244359</v>
+        <v>78.92332874146692</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>83.48975325103942</v>
+        <v>91.14479388726498</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>84.77145826596563</v>
+        <v>93.21237375102559</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>84.37432613546603</v>
+        <v>94.67277664316491</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>31.70014585113334</v>
+        <v>29.93018632873966</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>81.07190512441333</v>
+        <v>89.94513353816926</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>81.05138539504831</v>
+        <v>91.9244485974892</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.40227339998569</v>
+        <v>25.79465251217377</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.67035999279223</v>
+        <v>36.29941050569329</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>38.05902724666328</v>
+        <v>39.48401356827458</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>10.88028658905461</v>
+        <v>16.38102896889453</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>64.81456148318431</v>
+        <v>59.22513241672625</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>61.80699461002926</v>
+        <v>59.37398245450296</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>10.62774687624094</v>
+        <v>14.6348802294734</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>63.45192977755211</v>
+        <v>62.42314425321929</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>60.68903776427714</v>
+        <v>60.89592548987112</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>69.63079782351944</v>
+        <v>62.79848323986728</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>70.92981413879012</v>
+        <v>72.55893351410589</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>70.97504619175876</v>
+        <v>73.24730395417029</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>54.84775590226822</v>
+        <v>41.0673038101087</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>69.08118785311628</v>
+        <v>55.87453629031225</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>74.35972543262697</v>
+        <v>68.21320742166083</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>31.57172613999006</v>
+        <v>24.52557193491329</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>38.60042715032665</v>
+        <v>36.49078377046781</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.50611531832678</v>
+        <v>42.47825430543784</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.04583959811042</v>
+        <v>29.46054768588028</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>56.22063518363998</v>
+        <v>54.76841369115664</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>52.95961240481236</v>
+        <v>61.73396111187285</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>7.998886590256607</v>
+        <v>10.33277552998977</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>58.67718963895815</v>
+        <v>58.28124594462556</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>61.43092367409722</v>
+        <v>69.63883565780746</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>58.97104055658417</v>
+        <v>58.43640624141533</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>61.29869511661332</v>
+        <v>68.65789575707751</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>60.13073187856547</v>
+        <v>67.66132292853595</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>36.64110329182135</v>
+        <v>33.38807500799371</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>65.04126049542849</v>
+        <v>71.7324855646274</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>68.89404790515475</v>
+        <v>75.91049006186557</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>36.18773836655788</v>
+        <v>31.47102767754046</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.40104947971612</v>
+        <v>47.62405940622136</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.50571420025763</v>
+        <v>49.05446238252109</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>40.7697902041665</v>
+        <v>34.46368745729765</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>65.51093056587139</v>
+        <v>65.31739085118031</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>58.49079388781637</v>
+        <v>68.60998573123231</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>8.106849573558488</v>
+        <v>12.46130224289214</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>71.3273731209889</v>
+        <v>74.03703378726605</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>67.89397388217479</v>
+        <v>78.39268341170076</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>89.91281336390148</v>
+        <v>92.86886540088364</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>84.26073700743129</v>
+        <v>92.90193681194442</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>86.57349316964782</v>
+        <v>97.30042520057582</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>45.10356514556504</v>
+        <v>42.32427258253847</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>83.19784225803301</v>
+        <v>91.73991516512216</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>84.68592160002125</v>
+        <v>94.91485411711966</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>17.37051164234385</v>
+        <v>19.41696590371742</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.22262547705228</v>
+        <v>40.03006841142142</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>38.79971375622684</v>
+        <v>44.58044881563217</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>3.734432679648965</v>
+        <v>5.955497212874096</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.65372394498928</v>
+        <v>39.76375805677536</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>47.50981473097948</v>
+        <v>45.47341063681374</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>4.469663841633924</v>
+        <v>6.244746958716526</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>62.72364679137387</v>
+        <v>61.36477622023148</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>64.79851110791569</v>
+        <v>63.92535154100823</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>70.11998064855521</v>
+        <v>69.55359160341324</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>71.75466633145864</v>
+        <v>76.92932679163729</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>76.69758621685182</v>
+        <v>79.46065368487105</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.24740972881584</v>
+        <v>13.52800705919742</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>71.59090039253643</v>
+        <v>70.4370851043621</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>72.90335734932037</v>
+        <v>72.99315898003383</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>13.80391586847973</v>
+        <v>15.77989632527103</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.14335296634322</v>
+        <v>37.86708311277333</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.59195205468529</v>
+        <v>39.50107779313431</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4.098006823808383</v>
+        <v>1.893934174812621</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>38.34788998371437</v>
+        <v>35.02490101343931</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.41561319650257</v>
+        <v>40.4807613108435</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4.542490284186808</v>
+        <v>2.771768803862237</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>56.28727145907941</v>
+        <v>56.05999877603346</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>61.39441959281334</v>
+        <v>63.65720369415691</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>57.75176532978145</v>
+        <v>56.99340119685525</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>65.96189888972626</v>
+        <v>63.97400363333833</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>58.52008317173123</v>
+        <v>64.1142399999566</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>9.298710932663724</v>
+        <v>10.90190310316483</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>55.28828630121998</v>
+        <v>61.04773807571167</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>68.89178597131708</v>
+        <v>67.56701889100887</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>14.13530630365681</v>
+        <v>16.10234350609401</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>39.53813154243369</v>
+        <v>42.21277345375581</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>41.88657897635098</v>
+        <v>45.83427272339608</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>3.822511149742809</v>
+        <v>2.343215064099851</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>47.68191415419506</v>
+        <v>46.40902668802994</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>47.48864102363119</v>
+        <v>51.24018973599661</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>4.135936713672141</v>
+        <v>3.668485536727577</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>68.21883587823025</v>
+        <v>68.46720164340198</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>67.90858696599473</v>
+        <v>75.0671319512322</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>81.02577216453123</v>
+        <v>82.84524014174038</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>81.51946158086078</v>
+        <v>88.0322278446376</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>85.4786191572977</v>
+        <v>93.9348507364945</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>3.547884843431877</v>
+        <v>12.05344274970329</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>78.83314166843999</v>
+        <v>81.56395492160597</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>82.61381611987275</v>
+        <v>88.36913549681697</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>14.88730665931246</v>
+        <v>14.96015660064708</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>18.28132894212195</v>
+        <v>19.48423078589974</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.55118496704888</v>
+        <v>19.6654894044404</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>5.449508166997305</v>
+        <v>0.9479294562510319</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.8030022711989</v>
+        <v>20.29849568332711</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>19.71379908445812</v>
+        <v>21.34326571415551</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>9.659118160047214</v>
+        <v>3.644316017753741</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.79783976404223</v>
+        <v>30.3174655993684</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.77170257479203</v>
+        <v>29.55506664979421</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.41612689137693</v>
+        <v>34.94454603934676</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.54066608680595</v>
+        <v>39.30977857802515</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>37.26948279222639</v>
+        <v>42.26911989604642</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.87645393829088</v>
+        <v>17.19477104268986</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.85190172892942</v>
+        <v>28.31492121829528</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.02211074041665</v>
+        <v>30.5749828128758</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>10.93523862514227</v>
+        <v>14.04484722644176</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.39456069366907</v>
+        <v>33.05720526190573</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>36.5362891509169</v>
+        <v>37.85371352739756</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>4.183084761461011</v>
+        <v>3.946960181999849</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>34.98993304030137</v>
+        <v>32.47056957315522</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>41.56130510165963</v>
+        <v>40.99850405359523</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>5.021860956568606</v>
+        <v>7.966034042318924</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>54.16050092598965</v>
+        <v>53.06942900837934</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>63.38140234124776</v>
+        <v>62.44188866951103</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.45234390190754</v>
+        <v>52.03259977743662</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>59.07104678374021</v>
+        <v>56.93717245931554</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>60.03316087427523</v>
+        <v>65.3979958181572</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>10.77267327887383</v>
+        <v>14.18502870988119</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>55.56402381494438</v>
+        <v>57.84702157289408</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>64.62649378020021</v>
+        <v>64.08085892335433</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>19.14778984049072</v>
+        <v>22.35314157292623</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>40.95497949274671</v>
+        <v>43.19186575505152</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>47.09284783652203</v>
+        <v>49.4545755599535</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>6.687758117996868</v>
+        <v>9.625835034790008</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>46.22912237109034</v>
+        <v>44.36394386986021</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>51.86516939430621</v>
+        <v>53.84008450573005</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>13.8037305306001</v>
+        <v>17.7489002676592</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>69.93998275807951</v>
+        <v>70.589898617541</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>75.2349335106237</v>
+        <v>78.60411314205493</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>75.26402042858126</v>
+        <v>77.86690233882501</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>75.29000156844032</v>
+        <v>78.13148419778486</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>86.01436809017015</v>
+        <v>89.72042942826842</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>31.28482757313924</v>
+        <v>33.25348073660668</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>74.7624236490678</v>
+        <v>78.35672437790463</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>82.65886281476844</v>
+        <v>89.76406530497239</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>13.82257768193425</v>
+        <v>14.90905319884221</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>16.31862510770211</v>
+        <v>18.81746912686041</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>17.51206042094066</v>
+        <v>19.32075514161184</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>3.855313878357798</v>
+        <v>-1.759427839605074</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>17.11301793757764</v>
+        <v>24.12351394761034</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>18.77192518130914</v>
+        <v>25.05194562916821</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>7.326543533009307</v>
+        <v>2.092264027449492</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>24.49245972305705</v>
+        <v>32.86990448735187</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.09461870812394</v>
+        <v>31.93182095834711</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>43.80177862568411</v>
+        <v>43.72799045586284</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>54.1767727108497</v>
+        <v>53.65863338881159</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>61.34198535753025</v>
+        <v>55.31457454147869</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>17.00818038703628</v>
+        <v>18.69799965250983</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.74046354086878</v>
+        <v>34.16190359217953</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.32290498534009</v>
+        <v>41.19702359424414</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>5.683674240893041</v>
+        <v>7.233074353234752</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>12.78295685512648</v>
+        <v>16.83565281929856</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.47914139994059</v>
+        <v>32.05937624179018</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>4.098324543015156</v>
+        <v>2.289296582253471</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>12.26832491099271</v>
+        <v>21.70242640929439</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>61.52828056610836</v>
+        <v>42.65652974742443</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>3.504897865985612</v>
+        <v>-1.754152596226419</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.67729040493109</v>
+        <v>35.99086145150063</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>60.75916677903992</v>
+        <v>59.70574153337895</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>34.68918833381976</v>
+        <v>41.78293833527849</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>48.90406793064059</v>
+        <v>55.2154779152722</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>59.37088049223762</v>
+        <v>61.23230397934337</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>6.44839211019357</v>
+        <v>11.17063798767986</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>48.23754609503655</v>
+        <v>53.89549007980199</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>64.15991628461484</v>
+        <v>63.08697630831504</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>19.2523490732061</v>
+        <v>20.1791745580368</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.84679530546113</v>
+        <v>31.27443833953458</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>40.84751617791206</v>
+        <v>40.51795189118279</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>4.533496951438078</v>
+        <v>7.295768464295506</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.38526662631934</v>
+        <v>30.0775118432326</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>49.19233443106798</v>
+        <v>46.89612936492561</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>5.925989780914133</v>
+        <v>2.345484092606764</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>44.63572828031906</v>
+        <v>51.30955131707211</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>70.25180923841447</v>
+        <v>66.48396298516374</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>75.69982173694102</v>
+        <v>77.18012004121277</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>74.81173675105163</v>
+        <v>77.89536315666783</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>85.94977080075141</v>
+        <v>86.33768991700052</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>15.2461161038483</v>
+        <v>23.90049512824057</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>57.05849309141807</v>
+        <v>69.67297946311011</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>84.87983430365659</v>
+        <v>81.36128714165989</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>26.27564449461957</v>
+        <v>22.74826207069216</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.79946713122603</v>
+        <v>36.67809937710442</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.26950589576528</v>
+        <v>39.81129177516168</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>5.750259498970117</v>
+        <v>7.710916354167605</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>47.52213661636651</v>
+        <v>50.84076601290938</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.67886330714183</v>
+        <v>51.21060532217831</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>13.31880172881676</v>
+        <v>13.01343128741999</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>63.49292720304412</v>
+        <v>70.22368124425606</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>59.52786753507094</v>
+        <v>65.84764424496112</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>60.92046487605327</v>
+        <v>65.42137902899097</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>67.09633606430609</v>
+        <v>74.63516468267258</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>69.09610780596689</v>
+        <v>75.88454634792637</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>42.94737034030631</v>
+        <v>42.53863583804745</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>61.59644445627943</v>
+        <v>62.65207233618263</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>72.44649173078334</v>
+        <v>81.24697321874503</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>31.92689177427734</v>
+        <v>27.77341715993291</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>38.64817789177895</v>
+        <v>43.10864212531366</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>40.14550741613035</v>
+        <v>44.75211157535153</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>4.844408452890924</v>
+        <v>7.076448822878067</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>40.87842320981442</v>
+        <v>40.29256492135823</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>38.39858589470694</v>
+        <v>44.22654370263604</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>6.390379719459602</v>
+        <v>9.231667078957621</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>57.5602212162031</v>
+        <v>60.93543567490064</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>59.53999972977637</v>
+        <v>65.32332974853533</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>62.26741791465729</v>
+        <v>61.14865776303427</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>60.35401582038843</v>
+        <v>66.24225173046229</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>61.23667127330384</v>
+        <v>66.67100910089698</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>34.73125774910804</v>
+        <v>30.83671040715144</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>63.44874844013478</v>
+        <v>70.65261079241702</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>63.14117046085323</v>
+        <v>71.65777208686055</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.77361079077344</v>
+        <v>27.18894913939836</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>40.35209024964602</v>
+        <v>46.06250817998792</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.91222622154093</v>
+        <v>47.83704786701971</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>5.537909631222988</v>
+        <v>8.71045565023671</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>51.83471933508424</v>
+        <v>49.88749051680261</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>46.2554951520068</v>
+        <v>52.51776327866291</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>6.612055985096987</v>
+        <v>9.915242550597736</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>72.74418898685671</v>
+        <v>73.70612043928782</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>71.05503555309804</v>
+        <v>76.45911405029923</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>85.26888520270235</v>
+        <v>88.76249862440662</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>81.16722222741461</v>
+        <v>88.01807653907072</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>80.08124219536069</v>
+        <v>89.91784076958271</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>41.73822416866167</v>
+        <v>39.11589375448195</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>79.61307376468669</v>
+        <v>85.89620919005543</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>80.53016795870444</v>
+        <v>88.10881874794157</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>16.52883271762572</v>
+        <v>19.25273426617679</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>38.666596340578</v>
+        <v>38.65812451613346</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>37.54580680501614</v>
+        <v>41.73657858108137</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>4.442277937878636</v>
+        <v>7.669386887924908</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>46.07257382070674</v>
+        <v>44.2813085486037</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>45.8080376220301</v>
+        <v>45.90873006445269</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>4.765069875062384</v>
+        <v>7.473953328620283</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>63.24573182657852</v>
+        <v>61.10640450581538</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>64.43348915369079</v>
+        <v>62.59887152852625</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>64.14380602642568</v>
+        <v>65.37050366564262</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>73.53502337556584</v>
+        <v>77.66445484621184</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>71.73514270312113</v>
+        <v>76.4923365790647</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>10.94237944908741</v>
+        <v>13.85020153432726</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>68.93576558660467</v>
+        <v>67.62700031562696</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>73.73026847479164</v>
+        <v>71.07797855123012</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>14.27368650141652</v>
+        <v>15.26004775808475</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>35.8960694867982</v>
+        <v>37.44292239193631</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.91552419952841</v>
+        <v>38.56660244125711</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>4.188475387602622</v>
+        <v>3.829969171299805</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>37.35974386040482</v>
+        <v>38.07604123084728</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>36.73131657362739</v>
+        <v>42.79911576574358</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>3.957677057304178</v>
+        <v>6.172001144362834</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>53.31176148086459</v>
+        <v>59.07804888124755</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>59.33630871560519</v>
+        <v>67.3503023454638</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>61.66948303451703</v>
+        <v>60.3450102293492</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>62.35854765851172</v>
+        <v>67.87426388063911</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>60.74762237981991</v>
+        <v>66.01178433126434</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>9.564172908710997</v>
+        <v>12.44554826387533</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>64.98560656599793</v>
+        <v>68.99176433531794</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>64.35123424122999</v>
+        <v>69.6390868548161</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>13.56116431074765</v>
+        <v>15.69338908757341</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>38.32567011405725</v>
+        <v>40.87167642065762</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.88246202803191</v>
+        <v>43.9517917375981</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>4.232426313722822</v>
+        <v>4.197902210929652</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>48.26778460035894</v>
+        <v>47.31567775387092</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>48.4118811584492</v>
+        <v>51.29609568507831</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>4.350744002101131</v>
+        <v>6.21717661391294</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>66.72551301679067</v>
+        <v>67.24353111174032</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>72.24020236761021</v>
+        <v>74.49316265690203</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>77.73230066323639</v>
+        <v>79.73532847958373</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>77.48256741799412</v>
+        <v>85.30904822449774</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>83.51392118396204</v>
+        <v>91.80617398228415</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>9.782736756902899</v>
+        <v>12.10060577624074</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>74.39228986273386</v>
+        <v>76.90981369303542</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>82.45526453079374</v>
+        <v>83.83978250215887</v>
       </c>
     </row>
   </sheetData>
